--- a/process_data/GPP_6210501001.xlsx
+++ b/process_data/GPP_6210501001.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA30139-FF39-164F-9C5B-0C110B30D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF3D935-C974-804B-9117-C48676067343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
+    <workbookView xWindow="520" yWindow="760" windowWidth="38400" windowHeight="20360" activeTab="1" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="use" sheetId="2" r:id="rId2"/>
+    <sheet name="Ayutthaya" sheetId="2" r:id="rId2"/>
+    <sheet name="LopBuri" sheetId="3" r:id="rId3"/>
+    <sheet name="SingBuri" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
   <si>
     <t>GROSS PROVINCIAL PRODUCT AT CURRENT MARKET PRICES</t>
   </si>
@@ -200,13 +202,46 @@
     <t>Population (1,000 persons)</t>
   </si>
   <si>
-    <t>GROSS PROVINCIAL PRODUCT CHAIN VOLUME MEASURES (REFERENCE YEAR = 2002)</t>
+    <t>Factor</t>
   </si>
   <si>
-    <t>Gross provincial product (CVMs)</t>
+    <t>Electricity production from oil sources (% of total)</t>
   </si>
   <si>
-    <t>Note : Chain volume series are not additive. The sum of the components will thus not be equal to the shown totals.</t>
+    <t>Electricity production from natural gas sources (% of total)</t>
+  </si>
+  <si>
+    <t>Cereal production (metric tons)</t>
+  </si>
+  <si>
+    <t>Expenses Population SingBuri (Baht)</t>
+  </si>
+  <si>
+    <t>Expenses Population LopBuri (Baht)</t>
+  </si>
+  <si>
+    <t>Expenses Population Ayutthaya (Baht)</t>
+  </si>
+  <si>
+    <t>เนื้อที่ที่ถือครองเพื่อการเกษตร</t>
+  </si>
+  <si>
+    <t>เนื้อที่ที่ถือครองเพื่อการเกษตร (ไร่)</t>
+  </si>
+  <si>
+    <t>รายได้จากนักท่องเที่ยวชาวไทย (ล้านบาท)</t>
+  </si>
+  <si>
+    <t>รายได้จากนักท่องเที่ยวชาวต่างชาติ (ล้านบาท)</t>
+  </si>
+  <si>
+    <t>จำนวนโรงงานอุตสาหกรรม (โรงงาน)</t>
+  </si>
+  <si>
+    <t>ผลผลิตข้าวนาปี (พันต้น)</t>
+  </si>
+  <si>
+    <t>จำนวนสุกรที่ฆ่าเพื่อนำมาบริโภค (ตัว)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,8 +285,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +352,32 @@
         <fgColor indexed="27"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -383,6 +481,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -390,7 +603,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -520,6 +733,125 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,7 +1170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E03C5-685B-5940-859A-56FF0EBDBC17}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:Y30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2087,7 +2421,7 @@
         <v>3360.0163640000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>41</v>
       </c>
@@ -2164,7 +2498,7 @@
         <v>1769.2272740000001</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>42</v>
       </c>
@@ -2241,7 +2575,7 @@
         <v>8467.1639290000003</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
@@ -2318,7 +2652,7 @@
         <v>4805.6991200000002</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>44</v>
       </c>
@@ -2395,7 +2729,7 @@
         <v>9299.4050630000002</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>45</v>
       </c>
@@ -2472,7 +2806,7 @@
         <v>3270.3424890000001</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>46</v>
       </c>
@@ -2626,7 +2960,7 @@
         <v>7585.2098529999994</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>48</v>
       </c>
@@ -2703,7 +3037,7 @@
         <v>4467.1898659999997</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +3114,7 @@
         <v>330.66900500000003</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
@@ -2857,7 +3191,7 @@
         <v>1789.6754120000001</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>51</v>
       </c>
@@ -2934,7 +3268,7 @@
         <v>412701.09903099999</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>52</v>
       </c>
@@ -3011,7 +3345,7 @@
         <v>454952.54100000003</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>53</v>
       </c>
@@ -3115,10 +3449,8 @@
       <c r="X32" s="37"/>
       <c r="Y32" s="37"/>
     </row>
-    <row r="33" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3145,9 +3477,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3173,10 +3503,8 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3202,2007 +3530,707 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="8">
-        <v>3197.2945530000002</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3036.767863</v>
-      </c>
-      <c r="D37" s="8">
-        <v>3539.7877130000002</v>
-      </c>
-      <c r="E37" s="8">
-        <v>3626.4318250000001</v>
-      </c>
-      <c r="F37" s="8">
-        <v>3752.7892820000002</v>
-      </c>
-      <c r="G37" s="8">
-        <v>4099.4059500000003</v>
-      </c>
-      <c r="H37" s="8">
-        <v>4676.7109110000001</v>
-      </c>
-      <c r="I37" s="9">
-        <v>4704.1408499999998</v>
-      </c>
-      <c r="J37" s="10">
-        <v>4998.8304830000006</v>
-      </c>
-      <c r="K37" s="10">
-        <v>4785.2347809999992</v>
-      </c>
-      <c r="L37" s="10">
-        <v>4763.0358470000001</v>
-      </c>
-      <c r="M37" s="10">
-        <v>5000.7372129999994</v>
-      </c>
-      <c r="N37" s="10">
-        <v>4830.5413500000004</v>
-      </c>
-      <c r="O37" s="10">
-        <v>5403.2629720000004</v>
-      </c>
-      <c r="P37" s="10">
-        <v>5186.7705539999997</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>4522.7426400000004</v>
-      </c>
-      <c r="R37" s="8">
-        <v>3605.079776</v>
-      </c>
-      <c r="S37" s="8">
-        <v>4372.3404849999997</v>
-      </c>
-      <c r="T37" s="8">
-        <v>6035.7348030000003</v>
-      </c>
-      <c r="U37" s="8">
-        <v>5506.3990960000001</v>
-      </c>
-      <c r="V37" s="8">
-        <v>4953.1165830000009</v>
-      </c>
-      <c r="W37" s="8">
-        <v>4392.3419270000004</v>
-      </c>
-      <c r="X37" s="8">
-        <v>5108.1910799999996</v>
-      </c>
-      <c r="Y37" s="8">
-        <v>5367.9251830000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="12">
-        <v>3197.2945530000002</v>
-      </c>
-      <c r="C38" s="12">
-        <v>3036.767863</v>
-      </c>
-      <c r="D38" s="12">
-        <v>3539.7877130000002</v>
-      </c>
-      <c r="E38" s="12">
-        <v>3626.4318250000001</v>
-      </c>
-      <c r="F38" s="12">
-        <v>3752.7892820000002</v>
-      </c>
-      <c r="G38" s="12">
-        <v>4099.4059500000003</v>
-      </c>
-      <c r="H38" s="12">
-        <v>4676.7109110000001</v>
-      </c>
-      <c r="I38" s="13">
-        <v>4704.1408499999998</v>
-      </c>
-      <c r="J38" s="14">
-        <v>4998.8304830000006</v>
-      </c>
-      <c r="K38" s="14">
-        <v>4785.2347809999992</v>
-      </c>
-      <c r="L38" s="14">
-        <v>4763.0358470000001</v>
-      </c>
-      <c r="M38" s="14">
-        <v>5000.7372129999994</v>
-      </c>
-      <c r="N38" s="14">
-        <v>4830.5413500000004</v>
-      </c>
-      <c r="O38" s="14">
-        <v>5403.2629720000004</v>
-      </c>
-      <c r="P38" s="14">
-        <v>5186.7705539999997</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>4522.7426400000004</v>
-      </c>
-      <c r="R38" s="12">
-        <v>3605.079776</v>
-      </c>
-      <c r="S38" s="12">
-        <v>4372.3404849999997</v>
-      </c>
-      <c r="T38" s="12">
-        <v>6035.7348030000003</v>
-      </c>
-      <c r="U38" s="12">
-        <v>5506.3990960000001</v>
-      </c>
-      <c r="V38" s="12">
-        <v>4953.1165830000009</v>
-      </c>
-      <c r="W38" s="12">
-        <v>4392.3419270000004</v>
-      </c>
-      <c r="X38" s="12">
-        <v>5108.1910799999996</v>
-      </c>
-      <c r="Y38" s="12">
-        <v>5367.9251830000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="16">
-        <v>3197.2945530000002</v>
-      </c>
-      <c r="C39" s="16">
-        <v>3036.767863</v>
-      </c>
-      <c r="D39" s="16">
-        <v>3539.7877130000002</v>
-      </c>
-      <c r="E39" s="16">
-        <v>3626.4318250000001</v>
-      </c>
-      <c r="F39" s="16">
-        <v>3752.7892820000002</v>
-      </c>
-      <c r="G39" s="16">
-        <v>4099.4059500000003</v>
-      </c>
-      <c r="H39" s="16">
-        <v>4676.7109110000001</v>
-      </c>
-      <c r="I39" s="17">
-        <v>4704.1408499999998</v>
-      </c>
-      <c r="J39" s="18">
-        <v>4998.8304830000006</v>
-      </c>
-      <c r="K39" s="18">
-        <v>4785.2347809999992</v>
-      </c>
-      <c r="L39" s="18">
-        <v>4763.0358470000001</v>
-      </c>
-      <c r="M39" s="18">
-        <v>5000.7372129999994</v>
-      </c>
-      <c r="N39" s="18">
-        <v>4830.5413500000004</v>
-      </c>
-      <c r="O39" s="18">
-        <v>5403.2629720000004</v>
-      </c>
-      <c r="P39" s="18">
-        <v>5186.7705539999997</v>
-      </c>
-      <c r="Q39" s="18">
-        <v>4522.7426400000004</v>
-      </c>
-      <c r="R39" s="16">
-        <v>3605.079776</v>
-      </c>
-      <c r="S39" s="16">
-        <v>4372.3404849999997</v>
-      </c>
-      <c r="T39" s="16">
-        <v>6035.7348030000003</v>
-      </c>
-      <c r="U39" s="16">
-        <v>5506.3990960000001</v>
-      </c>
-      <c r="V39" s="16">
-        <v>4953.1165830000009</v>
-      </c>
-      <c r="W39" s="16">
-        <v>4392.3419270000004</v>
-      </c>
-      <c r="X39" s="16">
-        <v>5108.1910799999996</v>
-      </c>
-      <c r="Y39" s="16">
-        <v>5367.9251830000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="20">
-        <v>119275.16290900001</v>
-      </c>
-      <c r="C40" s="20">
-        <v>140439.16644299999</v>
-      </c>
-      <c r="D40" s="20">
-        <v>144156.53048099999</v>
-      </c>
-      <c r="E40" s="20">
-        <v>132778.132476</v>
-      </c>
-      <c r="F40" s="20">
-        <v>143932.130148</v>
-      </c>
-      <c r="G40" s="20">
-        <v>163580.24955899999</v>
-      </c>
-      <c r="H40" s="20">
-        <v>167124.306492</v>
-      </c>
-      <c r="I40" s="21">
-        <v>173233.32591799999</v>
-      </c>
-      <c r="J40" s="22">
-        <v>193840.73967899999</v>
-      </c>
-      <c r="K40" s="22">
-        <v>207554.54111600001</v>
-      </c>
-      <c r="L40" s="22">
-        <v>201540.27847700001</v>
-      </c>
-      <c r="M40" s="22">
-        <v>218416.22907500001</v>
-      </c>
-      <c r="N40" s="22">
-        <v>249668.95024599999</v>
-      </c>
-      <c r="O40" s="22">
-        <v>315899.67478599999</v>
-      </c>
-      <c r="P40" s="22">
-        <v>272031.55713700003</v>
-      </c>
-      <c r="Q40" s="22">
-        <v>310581.74082299997</v>
-      </c>
-      <c r="R40" s="20">
-        <v>263883.924061</v>
-      </c>
-      <c r="S40" s="20">
-        <v>266943.975997</v>
-      </c>
-      <c r="T40" s="20">
-        <v>322898.61646699999</v>
-      </c>
-      <c r="U40" s="20">
-        <v>280816.01072099997</v>
-      </c>
-      <c r="V40" s="20">
-        <v>316562.67168599996</v>
-      </c>
-      <c r="W40" s="20">
-        <v>306861.58288399997</v>
-      </c>
-      <c r="X40" s="20">
-        <v>306471.717688</v>
-      </c>
-      <c r="Y40" s="20">
-        <v>307965.166455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="16">
-        <v>84568.418951</v>
-      </c>
-      <c r="C41" s="16">
-        <v>97161.833412000007</v>
-      </c>
-      <c r="D41" s="16">
-        <v>103122.33950099999</v>
-      </c>
-      <c r="E41" s="16">
-        <v>91346.712983000005</v>
-      </c>
-      <c r="F41" s="16">
-        <v>102455.51003199999</v>
-      </c>
-      <c r="G41" s="16">
-        <v>114740.05585600001</v>
-      </c>
-      <c r="H41" s="16">
-        <v>118100.882233</v>
-      </c>
-      <c r="I41" s="17">
-        <v>121916.69684599999</v>
-      </c>
-      <c r="J41" s="18">
-        <v>141448.03452799999</v>
-      </c>
-      <c r="K41" s="18">
-        <v>151240.07151199999</v>
-      </c>
-      <c r="L41" s="18">
-        <v>147318.11987999998</v>
-      </c>
-      <c r="M41" s="18">
-        <v>161862.56602200001</v>
-      </c>
-      <c r="N41" s="18">
-        <v>185883.70185700001</v>
-      </c>
-      <c r="O41" s="18">
-        <v>245806.11801200002</v>
-      </c>
-      <c r="P41" s="18">
-        <v>206189.91402300002</v>
-      </c>
-      <c r="Q41" s="18">
-        <v>238314.23579899999</v>
-      </c>
-      <c r="R41" s="16">
-        <v>193970.66434299998</v>
-      </c>
-      <c r="S41" s="16">
-        <v>191874.39574000001</v>
-      </c>
-      <c r="T41" s="16">
-        <v>248091.64521800002</v>
-      </c>
-      <c r="U41" s="16">
-        <v>208554.20673099998</v>
-      </c>
-      <c r="V41" s="16">
-        <v>238856.0336</v>
-      </c>
-      <c r="W41" s="16">
-        <v>230606.220886</v>
-      </c>
-      <c r="X41" s="16">
-        <v>226927.84784200002</v>
-      </c>
-      <c r="Y41" s="16">
-        <v>224126.19849100002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="12">
-        <v>734.02711599999998</v>
-      </c>
-      <c r="C42" s="12">
-        <v>720.71301100000005</v>
-      </c>
-      <c r="D42" s="12">
-        <v>611.56287899999995</v>
-      </c>
-      <c r="E42" s="12">
-        <v>468.03481499999998</v>
-      </c>
-      <c r="F42" s="12">
-        <v>356.70261699999998</v>
-      </c>
-      <c r="G42" s="12">
-        <v>278.38124599999998</v>
-      </c>
-      <c r="H42" s="12">
-        <v>285.97785099999999</v>
-      </c>
-      <c r="I42" s="13">
-        <v>247.50244900000001</v>
-      </c>
-      <c r="J42" s="14">
-        <v>237.37035499999999</v>
-      </c>
-      <c r="K42" s="14">
-        <v>488.86083400000001</v>
-      </c>
-      <c r="L42" s="14">
-        <v>553.75052900000003</v>
-      </c>
-      <c r="M42" s="14">
-        <v>846.627432</v>
-      </c>
-      <c r="N42" s="14">
-        <v>886.57104300000003</v>
-      </c>
-      <c r="O42" s="14">
-        <v>875.01996999999994</v>
-      </c>
-      <c r="P42" s="14">
-        <v>723.52210000000002</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>784.59469300000001</v>
-      </c>
-      <c r="R42" s="12">
-        <v>958.80600200000003</v>
-      </c>
-      <c r="S42" s="12">
-        <v>942.88345400000003</v>
-      </c>
-      <c r="T42" s="12">
-        <v>856.64410599999997</v>
-      </c>
-      <c r="U42" s="12">
-        <v>926.11493499999995</v>
-      </c>
-      <c r="V42" s="12">
-        <v>1325.620275</v>
-      </c>
-      <c r="W42" s="12">
-        <v>1411.66516</v>
-      </c>
-      <c r="X42" s="12">
-        <v>1320.6691940000001</v>
-      </c>
-      <c r="Y42" s="12">
-        <v>1497.7770190000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="16">
-        <v>81608.190871000013</v>
-      </c>
-      <c r="C43" s="16">
-        <v>93784.004522000003</v>
-      </c>
-      <c r="D43" s="16">
-        <v>99461.822328000009</v>
-      </c>
-      <c r="E43" s="16">
-        <v>87500.498258000007</v>
-      </c>
-      <c r="F43" s="16">
-        <v>98839.854561</v>
-      </c>
-      <c r="G43" s="16">
-        <v>110792.378178</v>
-      </c>
-      <c r="H43" s="16">
-        <v>113918.31744299999</v>
-      </c>
-      <c r="I43" s="17">
-        <v>117684.59033299999</v>
-      </c>
-      <c r="J43" s="18">
-        <v>136630.839656</v>
-      </c>
-      <c r="K43" s="18">
-        <v>146106.19443999999</v>
-      </c>
-      <c r="L43" s="18">
-        <v>142109.423335</v>
-      </c>
-      <c r="M43" s="18">
-        <v>156463.69643799998</v>
-      </c>
-      <c r="N43" s="18">
-        <v>180040.52017199999</v>
-      </c>
-      <c r="O43" s="18">
-        <v>239696.146488</v>
-      </c>
-      <c r="P43" s="18">
-        <v>200343.70694999999</v>
-      </c>
-      <c r="Q43" s="18">
-        <v>231555.08782100002</v>
-      </c>
-      <c r="R43" s="16">
-        <v>187445.57941200002</v>
-      </c>
-      <c r="S43" s="16">
-        <v>184637.492103</v>
-      </c>
-      <c r="T43" s="16">
-        <v>240786.24001899999</v>
-      </c>
-      <c r="U43" s="16">
-        <v>201128.64198399999</v>
-      </c>
-      <c r="V43" s="16">
-        <v>230917.84694699998</v>
-      </c>
-      <c r="W43" s="16">
-        <v>222359.47401500001</v>
-      </c>
-      <c r="X43" s="16">
-        <v>216919.505003</v>
-      </c>
-      <c r="Y43" s="16">
-        <v>213380.25274999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="85" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="12">
-        <v>2027.5105490000001</v>
-      </c>
-      <c r="C44" s="12">
-        <v>2354.6400819999999</v>
-      </c>
-      <c r="D44" s="12">
-        <v>2648.9004420000001</v>
-      </c>
-      <c r="E44" s="12">
-        <v>2824.2588770000002</v>
-      </c>
-      <c r="F44" s="12">
-        <v>2792.9708879999998</v>
-      </c>
-      <c r="G44" s="12">
-        <v>3095.1634479999998</v>
-      </c>
-      <c r="H44" s="12">
-        <v>3283.46162</v>
-      </c>
-      <c r="I44" s="13">
-        <v>3439.525623</v>
-      </c>
-      <c r="J44" s="14">
-        <v>3656.9949969999998</v>
-      </c>
-      <c r="K44" s="14">
-        <v>3766.1140500000001</v>
-      </c>
-      <c r="L44" s="14">
-        <v>3898.8587579999999</v>
-      </c>
-      <c r="M44" s="14">
-        <v>4120.0952029999999</v>
-      </c>
-      <c r="N44" s="14">
-        <v>4485.6533870000003</v>
-      </c>
-      <c r="O44" s="14">
-        <v>4768.2524819999999</v>
-      </c>
-      <c r="P44" s="14">
-        <v>4759.4563420000004</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>5619.4434790000005</v>
-      </c>
-      <c r="R44" s="12">
-        <v>5306.4627790000004</v>
-      </c>
-      <c r="S44" s="12">
-        <v>6122.4900609999995</v>
-      </c>
-      <c r="T44" s="12">
-        <v>6085.6671190000006</v>
-      </c>
-      <c r="U44" s="12">
-        <v>6185.1418460000004</v>
-      </c>
-      <c r="V44" s="12">
-        <v>6117.0063220000002</v>
-      </c>
-      <c r="W44" s="12">
-        <v>6338.5570710000002</v>
-      </c>
-      <c r="X44" s="12">
-        <v>8474.3407569999999</v>
-      </c>
-      <c r="Y44" s="12">
-        <v>8936.9350089999989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="16">
-        <v>311.521725</v>
-      </c>
-      <c r="C45" s="16">
-        <v>398.99991899999998</v>
-      </c>
-      <c r="D45" s="16">
-        <v>458.78840700000001</v>
-      </c>
-      <c r="E45" s="16">
-        <v>524.33271500000001</v>
-      </c>
-      <c r="F45" s="16">
-        <v>480.83733100000001</v>
-      </c>
-      <c r="G45" s="16">
-        <v>579.24522000000002</v>
-      </c>
-      <c r="H45" s="16">
-        <v>611.94967599999995</v>
-      </c>
-      <c r="I45" s="17">
-        <v>545.078439</v>
-      </c>
-      <c r="J45" s="18">
-        <v>922.82937500000003</v>
-      </c>
-      <c r="K45" s="18">
-        <v>879.39657599999998</v>
-      </c>
-      <c r="L45" s="18">
-        <v>720.85535600000003</v>
-      </c>
-      <c r="M45" s="18">
-        <v>378.76816600000001</v>
-      </c>
-      <c r="N45" s="18">
-        <v>447.24690500000003</v>
-      </c>
-      <c r="O45" s="18">
-        <v>488.21389399999998</v>
-      </c>
-      <c r="P45" s="18">
-        <v>460.45873999999998</v>
-      </c>
-      <c r="Q45" s="18">
-        <v>487.15511199999997</v>
-      </c>
-      <c r="R45" s="16">
-        <v>391.276703</v>
-      </c>
-      <c r="S45" s="16">
-        <v>426.40475700000002</v>
-      </c>
-      <c r="T45" s="16">
-        <v>408.58752199999998</v>
-      </c>
-      <c r="U45" s="16">
-        <v>392.37494800000002</v>
-      </c>
-      <c r="V45" s="16">
-        <v>433.76225799999997</v>
-      </c>
-      <c r="W45" s="16">
-        <v>458.066597</v>
-      </c>
-      <c r="X45" s="16">
-        <v>479.74744700000002</v>
-      </c>
-      <c r="Y45" s="16">
-        <v>553.39930100000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="12">
-        <v>34775.475804000002</v>
-      </c>
-      <c r="C46" s="12">
-        <v>43530.633921000001</v>
-      </c>
-      <c r="D46" s="12">
-        <v>41276.16502</v>
-      </c>
-      <c r="E46" s="12">
-        <v>41612.183704000003</v>
-      </c>
-      <c r="F46" s="12">
-        <v>41532.827229000002</v>
-      </c>
-      <c r="G46" s="12">
-        <v>48848.491224999998</v>
-      </c>
-      <c r="H46" s="12">
-        <v>49039.030822000001</v>
-      </c>
-      <c r="I46" s="13">
-        <v>51316.629071000003</v>
-      </c>
-      <c r="J46" s="14">
-        <v>52392.704912999994</v>
-      </c>
-      <c r="K46" s="14">
-        <v>56316.171158000005</v>
-      </c>
-      <c r="L46" s="14">
-        <v>54239.301994000001</v>
-      </c>
-      <c r="M46" s="14">
-        <v>56691.654933000005</v>
-      </c>
-      <c r="N46" s="14">
-        <v>64003.778343999998</v>
-      </c>
-      <c r="O46" s="14">
-        <v>71155.515736000001</v>
-      </c>
-      <c r="P46" s="14">
-        <v>66323.031855000008</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>73042.149537999998</v>
-      </c>
-      <c r="R46" s="12">
-        <v>70023.141185999993</v>
-      </c>
-      <c r="S46" s="12">
-        <v>74843.898625999995</v>
-      </c>
-      <c r="T46" s="12">
-        <v>75615.465783000007</v>
-      </c>
-      <c r="U46" s="12">
-        <v>72509.660155999998</v>
-      </c>
-      <c r="V46" s="12">
-        <v>78162.921893000006</v>
-      </c>
-      <c r="W46" s="12">
-        <v>76635.680116999996</v>
-      </c>
-      <c r="X46" s="12">
-        <v>79471.239186000006</v>
-      </c>
-      <c r="Y46" s="12">
-        <v>83219.986055999994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="16">
-        <v>1912.2383709999999</v>
-      </c>
-      <c r="C47" s="16">
-        <v>6018.5781150000003</v>
-      </c>
-      <c r="D47" s="16">
-        <v>1921.4143919999999</v>
-      </c>
-      <c r="E47" s="16">
-        <v>1215.73415</v>
-      </c>
-      <c r="F47" s="16">
-        <v>1454.9007200000001</v>
-      </c>
-      <c r="G47" s="16">
-        <v>1622.295149</v>
-      </c>
-      <c r="H47" s="16">
-        <v>1597.2143719999999</v>
-      </c>
-      <c r="I47" s="17">
-        <v>1677.6125609999999</v>
-      </c>
-      <c r="J47" s="18">
-        <v>1700.2725270000001</v>
-      </c>
-      <c r="K47" s="18">
-        <v>1911.3397070000001</v>
-      </c>
-      <c r="L47" s="18">
-        <v>2280.9970389999999</v>
-      </c>
-      <c r="M47" s="18">
-        <v>1984.490074</v>
-      </c>
-      <c r="N47" s="18">
-        <v>2831.9920579999998</v>
-      </c>
-      <c r="O47" s="18">
-        <v>2178.8430330000001</v>
-      </c>
-      <c r="P47" s="18">
-        <v>2124.40526</v>
-      </c>
-      <c r="Q47" s="18">
-        <v>2612.4188960000001</v>
-      </c>
-      <c r="R47" s="16">
-        <v>2211.6852680000002</v>
-      </c>
-      <c r="S47" s="16">
-        <v>4083.2004999999999</v>
-      </c>
-      <c r="T47" s="16">
-        <v>2130.267476</v>
-      </c>
-      <c r="U47" s="16">
-        <v>1946.4896160000001</v>
-      </c>
-      <c r="V47" s="16">
-        <v>2619.472233</v>
-      </c>
-      <c r="W47" s="16">
-        <v>2923.4309349999999</v>
-      </c>
-      <c r="X47" s="16">
-        <v>3385.1187530000002</v>
-      </c>
-      <c r="Y47" s="16">
-        <v>3558.7158530000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="12">
-        <v>20962.367401000003</v>
-      </c>
-      <c r="C48" s="12">
-        <v>22998.787820000001</v>
-      </c>
-      <c r="D48" s="12">
-        <v>24027.457253</v>
-      </c>
-      <c r="E48" s="12">
-        <v>24437.565919000004</v>
-      </c>
-      <c r="F48" s="12">
-        <v>23182.193503999999</v>
-      </c>
-      <c r="G48" s="12">
-        <v>28622.978922999999</v>
-      </c>
-      <c r="H48" s="12">
-        <v>27304.120246999999</v>
-      </c>
-      <c r="I48" s="13">
-        <v>28810.509119999999</v>
-      </c>
-      <c r="J48" s="14">
-        <v>28500.483264999999</v>
-      </c>
-      <c r="K48" s="14">
-        <v>27799.992900999998</v>
-      </c>
-      <c r="L48" s="14">
-        <v>23648.903584999996</v>
-      </c>
-      <c r="M48" s="14">
-        <v>22502.481567999999</v>
-      </c>
-      <c r="N48" s="14">
-        <v>25117.414416999996</v>
-      </c>
-      <c r="O48" s="14">
-        <v>26756.657478999998</v>
-      </c>
-      <c r="P48" s="14">
-        <v>22912.408439999999</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>26598.766381000001</v>
-      </c>
-      <c r="R48" s="12">
-        <v>24183.485751</v>
-      </c>
-      <c r="S48" s="12">
-        <v>21669.047126999998</v>
-      </c>
-      <c r="T48" s="12">
-        <v>25582.758015000003</v>
-      </c>
-      <c r="U48" s="12">
-        <v>23593.088985999999</v>
-      </c>
-      <c r="V48" s="12">
-        <v>26937.169147000001</v>
-      </c>
-      <c r="W48" s="12">
-        <v>26293.047984999997</v>
-      </c>
-      <c r="X48" s="12">
-        <v>26733.074060000003</v>
-      </c>
-      <c r="Y48" s="12">
-        <v>27029.187320000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="16">
-        <v>1657.4710680000001</v>
-      </c>
-      <c r="C49" s="16">
-        <v>1891.5688339999999</v>
-      </c>
-      <c r="D49" s="16">
-        <v>2467.9328380000002</v>
-      </c>
-      <c r="E49" s="16">
-        <v>2346.0556769999998</v>
-      </c>
-      <c r="F49" s="16">
-        <v>2470.5880240000001</v>
-      </c>
-      <c r="G49" s="16">
-        <v>2566.7406569999998</v>
-      </c>
-      <c r="H49" s="16">
-        <v>2714.8913200000002</v>
-      </c>
-      <c r="I49" s="17">
-        <v>3440.3405539999999</v>
-      </c>
-      <c r="J49" s="18">
-        <v>3648.3274780000002</v>
-      </c>
-      <c r="K49" s="18">
-        <v>3630.3957350000001</v>
-      </c>
-      <c r="L49" s="18">
-        <v>3409.9034830000001</v>
-      </c>
-      <c r="M49" s="18">
-        <v>5199.0370720000001</v>
-      </c>
-      <c r="N49" s="18">
-        <v>5735.1721070000003</v>
-      </c>
-      <c r="O49" s="18">
-        <v>7397.7686630000007</v>
-      </c>
-      <c r="P49" s="18">
-        <v>7752.7901689999999</v>
-      </c>
-      <c r="Q49" s="18">
-        <v>8741.2379569999994</v>
-      </c>
-      <c r="R49" s="16">
-        <v>8063.4672670000009</v>
-      </c>
-      <c r="S49" s="16">
-        <v>9184.4456430000009</v>
-      </c>
-      <c r="T49" s="16">
-        <v>7826.4655430000003</v>
-      </c>
-      <c r="U49" s="16">
-        <v>8127.3727630000003</v>
-      </c>
-      <c r="V49" s="16">
-        <v>8216.1838119999993</v>
-      </c>
-      <c r="W49" s="16">
-        <v>7586.289968</v>
-      </c>
-      <c r="X49" s="16">
-        <v>8354.6987349999999</v>
-      </c>
-      <c r="Y49" s="16">
-        <v>9560.9054930000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="12">
-        <v>750.29455800000005</v>
-      </c>
-      <c r="C50" s="12">
-        <v>872.82056399999999</v>
-      </c>
-      <c r="D50" s="12">
-        <v>718.72207200000003</v>
-      </c>
-      <c r="E50" s="12">
-        <v>731.05672300000003</v>
-      </c>
-      <c r="F50" s="12">
-        <v>705.98097399999995</v>
-      </c>
-      <c r="G50" s="12">
-        <v>868.83184500000004</v>
-      </c>
-      <c r="H50" s="12">
-        <v>941.47568100000001</v>
-      </c>
-      <c r="I50" s="13">
-        <v>899.37905699999999</v>
-      </c>
-      <c r="J50" s="14">
-        <v>950.59030299999995</v>
-      </c>
-      <c r="K50" s="14">
-        <v>1203.1208779999999</v>
-      </c>
-      <c r="L50" s="14">
-        <v>1432.052412</v>
-      </c>
-      <c r="M50" s="14">
-        <v>1557.029397</v>
-      </c>
-      <c r="N50" s="14">
-        <v>1841.0285799999999</v>
-      </c>
-      <c r="O50" s="14">
-        <v>2146.1975980000002</v>
-      </c>
-      <c r="P50" s="14">
-        <v>2117.4560609999999</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>2270.0053819999998</v>
-      </c>
-      <c r="R50" s="12">
-        <v>1993.917974</v>
-      </c>
-      <c r="S50" s="12">
-        <v>2051.9814630000001</v>
-      </c>
-      <c r="T50" s="12">
-        <v>2020.145315</v>
-      </c>
-      <c r="U50" s="12">
-        <v>1918.9200490000001</v>
-      </c>
-      <c r="V50" s="12">
-        <v>1943.7738770000001</v>
-      </c>
-      <c r="W50" s="12">
-        <v>1951.338653</v>
-      </c>
-      <c r="X50" s="12">
-        <v>2098.5637310000002</v>
-      </c>
-      <c r="Y50" s="12">
-        <v>2274.199807</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="16">
-        <v>427.39240799999999</v>
-      </c>
-      <c r="C51" s="16">
-        <v>547.19547599999999</v>
-      </c>
-      <c r="D51" s="16">
-        <v>533.92683599999998</v>
-      </c>
-      <c r="E51" s="16">
-        <v>553.016751</v>
-      </c>
-      <c r="F51" s="16">
-        <v>792.552187</v>
-      </c>
-      <c r="G51" s="16">
-        <v>805.51300500000002</v>
-      </c>
-      <c r="H51" s="16">
-        <v>1040.4421809999999</v>
-      </c>
-      <c r="I51" s="17">
-        <v>1120.6138539999999</v>
-      </c>
-      <c r="J51" s="18">
-        <v>1474.2241730000001</v>
-      </c>
-      <c r="K51" s="18">
-        <v>1803.0392059999999</v>
-      </c>
-      <c r="L51" s="18">
-        <v>1839.8740969999999</v>
-      </c>
-      <c r="M51" s="18">
-        <v>1903.7041280000001</v>
-      </c>
-      <c r="N51" s="18">
-        <v>2276.7030159999999</v>
-      </c>
-      <c r="O51" s="18">
-        <v>2529.7006780000002</v>
-      </c>
-      <c r="P51" s="18">
-        <v>2309.0364800000002</v>
-      </c>
-      <c r="Q51" s="18">
-        <v>2322.3553230000002</v>
-      </c>
-      <c r="R51" s="16">
-        <v>1989.284926</v>
-      </c>
-      <c r="S51" s="16">
-        <v>1814.7053900000001</v>
-      </c>
-      <c r="T51" s="16">
-        <v>1733.862402</v>
-      </c>
-      <c r="U51" s="16">
-        <v>1858.439822</v>
-      </c>
-      <c r="V51" s="16">
-        <v>2032.5887290000001</v>
-      </c>
-      <c r="W51" s="16">
-        <v>2000.3673940000001</v>
-      </c>
-      <c r="X51" s="16">
-        <v>2105.1217270000002</v>
-      </c>
-      <c r="Y51" s="16">
-        <v>2392.420001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="68" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="12">
-        <v>1667.9746929999999</v>
-      </c>
-      <c r="C52" s="12">
-        <v>3108.6697389999999</v>
-      </c>
-      <c r="D52" s="12">
-        <v>2728.3784719999999</v>
-      </c>
-      <c r="E52" s="12">
-        <v>2330.694481</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1654.190466</v>
-      </c>
-      <c r="G52" s="12">
-        <v>1675.45506</v>
-      </c>
-      <c r="H52" s="12">
-        <v>1731.122122</v>
-      </c>
-      <c r="I52" s="13">
-        <v>1893.4091559999999</v>
-      </c>
-      <c r="J52" s="14">
-        <v>1973.548759</v>
-      </c>
-      <c r="K52" s="14">
-        <v>2023.6178620000001</v>
-      </c>
-      <c r="L52" s="14">
-        <v>2214.5168829999998</v>
-      </c>
-      <c r="M52" s="14">
-        <v>2625.9476119999999</v>
-      </c>
-      <c r="N52" s="14">
-        <v>2489.4077240000001</v>
-      </c>
-      <c r="O52" s="14">
-        <v>2632.7126109999999</v>
-      </c>
-      <c r="P52" s="14">
-        <v>2992.1683109999999</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>3033.6059110000001</v>
-      </c>
-      <c r="R52" s="12">
-        <v>3166.9999189999999</v>
-      </c>
-      <c r="S52" s="12">
-        <v>3794.842126</v>
-      </c>
-      <c r="T52" s="12">
-        <v>4148.9805079999996</v>
-      </c>
-      <c r="U52" s="12">
-        <v>4408.6627859999999</v>
-      </c>
-      <c r="V52" s="12">
-        <v>4515.702072</v>
-      </c>
-      <c r="W52" s="12">
-        <v>4994.4561249999997</v>
-      </c>
-      <c r="X52" s="12">
-        <v>5109.4647500000001</v>
-      </c>
-      <c r="Y52" s="12">
-        <v>5294.9610419999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="16">
-        <v>1685.0497439999999</v>
-      </c>
-      <c r="C53" s="16">
-        <v>1947.5511100000001</v>
-      </c>
-      <c r="D53" s="16">
-        <v>2266.1109510000001</v>
-      </c>
-      <c r="E53" s="16">
-        <v>2699.8633679999998</v>
-      </c>
-      <c r="F53" s="16">
-        <v>3214.8623470000002</v>
-      </c>
-      <c r="G53" s="16">
-        <v>3232.252348</v>
-      </c>
-      <c r="H53" s="16">
-        <v>3099.8307669999999</v>
-      </c>
-      <c r="I53" s="17">
-        <v>3448.9394160000002</v>
-      </c>
-      <c r="J53" s="18">
-        <v>3642.8179239999999</v>
-      </c>
-      <c r="K53" s="18">
-        <v>3823.453884</v>
-      </c>
-      <c r="L53" s="18">
-        <v>3779.322118</v>
-      </c>
-      <c r="M53" s="18">
-        <v>3907.5517880000002</v>
-      </c>
-      <c r="N53" s="18">
-        <v>4243.7372960000002</v>
-      </c>
-      <c r="O53" s="18">
-        <v>4650.9973739999996</v>
-      </c>
-      <c r="P53" s="18">
-        <v>4096.3398340000003</v>
-      </c>
-      <c r="Q53" s="18">
-        <v>3399.1444219999998</v>
-      </c>
-      <c r="R53" s="16">
-        <v>3498.7584489999999</v>
-      </c>
-      <c r="S53" s="16">
-        <v>3955.985831</v>
-      </c>
-      <c r="T53" s="16">
-        <v>4028.856299</v>
-      </c>
-      <c r="U53" s="16">
-        <v>3615.6432129999998</v>
-      </c>
-      <c r="V53" s="16">
-        <v>4104.8446080000003</v>
-      </c>
-      <c r="W53" s="16">
-        <v>4299.8460219999997</v>
-      </c>
-      <c r="X53" s="16">
-        <v>5388.3238520000004</v>
-      </c>
-      <c r="Y53" s="16">
-        <v>4955.1407859999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="85" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="12">
-        <v>937.87240699999995</v>
-      </c>
-      <c r="C54" s="12">
-        <v>1263.9311230000001</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1315.9365789999999</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1282.4658730000001</v>
-      </c>
-      <c r="F54" s="12">
-        <v>1308.5559249999999</v>
-      </c>
-      <c r="G54" s="12">
-        <v>2317.030053</v>
-      </c>
-      <c r="H54" s="12">
-        <v>3090.633429</v>
-      </c>
-      <c r="I54" s="13">
-        <v>2551.4495299999999</v>
-      </c>
-      <c r="J54" s="14">
-        <v>2661.1290739999999</v>
-      </c>
-      <c r="K54" s="14">
-        <v>5293.4095209999996</v>
-      </c>
-      <c r="L54" s="14">
-        <v>6218.1032580000001</v>
-      </c>
-      <c r="M54" s="14">
-        <v>8053.70604</v>
-      </c>
-      <c r="N54" s="14">
-        <v>10908.341487</v>
-      </c>
-      <c r="O54" s="14">
-        <v>13513.804948999999</v>
-      </c>
-      <c r="P54" s="14">
-        <v>12255.767545999999</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>13350.194089999999</v>
-      </c>
-      <c r="R54" s="12">
-        <v>14217.997416</v>
-      </c>
-      <c r="S54" s="12">
-        <v>18890.669041999998</v>
-      </c>
-      <c r="T54" s="12">
-        <v>18441.889252000001</v>
-      </c>
-      <c r="U54" s="12">
-        <v>17603.731371000002</v>
-      </c>
-      <c r="V54" s="12">
-        <v>18396.061213000001</v>
-      </c>
-      <c r="W54" s="12">
-        <v>16232.177962</v>
-      </c>
-      <c r="X54" s="12">
-        <v>15324.437868000001</v>
-      </c>
-      <c r="Y54" s="12">
-        <v>14485.428873999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="16">
-        <v>120.81901000000001</v>
-      </c>
-      <c r="C55" s="16">
-        <v>215.53026600000001</v>
-      </c>
-      <c r="D55" s="16">
-        <v>185.445964</v>
-      </c>
-      <c r="E55" s="16">
-        <v>156.87643</v>
-      </c>
-      <c r="F55" s="16">
-        <v>211.119575</v>
-      </c>
-      <c r="G55" s="16">
-        <v>294.45524</v>
-      </c>
-      <c r="H55" s="16">
-        <v>308.70691399999998</v>
-      </c>
-      <c r="I55" s="17">
-        <v>489.25209899999999</v>
-      </c>
-      <c r="J55" s="18">
-        <v>602.10469599999999</v>
-      </c>
-      <c r="K55" s="18">
-        <v>769.70140300000003</v>
-      </c>
-      <c r="L55" s="18">
-        <v>938.27364899999998</v>
-      </c>
-      <c r="M55" s="18">
-        <v>960.71391600000004</v>
-      </c>
-      <c r="N55" s="18">
-        <v>1277.0520280000001</v>
-      </c>
-      <c r="O55" s="18">
-        <v>1265.072754</v>
-      </c>
-      <c r="P55" s="18">
-        <v>846.01673100000005</v>
-      </c>
-      <c r="Q55" s="18">
-        <v>1039.98714</v>
-      </c>
-      <c r="R55" s="16">
-        <v>991.33832800000005</v>
-      </c>
-      <c r="S55" s="16">
-        <v>1680.643761</v>
-      </c>
-      <c r="T55" s="16">
-        <v>1788.8429490000001</v>
-      </c>
-      <c r="U55" s="16">
-        <v>1897.7326230000001</v>
-      </c>
-      <c r="V55" s="16">
-        <v>1863.0063359999999</v>
-      </c>
-      <c r="W55" s="16">
-        <v>1861.7411500000001</v>
-      </c>
-      <c r="X55" s="16">
-        <v>2097.4839320000001</v>
-      </c>
-      <c r="Y55" s="16">
-        <v>2273.905358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="119" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1661.7700219999999</v>
-      </c>
-      <c r="C56" s="12">
-        <v>1788.008777</v>
-      </c>
-      <c r="D56" s="12">
-        <v>2015.246097</v>
-      </c>
-      <c r="E56" s="12">
-        <v>2227.2616170000001</v>
-      </c>
-      <c r="F56" s="12">
-        <v>2486.819716</v>
-      </c>
-      <c r="G56" s="12">
-        <v>2702.4834620000001</v>
-      </c>
-      <c r="H56" s="12">
-        <v>2892.0461439999999</v>
-      </c>
-      <c r="I56" s="13">
-        <v>2690.9091360000002</v>
-      </c>
-      <c r="J56" s="14">
-        <v>2728.4666659999998</v>
-      </c>
-      <c r="K56" s="14">
-        <v>2817.734751</v>
-      </c>
-      <c r="L56" s="14">
-        <v>3295.8587419999999</v>
-      </c>
-      <c r="M56" s="14">
-        <v>2937.4677750000001</v>
-      </c>
-      <c r="N56" s="14">
-        <v>2851.8618019999999</v>
-      </c>
-      <c r="O56" s="14">
-        <v>3855.3965389999998</v>
-      </c>
-      <c r="P56" s="14">
-        <v>3925.0364070000001</v>
-      </c>
-      <c r="Q56" s="14">
-        <v>3959.4554760000001</v>
-      </c>
-      <c r="R56" s="12">
-        <v>4360.0369380000002</v>
-      </c>
-      <c r="S56" s="12">
-        <v>4222.550209</v>
-      </c>
-      <c r="T56" s="12">
-        <v>4020.7549779999999</v>
-      </c>
-      <c r="U56" s="12">
-        <v>3581.8434790000001</v>
-      </c>
-      <c r="V56" s="12">
-        <v>3632.4529680000001</v>
-      </c>
-      <c r="W56" s="12">
-        <v>3668.4387109999998</v>
-      </c>
-      <c r="X56" s="12">
-        <v>3566.2759780000001</v>
-      </c>
-      <c r="Y56" s="12">
-        <v>3763.8017599999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="16">
-        <v>1888.153763</v>
-      </c>
-      <c r="C57" s="16">
-        <v>1977.812316</v>
-      </c>
-      <c r="D57" s="16">
-        <v>2074.7007370000001</v>
-      </c>
-      <c r="E57" s="16">
-        <v>2295.7613780000001</v>
-      </c>
-      <c r="F57" s="16">
-        <v>2529.379563</v>
-      </c>
-      <c r="G57" s="16">
-        <v>2511.0517450000002</v>
-      </c>
-      <c r="H57" s="16">
-        <v>2504.2999100000002</v>
-      </c>
-      <c r="I57" s="17">
-        <v>2491.9669170000002</v>
-      </c>
-      <c r="J57" s="18">
-        <v>2616.3296220000002</v>
-      </c>
-      <c r="K57" s="18">
-        <v>3169.7318049999999</v>
-      </c>
-      <c r="L57" s="18">
-        <v>2879.14282</v>
-      </c>
-      <c r="M57" s="18">
-        <v>2983.6421559999999</v>
-      </c>
-      <c r="N57" s="18">
-        <v>3138.0832759999998</v>
-      </c>
-      <c r="O57" s="18">
-        <v>3192.9665300000001</v>
-      </c>
-      <c r="P57" s="18">
-        <v>3273.0579729999999</v>
-      </c>
-      <c r="Q57" s="18">
-        <v>3395.9051639999998</v>
-      </c>
-      <c r="R57" s="16">
-        <v>3155.2772500000001</v>
-      </c>
-      <c r="S57" s="16">
-        <v>2991.961065</v>
-      </c>
-      <c r="T57" s="16">
-        <v>2957.7006059999999</v>
-      </c>
-      <c r="U57" s="16">
-        <v>2957.022293</v>
-      </c>
-      <c r="V57" s="16">
-        <v>3025.031958</v>
-      </c>
-      <c r="W57" s="16">
-        <v>2883.371513</v>
-      </c>
-      <c r="X57" s="16">
-        <v>2905.8261040000002</v>
-      </c>
-      <c r="Y57" s="16">
-        <v>3733.1770620000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="12">
-        <v>1071.5360049999999</v>
-      </c>
-      <c r="C58" s="12">
-        <v>868.16126199999997</v>
-      </c>
-      <c r="D58" s="12">
-        <v>873.28950399999997</v>
-      </c>
-      <c r="E58" s="12">
-        <v>946.35829899999999</v>
-      </c>
-      <c r="F58" s="12">
-        <v>1059.687122</v>
-      </c>
-      <c r="G58" s="12">
-        <v>1069.80072</v>
-      </c>
-      <c r="H58" s="12">
-        <v>1137.807378</v>
-      </c>
-      <c r="I58" s="13">
-        <v>1174.38696</v>
-      </c>
-      <c r="J58" s="14">
-        <v>1208.580199</v>
-      </c>
-      <c r="K58" s="14">
-        <v>1290.113141</v>
-      </c>
-      <c r="L58" s="14">
-        <v>1410.1873969999999</v>
-      </c>
-      <c r="M58" s="14">
-        <v>1465.9880639999999</v>
-      </c>
-      <c r="N58" s="14">
-        <v>1492.909934</v>
-      </c>
-      <c r="O58" s="14">
-        <v>1574.1897839999999</v>
-      </c>
-      <c r="P58" s="14">
-        <v>1899.3357840000001</v>
-      </c>
-      <c r="Q58" s="14">
-        <v>1945.515427</v>
-      </c>
-      <c r="R58" s="12">
-        <v>2184.4951409999999</v>
-      </c>
-      <c r="S58" s="12">
-        <v>2516.1433339999999</v>
-      </c>
-      <c r="T58" s="12">
-        <v>2498.3166569999999</v>
-      </c>
-      <c r="U58" s="12">
-        <v>2568.8847000000001</v>
-      </c>
-      <c r="V58" s="12">
-        <v>2592.5114749999998</v>
-      </c>
-      <c r="W58" s="12">
-        <v>2664.9234230000002</v>
-      </c>
-      <c r="X58" s="12">
-        <v>2766.0020749999999</v>
-      </c>
-      <c r="Y58" s="12">
-        <v>3070.933857</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="68" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="16">
-        <v>38.143318000000001</v>
-      </c>
-      <c r="C59" s="16">
-        <v>58.261611000000002</v>
-      </c>
-      <c r="D59" s="16">
-        <v>54.156162999999999</v>
-      </c>
-      <c r="E59" s="16">
-        <v>50.363742999999999</v>
-      </c>
-      <c r="F59" s="16">
-        <v>55.723911999999999</v>
-      </c>
-      <c r="G59" s="16">
-        <v>56.845773999999999</v>
-      </c>
-      <c r="H59" s="16">
-        <v>57.284089999999999</v>
-      </c>
-      <c r="I59" s="17">
-        <v>57.495589000000002</v>
-      </c>
-      <c r="J59" s="18">
-        <v>95.318982000000005</v>
-      </c>
-      <c r="K59" s="18">
-        <v>155.487561</v>
-      </c>
-      <c r="L59" s="18">
-        <v>183.70047299999999</v>
-      </c>
-      <c r="M59" s="18">
-        <v>148.27359200000001</v>
-      </c>
-      <c r="N59" s="18">
-        <v>99.527499000000006</v>
-      </c>
-      <c r="O59" s="18">
-        <v>90.799784000000002</v>
-      </c>
-      <c r="P59" s="18">
-        <v>83.283116000000007</v>
-      </c>
-      <c r="Q59" s="18">
-        <v>103.21653000000001</v>
-      </c>
-      <c r="R59" s="16">
-        <v>115.444311</v>
-      </c>
-      <c r="S59" s="16">
-        <v>141.76579599999999</v>
-      </c>
-      <c r="T59" s="16">
-        <v>142.158186</v>
-      </c>
-      <c r="U59" s="16">
-        <v>140.93393499999999</v>
-      </c>
-      <c r="V59" s="16">
-        <v>146.383185</v>
-      </c>
-      <c r="W59" s="16">
-        <v>195.98295300000001</v>
-      </c>
-      <c r="X59" s="16">
-        <v>232.84975299999999</v>
-      </c>
-      <c r="Y59" s="16">
-        <v>267.46783099999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="12">
-        <v>237.049305</v>
-      </c>
-      <c r="C60" s="12">
-        <v>290.40223600000002</v>
-      </c>
-      <c r="D60" s="12">
-        <v>373.573645</v>
-      </c>
-      <c r="E60" s="12">
-        <v>537.59040500000003</v>
-      </c>
-      <c r="F60" s="12">
-        <v>441.75214399999999</v>
-      </c>
-      <c r="G60" s="12">
-        <v>556.36565399999995</v>
-      </c>
-      <c r="H60" s="12">
-        <v>611.64591800000005</v>
-      </c>
-      <c r="I60" s="13">
-        <v>570.36511499999995</v>
-      </c>
-      <c r="J60" s="14">
-        <v>590.51126099999999</v>
-      </c>
-      <c r="K60" s="14">
-        <v>733.27495599999997</v>
-      </c>
-      <c r="L60" s="14">
-        <v>944.14959899999997</v>
-      </c>
-      <c r="M60" s="14">
-        <v>1263.0939499999999</v>
-      </c>
-      <c r="N60" s="14">
-        <v>1284.746938</v>
-      </c>
-      <c r="O60" s="14">
-        <v>1478.6872470000001</v>
-      </c>
-      <c r="P60" s="14">
-        <v>1334.0414390000001</v>
-      </c>
-      <c r="Q60" s="14">
-        <v>1544.91797</v>
-      </c>
-      <c r="R60" s="12">
-        <v>1716.12725</v>
-      </c>
-      <c r="S60" s="12">
-        <v>1601.171828</v>
-      </c>
-      <c r="T60" s="12">
-        <v>1571.6313230000001</v>
-      </c>
-      <c r="U60" s="12">
-        <v>1466.9177529999999</v>
-      </c>
-      <c r="V60" s="12">
-        <v>1238.5795479999999</v>
-      </c>
-      <c r="W60" s="12">
-        <v>1230.782412</v>
-      </c>
-      <c r="X60" s="12">
-        <v>1241.364826</v>
-      </c>
-      <c r="Y60" s="12">
-        <v>1294.380089</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="68" x14ac:dyDescent="0.2">
-      <c r="A61" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="40">
-        <v>122450.860019</v>
-      </c>
-      <c r="C61" s="40">
-        <v>143356.873659</v>
-      </c>
-      <c r="D61" s="40">
-        <v>147679.69945299998</v>
-      </c>
-      <c r="E61" s="40">
-        <v>136495.493564</v>
-      </c>
-      <c r="F61" s="40">
-        <v>147719.108886</v>
-      </c>
-      <c r="G61" s="40">
-        <v>167696.99906999999</v>
-      </c>
-      <c r="H61" s="40">
-        <v>171803.008928</v>
-      </c>
-      <c r="I61" s="41">
-        <v>177937.46676799998</v>
-      </c>
-      <c r="J61" s="42">
-        <v>198839.56924399998</v>
-      </c>
-      <c r="K61" s="42">
-        <v>212357.92343800003</v>
-      </c>
-      <c r="L61" s="42">
-        <v>206342.99648599999</v>
-      </c>
-      <c r="M61" s="42">
-        <v>223434.975588</v>
-      </c>
-      <c r="N61" s="42">
-        <v>254339.756245</v>
-      </c>
-      <c r="O61" s="42">
-        <v>320867.31169599999</v>
-      </c>
-      <c r="P61" s="42">
-        <v>277261.76391799998</v>
-      </c>
-      <c r="Q61" s="42">
-        <v>314202.95391699998</v>
-      </c>
-      <c r="R61" s="40">
-        <v>266581.08774400002</v>
-      </c>
-      <c r="S61" s="40">
-        <v>270846.01647700003</v>
-      </c>
-      <c r="T61" s="40">
-        <v>329273.58406300005</v>
-      </c>
-      <c r="U61" s="40">
-        <v>286906.71795000002</v>
-      </c>
-      <c r="V61" s="40">
-        <v>321294.59921999997</v>
-      </c>
-      <c r="W61" s="40">
-        <v>310784.15263599996</v>
-      </c>
-      <c r="X61" s="40">
-        <v>311564.83235799999</v>
-      </c>
-      <c r="Y61" s="40">
-        <v>313447.91925099998</v>
-      </c>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="24"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" s="24"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" s="24"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" s="24"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="24"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A60" s="24"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
@@ -5231,10 +4259,8 @@
       <c r="X62" s="37"/>
       <c r="Y62" s="37"/>
     </row>
-    <row r="63" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A63" s="43" t="s">
-        <v>56</v>
-      </c>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
@@ -5267,12 +4293,6362 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244176B4-7511-5248-99A4-5973B793F41B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="67.1640625" customWidth="1"/>
+    <col min="2" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="58">
+        <v>1995</v>
+      </c>
+      <c r="C1" s="58">
+        <v>1996</v>
+      </c>
+      <c r="D1" s="58">
+        <v>1997</v>
+      </c>
+      <c r="E1" s="58">
+        <v>1998</v>
+      </c>
+      <c r="F1" s="58">
+        <v>1999</v>
+      </c>
+      <c r="G1" s="58">
+        <v>2000</v>
+      </c>
+      <c r="H1" s="58">
+        <v>2001</v>
+      </c>
+      <c r="I1" s="59">
+        <v>2002</v>
+      </c>
+      <c r="J1" s="60">
+        <v>2003</v>
+      </c>
+      <c r="K1" s="58">
+        <v>2004</v>
+      </c>
+      <c r="L1" s="58">
+        <v>2005</v>
+      </c>
+      <c r="M1" s="58">
+        <v>2006</v>
+      </c>
+      <c r="N1" s="58">
+        <v>2007</v>
+      </c>
+      <c r="O1" s="58">
+        <v>2008</v>
+      </c>
+      <c r="P1" s="58">
+        <v>2009</v>
+      </c>
+      <c r="Q1" s="58">
+        <v>2010</v>
+      </c>
+      <c r="R1" s="58">
+        <v>2011</v>
+      </c>
+      <c r="S1" s="58">
+        <v>2012</v>
+      </c>
+      <c r="T1" s="58">
+        <v>2013</v>
+      </c>
+      <c r="U1" s="58">
+        <v>2014</v>
+      </c>
+      <c r="V1" s="58">
+        <v>2015</v>
+      </c>
+      <c r="W1" s="58">
+        <v>2016</v>
+      </c>
+      <c r="X1" s="58">
+        <v>2017</v>
+      </c>
+      <c r="Y1" s="58">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="62">
+        <v>3069</v>
+      </c>
+      <c r="C2" s="62">
+        <v>3305</v>
+      </c>
+      <c r="D2" s="62">
+        <v>4056</v>
+      </c>
+      <c r="E2" s="62">
+        <v>4805</v>
+      </c>
+      <c r="F2" s="62">
+        <v>4030</v>
+      </c>
+      <c r="G2" s="62">
+        <v>3854</v>
+      </c>
+      <c r="H2" s="62">
+        <v>4577</v>
+      </c>
+      <c r="I2" s="63">
+        <v>4704</v>
+      </c>
+      <c r="J2" s="62">
+        <v>4892</v>
+      </c>
+      <c r="K2" s="62">
+        <v>5797</v>
+      </c>
+      <c r="L2" s="62">
+        <v>5903</v>
+      </c>
+      <c r="M2" s="62">
+        <v>6615</v>
+      </c>
+      <c r="N2" s="62">
+        <v>7159</v>
+      </c>
+      <c r="O2" s="62">
+        <v>11149</v>
+      </c>
+      <c r="P2" s="62">
+        <v>10239</v>
+      </c>
+      <c r="Q2" s="62">
+        <v>8556</v>
+      </c>
+      <c r="R2" s="62">
+        <v>6999</v>
+      </c>
+      <c r="S2" s="62">
+        <v>11907</v>
+      </c>
+      <c r="T2" s="62">
+        <v>15892</v>
+      </c>
+      <c r="U2" s="62">
+        <v>12116</v>
+      </c>
+      <c r="V2" s="62">
+        <v>10473</v>
+      </c>
+      <c r="W2" s="62">
+        <v>9196</v>
+      </c>
+      <c r="X2" s="62">
+        <v>10334</v>
+      </c>
+      <c r="Y2" s="62">
+        <v>11377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="65">
+        <v>471</v>
+      </c>
+      <c r="C3" s="65">
+        <v>513</v>
+      </c>
+      <c r="D3" s="65">
+        <v>474</v>
+      </c>
+      <c r="E3" s="65">
+        <v>395</v>
+      </c>
+      <c r="F3" s="65">
+        <v>302</v>
+      </c>
+      <c r="G3" s="65">
+        <v>255</v>
+      </c>
+      <c r="H3" s="65">
+        <v>271</v>
+      </c>
+      <c r="I3" s="66">
+        <v>248</v>
+      </c>
+      <c r="J3" s="65">
+        <v>248</v>
+      </c>
+      <c r="K3" s="65">
+        <v>537</v>
+      </c>
+      <c r="L3" s="65">
+        <v>586</v>
+      </c>
+      <c r="M3" s="65">
+        <v>933</v>
+      </c>
+      <c r="N3" s="65">
+        <v>1006</v>
+      </c>
+      <c r="O3" s="65">
+        <v>1037</v>
+      </c>
+      <c r="P3" s="65">
+        <v>978</v>
+      </c>
+      <c r="Q3" s="65">
+        <v>1040</v>
+      </c>
+      <c r="R3" s="65">
+        <v>1222</v>
+      </c>
+      <c r="S3" s="65">
+        <v>1209</v>
+      </c>
+      <c r="T3" s="65">
+        <v>1187</v>
+      </c>
+      <c r="U3" s="65">
+        <v>1334</v>
+      </c>
+      <c r="V3" s="65">
+        <v>2067</v>
+      </c>
+      <c r="W3" s="65">
+        <v>2261</v>
+      </c>
+      <c r="X3" s="65">
+        <v>2190</v>
+      </c>
+      <c r="Y3" s="65">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="62">
+        <v>70294</v>
+      </c>
+      <c r="C4" s="62">
+        <v>80942</v>
+      </c>
+      <c r="D4" s="62">
+        <v>86917</v>
+      </c>
+      <c r="E4" s="62">
+        <v>84878</v>
+      </c>
+      <c r="F4" s="62">
+        <v>92332</v>
+      </c>
+      <c r="G4" s="62">
+        <v>107280</v>
+      </c>
+      <c r="H4" s="62">
+        <v>108644</v>
+      </c>
+      <c r="I4" s="63">
+        <v>117685</v>
+      </c>
+      <c r="J4" s="62">
+        <v>138362</v>
+      </c>
+      <c r="K4" s="62">
+        <v>146185</v>
+      </c>
+      <c r="L4" s="62">
+        <v>149386</v>
+      </c>
+      <c r="M4" s="62">
+        <v>167232</v>
+      </c>
+      <c r="N4" s="62">
+        <v>194950</v>
+      </c>
+      <c r="O4" s="62">
+        <v>267528</v>
+      </c>
+      <c r="P4" s="62">
+        <v>227338</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>266438</v>
+      </c>
+      <c r="R4" s="62">
+        <v>217934</v>
+      </c>
+      <c r="S4" s="62">
+        <v>218585</v>
+      </c>
+      <c r="T4" s="62">
+        <v>287459</v>
+      </c>
+      <c r="U4" s="62">
+        <v>254115</v>
+      </c>
+      <c r="V4" s="62">
+        <v>292508</v>
+      </c>
+      <c r="W4" s="62">
+        <v>272229</v>
+      </c>
+      <c r="X4" s="62">
+        <v>268841</v>
+      </c>
+      <c r="Y4" s="62">
+        <v>265997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="65">
+        <v>2030</v>
+      </c>
+      <c r="C5" s="65">
+        <v>2290</v>
+      </c>
+      <c r="D5" s="65">
+        <v>2697</v>
+      </c>
+      <c r="E5" s="65">
+        <v>3388</v>
+      </c>
+      <c r="F5" s="65">
+        <v>2974</v>
+      </c>
+      <c r="G5" s="65">
+        <v>3169</v>
+      </c>
+      <c r="H5" s="65">
+        <v>3266</v>
+      </c>
+      <c r="I5" s="66">
+        <v>3440</v>
+      </c>
+      <c r="J5" s="65">
+        <v>3860</v>
+      </c>
+      <c r="K5" s="65">
+        <v>4317</v>
+      </c>
+      <c r="L5" s="65">
+        <v>4430</v>
+      </c>
+      <c r="M5" s="65">
+        <v>5012</v>
+      </c>
+      <c r="N5" s="65">
+        <v>5056</v>
+      </c>
+      <c r="O5" s="65">
+        <v>4792</v>
+      </c>
+      <c r="P5" s="65">
+        <v>5125</v>
+      </c>
+      <c r="Q5" s="65">
+        <v>5826</v>
+      </c>
+      <c r="R5" s="65">
+        <v>5269</v>
+      </c>
+      <c r="S5" s="65">
+        <v>5945</v>
+      </c>
+      <c r="T5" s="65">
+        <v>6688</v>
+      </c>
+      <c r="U5" s="65">
+        <v>6854</v>
+      </c>
+      <c r="V5" s="65">
+        <v>6645</v>
+      </c>
+      <c r="W5" s="65">
+        <v>6750</v>
+      </c>
+      <c r="X5" s="65">
+        <v>9169</v>
+      </c>
+      <c r="Y5" s="65">
+        <v>9679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="62">
+        <v>254</v>
+      </c>
+      <c r="C6" s="62">
+        <v>324</v>
+      </c>
+      <c r="D6" s="62">
+        <v>382</v>
+      </c>
+      <c r="E6" s="62">
+        <v>420</v>
+      </c>
+      <c r="F6" s="62">
+        <v>503</v>
+      </c>
+      <c r="G6" s="62">
+        <v>590</v>
+      </c>
+      <c r="H6" s="62">
+        <v>609</v>
+      </c>
+      <c r="I6" s="63">
+        <v>545</v>
+      </c>
+      <c r="J6" s="62">
+        <v>952</v>
+      </c>
+      <c r="K6" s="62">
+        <v>916</v>
+      </c>
+      <c r="L6" s="62">
+        <v>710</v>
+      </c>
+      <c r="M6" s="62">
+        <v>371</v>
+      </c>
+      <c r="N6" s="62">
+        <v>441</v>
+      </c>
+      <c r="O6" s="62">
+        <v>514</v>
+      </c>
+      <c r="P6" s="62">
+        <v>566</v>
+      </c>
+      <c r="Q6" s="62">
+        <v>571</v>
+      </c>
+      <c r="R6" s="62">
+        <v>491</v>
+      </c>
+      <c r="S6" s="62">
+        <v>558</v>
+      </c>
+      <c r="T6" s="62">
+        <v>608</v>
+      </c>
+      <c r="U6" s="62">
+        <v>648</v>
+      </c>
+      <c r="V6" s="62">
+        <v>689</v>
+      </c>
+      <c r="W6" s="62">
+        <v>716</v>
+      </c>
+      <c r="X6" s="62">
+        <v>801</v>
+      </c>
+      <c r="Y6" s="62">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="62">
+        <v>1566</v>
+      </c>
+      <c r="C7" s="62">
+        <v>5205</v>
+      </c>
+      <c r="D7" s="62">
+        <v>1756</v>
+      </c>
+      <c r="E7" s="62">
+        <v>1166</v>
+      </c>
+      <c r="F7" s="62">
+        <v>1397</v>
+      </c>
+      <c r="G7" s="62">
+        <v>1579</v>
+      </c>
+      <c r="H7" s="62">
+        <v>1572</v>
+      </c>
+      <c r="I7" s="63">
+        <v>1678</v>
+      </c>
+      <c r="J7" s="62">
+        <v>1745</v>
+      </c>
+      <c r="K7" s="62">
+        <v>2036</v>
+      </c>
+      <c r="L7" s="62">
+        <v>2539</v>
+      </c>
+      <c r="M7" s="62">
+        <v>2352</v>
+      </c>
+      <c r="N7" s="62">
+        <v>3471</v>
+      </c>
+      <c r="O7" s="62">
+        <v>2851</v>
+      </c>
+      <c r="P7" s="62">
+        <v>2734</v>
+      </c>
+      <c r="Q7" s="62">
+        <v>3464</v>
+      </c>
+      <c r="R7" s="62">
+        <v>3100</v>
+      </c>
+      <c r="S7" s="62">
+        <v>5891</v>
+      </c>
+      <c r="T7" s="62">
+        <v>3112</v>
+      </c>
+      <c r="U7" s="62">
+        <v>2851</v>
+      </c>
+      <c r="V7" s="62">
+        <v>3694</v>
+      </c>
+      <c r="W7" s="62">
+        <v>4024</v>
+      </c>
+      <c r="X7" s="62">
+        <v>4736</v>
+      </c>
+      <c r="Y7" s="62">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="65">
+        <v>16137</v>
+      </c>
+      <c r="C8" s="65">
+        <v>19161</v>
+      </c>
+      <c r="D8" s="65">
+        <v>20641</v>
+      </c>
+      <c r="E8" s="65">
+        <v>22362</v>
+      </c>
+      <c r="F8" s="65">
+        <v>22431</v>
+      </c>
+      <c r="G8" s="65">
+        <v>27786</v>
+      </c>
+      <c r="H8" s="65">
+        <v>26871</v>
+      </c>
+      <c r="I8" s="66">
+        <v>28811</v>
+      </c>
+      <c r="J8" s="65">
+        <v>28845</v>
+      </c>
+      <c r="K8" s="65">
+        <v>29309</v>
+      </c>
+      <c r="L8" s="65">
+        <v>28303</v>
+      </c>
+      <c r="M8" s="65">
+        <v>27860</v>
+      </c>
+      <c r="N8" s="65">
+        <v>30847</v>
+      </c>
+      <c r="O8" s="65">
+        <v>35032</v>
+      </c>
+      <c r="P8" s="65">
+        <v>31486</v>
+      </c>
+      <c r="Q8" s="65">
+        <v>36086</v>
+      </c>
+      <c r="R8" s="65">
+        <v>34003</v>
+      </c>
+      <c r="S8" s="65">
+        <v>31525</v>
+      </c>
+      <c r="T8" s="65">
+        <v>37622</v>
+      </c>
+      <c r="U8" s="65">
+        <v>36495</v>
+      </c>
+      <c r="V8" s="65">
+        <v>43085</v>
+      </c>
+      <c r="W8" s="65">
+        <v>44196</v>
+      </c>
+      <c r="X8" s="65">
+        <v>46668</v>
+      </c>
+      <c r="Y8" s="65">
+        <v>48725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="62">
+        <v>1392</v>
+      </c>
+      <c r="C9" s="62">
+        <v>1626</v>
+      </c>
+      <c r="D9" s="62">
+        <v>2219</v>
+      </c>
+      <c r="E9" s="62">
+        <v>2306</v>
+      </c>
+      <c r="F9" s="62">
+        <v>2483</v>
+      </c>
+      <c r="G9" s="62">
+        <v>2503</v>
+      </c>
+      <c r="H9" s="62">
+        <v>2707</v>
+      </c>
+      <c r="I9" s="63">
+        <v>3440</v>
+      </c>
+      <c r="J9" s="62">
+        <v>3569</v>
+      </c>
+      <c r="K9" s="62">
+        <v>3758</v>
+      </c>
+      <c r="L9" s="62">
+        <v>3667</v>
+      </c>
+      <c r="M9" s="62">
+        <v>6311</v>
+      </c>
+      <c r="N9" s="62">
+        <v>7862</v>
+      </c>
+      <c r="O9" s="62">
+        <v>10191</v>
+      </c>
+      <c r="P9" s="62">
+        <v>10669</v>
+      </c>
+      <c r="Q9" s="62">
+        <v>12306</v>
+      </c>
+      <c r="R9" s="62">
+        <v>11681</v>
+      </c>
+      <c r="S9" s="62">
+        <v>12345</v>
+      </c>
+      <c r="T9" s="62">
+        <v>10198</v>
+      </c>
+      <c r="U9" s="62">
+        <v>11692</v>
+      </c>
+      <c r="V9" s="62">
+        <v>12136</v>
+      </c>
+      <c r="W9" s="62">
+        <v>12904</v>
+      </c>
+      <c r="X9" s="62">
+        <v>14165</v>
+      </c>
+      <c r="Y9" s="62">
+        <v>16430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="65">
+        <v>655</v>
+      </c>
+      <c r="C10" s="65">
+        <v>819</v>
+      </c>
+      <c r="D10" s="65">
+        <v>675</v>
+      </c>
+      <c r="E10" s="65">
+        <v>666</v>
+      </c>
+      <c r="F10" s="65">
+        <v>685</v>
+      </c>
+      <c r="G10" s="65">
+        <v>849</v>
+      </c>
+      <c r="H10" s="65">
+        <v>917</v>
+      </c>
+      <c r="I10" s="66">
+        <v>899</v>
+      </c>
+      <c r="J10" s="65">
+        <v>946</v>
+      </c>
+      <c r="K10" s="65">
+        <v>1183</v>
+      </c>
+      <c r="L10" s="65">
+        <v>1406</v>
+      </c>
+      <c r="M10" s="65">
+        <v>1542</v>
+      </c>
+      <c r="N10" s="65">
+        <v>1888</v>
+      </c>
+      <c r="O10" s="65">
+        <v>2225</v>
+      </c>
+      <c r="P10" s="65">
+        <v>2244</v>
+      </c>
+      <c r="Q10" s="65">
+        <v>2398</v>
+      </c>
+      <c r="R10" s="65">
+        <v>2119</v>
+      </c>
+      <c r="S10" s="65">
+        <v>2317</v>
+      </c>
+      <c r="T10" s="65">
+        <v>2378</v>
+      </c>
+      <c r="U10" s="65">
+        <v>2370</v>
+      </c>
+      <c r="V10" s="65">
+        <v>2509</v>
+      </c>
+      <c r="W10" s="65">
+        <v>2648</v>
+      </c>
+      <c r="X10" s="65">
+        <v>2987</v>
+      </c>
+      <c r="Y10" s="65">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="62">
+        <v>472</v>
+      </c>
+      <c r="C11" s="62">
+        <v>595</v>
+      </c>
+      <c r="D11" s="62">
+        <v>575</v>
+      </c>
+      <c r="E11" s="62">
+        <v>585</v>
+      </c>
+      <c r="F11" s="62">
+        <v>836</v>
+      </c>
+      <c r="G11" s="62">
+        <v>829</v>
+      </c>
+      <c r="H11" s="62">
+        <v>1048</v>
+      </c>
+      <c r="I11" s="63">
+        <v>1121</v>
+      </c>
+      <c r="J11" s="62">
+        <v>1452</v>
+      </c>
+      <c r="K11" s="62">
+        <v>1642</v>
+      </c>
+      <c r="L11" s="62">
+        <v>1568</v>
+      </c>
+      <c r="M11" s="62">
+        <v>1466</v>
+      </c>
+      <c r="N11" s="62">
+        <v>1747</v>
+      </c>
+      <c r="O11" s="62">
+        <v>1876</v>
+      </c>
+      <c r="P11" s="62">
+        <v>1704</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>1718</v>
+      </c>
+      <c r="R11" s="62">
+        <v>1474</v>
+      </c>
+      <c r="S11" s="62">
+        <v>1347</v>
+      </c>
+      <c r="T11" s="62">
+        <v>1285</v>
+      </c>
+      <c r="U11" s="62">
+        <v>1360</v>
+      </c>
+      <c r="V11" s="62">
+        <v>1476</v>
+      </c>
+      <c r="W11" s="62">
+        <v>1460</v>
+      </c>
+      <c r="X11" s="62">
+        <v>1576</v>
+      </c>
+      <c r="Y11" s="62">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="65">
+        <v>1214</v>
+      </c>
+      <c r="C12" s="65">
+        <v>2396</v>
+      </c>
+      <c r="D12" s="65">
+        <v>2221</v>
+      </c>
+      <c r="E12" s="65">
+        <v>2051</v>
+      </c>
+      <c r="F12" s="65">
+        <v>1459</v>
+      </c>
+      <c r="G12" s="65">
+        <v>1502</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1608</v>
+      </c>
+      <c r="I12" s="66">
+        <v>1893</v>
+      </c>
+      <c r="J12" s="65">
+        <v>2021</v>
+      </c>
+      <c r="K12" s="65">
+        <v>2260</v>
+      </c>
+      <c r="L12" s="65">
+        <v>2679</v>
+      </c>
+      <c r="M12" s="65">
+        <v>3493</v>
+      </c>
+      <c r="N12" s="65">
+        <v>3516</v>
+      </c>
+      <c r="O12" s="65">
+        <v>3956</v>
+      </c>
+      <c r="P12" s="65">
+        <v>4194</v>
+      </c>
+      <c r="Q12" s="65">
+        <v>4273</v>
+      </c>
+      <c r="R12" s="65">
+        <v>4689</v>
+      </c>
+      <c r="S12" s="65">
+        <v>5613</v>
+      </c>
+      <c r="T12" s="65">
+        <v>6433</v>
+      </c>
+      <c r="U12" s="65">
+        <v>7019</v>
+      </c>
+      <c r="V12" s="65">
+        <v>7203</v>
+      </c>
+      <c r="W12" s="65">
+        <v>8019</v>
+      </c>
+      <c r="X12" s="65">
+        <v>8037</v>
+      </c>
+      <c r="Y12" s="65">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="62">
+        <v>1692</v>
+      </c>
+      <c r="C13" s="62">
+        <v>2026</v>
+      </c>
+      <c r="D13" s="62">
+        <v>2382</v>
+      </c>
+      <c r="E13" s="62">
+        <v>2830</v>
+      </c>
+      <c r="F13" s="62">
+        <v>3374</v>
+      </c>
+      <c r="G13" s="62">
+        <v>3388</v>
+      </c>
+      <c r="H13" s="62">
+        <v>3155</v>
+      </c>
+      <c r="I13" s="63">
+        <v>3449</v>
+      </c>
+      <c r="J13" s="62">
+        <v>3540</v>
+      </c>
+      <c r="K13" s="62">
+        <v>3607</v>
+      </c>
+      <c r="L13" s="62">
+        <v>3560</v>
+      </c>
+      <c r="M13" s="62">
+        <v>3679</v>
+      </c>
+      <c r="N13" s="62">
+        <v>3968</v>
+      </c>
+      <c r="O13" s="62">
+        <v>4332</v>
+      </c>
+      <c r="P13" s="62">
+        <v>3872</v>
+      </c>
+      <c r="Q13" s="62">
+        <v>3250</v>
+      </c>
+      <c r="R13" s="62">
+        <v>3366</v>
+      </c>
+      <c r="S13" s="62">
+        <v>3839</v>
+      </c>
+      <c r="T13" s="62">
+        <v>3888</v>
+      </c>
+      <c r="U13" s="62">
+        <v>3473</v>
+      </c>
+      <c r="V13" s="62">
+        <v>3981</v>
+      </c>
+      <c r="W13" s="62">
+        <v>4155</v>
+      </c>
+      <c r="X13" s="62">
+        <v>5199</v>
+      </c>
+      <c r="Y13" s="62">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="65">
+        <v>686</v>
+      </c>
+      <c r="C14" s="65">
+        <v>1130</v>
+      </c>
+      <c r="D14" s="65">
+        <v>1194</v>
+      </c>
+      <c r="E14" s="65">
+        <v>1331</v>
+      </c>
+      <c r="F14" s="65">
+        <v>1271</v>
+      </c>
+      <c r="G14" s="65">
+        <v>2438</v>
+      </c>
+      <c r="H14" s="65">
+        <v>3154</v>
+      </c>
+      <c r="I14" s="66">
+        <v>2551</v>
+      </c>
+      <c r="J14" s="65">
+        <v>2565</v>
+      </c>
+      <c r="K14" s="65">
+        <v>4916</v>
+      </c>
+      <c r="L14" s="65">
+        <v>5489</v>
+      </c>
+      <c r="M14" s="65">
+        <v>6753</v>
+      </c>
+      <c r="N14" s="65">
+        <v>8859</v>
+      </c>
+      <c r="O14" s="65">
+        <v>10421</v>
+      </c>
+      <c r="P14" s="65">
+        <v>9371</v>
+      </c>
+      <c r="Q14" s="65">
+        <v>9860</v>
+      </c>
+      <c r="R14" s="65">
+        <v>9994</v>
+      </c>
+      <c r="S14" s="65">
+        <v>12815</v>
+      </c>
+      <c r="T14" s="65">
+        <v>12115</v>
+      </c>
+      <c r="U14" s="65">
+        <v>11427</v>
+      </c>
+      <c r="V14" s="65">
+        <v>12069</v>
+      </c>
+      <c r="W14" s="65">
+        <v>10566</v>
+      </c>
+      <c r="X14" s="65">
+        <v>9964</v>
+      </c>
+      <c r="Y14" s="65">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="62">
+        <v>97</v>
+      </c>
+      <c r="C15" s="62">
+        <v>185</v>
+      </c>
+      <c r="D15" s="62">
+        <v>169</v>
+      </c>
+      <c r="E15" s="62">
+        <v>154</v>
+      </c>
+      <c r="F15" s="62">
+        <v>207</v>
+      </c>
+      <c r="G15" s="62">
+        <v>293</v>
+      </c>
+      <c r="H15" s="62">
+        <v>309</v>
+      </c>
+      <c r="I15" s="63">
+        <v>489</v>
+      </c>
+      <c r="J15" s="62">
+        <v>611</v>
+      </c>
+      <c r="K15" s="62">
+        <v>797</v>
+      </c>
+      <c r="L15" s="62">
+        <v>1012</v>
+      </c>
+      <c r="M15" s="62">
+        <v>1084</v>
+      </c>
+      <c r="N15" s="62">
+        <v>1466</v>
+      </c>
+      <c r="O15" s="62">
+        <v>1540</v>
+      </c>
+      <c r="P15" s="62">
+        <v>1042</v>
+      </c>
+      <c r="Q15" s="62">
+        <v>1328</v>
+      </c>
+      <c r="R15" s="62">
+        <v>1313</v>
+      </c>
+      <c r="S15" s="62">
+        <v>2302</v>
+      </c>
+      <c r="T15" s="62">
+        <v>2492</v>
+      </c>
+      <c r="U15" s="62">
+        <v>2687</v>
+      </c>
+      <c r="V15" s="62">
+        <v>2608</v>
+      </c>
+      <c r="W15" s="62">
+        <v>2610</v>
+      </c>
+      <c r="X15" s="62">
+        <v>2986</v>
+      </c>
+      <c r="Y15" s="62">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="65">
+        <v>1393</v>
+      </c>
+      <c r="C16" s="65">
+        <v>1538</v>
+      </c>
+      <c r="D16" s="65">
+        <v>1777</v>
+      </c>
+      <c r="E16" s="65">
+        <v>2019</v>
+      </c>
+      <c r="F16" s="65">
+        <v>2304</v>
+      </c>
+      <c r="G16" s="65">
+        <v>2580</v>
+      </c>
+      <c r="H16" s="65">
+        <v>2830</v>
+      </c>
+      <c r="I16" s="66">
+        <v>2691</v>
+      </c>
+      <c r="J16" s="65">
+        <v>2806</v>
+      </c>
+      <c r="K16" s="65">
+        <v>3160</v>
+      </c>
+      <c r="L16" s="65">
+        <v>3916</v>
+      </c>
+      <c r="M16" s="65">
+        <v>3736</v>
+      </c>
+      <c r="N16" s="65">
+        <v>3701</v>
+      </c>
+      <c r="O16" s="65">
+        <v>5272</v>
+      </c>
+      <c r="P16" s="65">
+        <v>5430</v>
+      </c>
+      <c r="Q16" s="65">
+        <v>5558</v>
+      </c>
+      <c r="R16" s="65">
+        <v>6273</v>
+      </c>
+      <c r="S16" s="65">
+        <v>6274</v>
+      </c>
+      <c r="T16" s="65">
+        <v>6216</v>
+      </c>
+      <c r="U16" s="65">
+        <v>5728</v>
+      </c>
+      <c r="V16" s="65">
+        <v>6037</v>
+      </c>
+      <c r="W16" s="65">
+        <v>6348</v>
+      </c>
+      <c r="X16" s="65">
+        <v>6368</v>
+      </c>
+      <c r="Y16" s="65">
+        <v>6906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="62">
+        <v>1593</v>
+      </c>
+      <c r="C17" s="62">
+        <v>1729</v>
+      </c>
+      <c r="D17" s="62">
+        <v>1860</v>
+      </c>
+      <c r="E17" s="62">
+        <v>2085</v>
+      </c>
+      <c r="F17" s="62">
+        <v>2348</v>
+      </c>
+      <c r="G17" s="62">
+        <v>2393</v>
+      </c>
+      <c r="H17" s="62">
+        <v>2444</v>
+      </c>
+      <c r="I17" s="63">
+        <v>2492</v>
+      </c>
+      <c r="J17" s="62">
+        <v>2678</v>
+      </c>
+      <c r="K17" s="62">
+        <v>3565</v>
+      </c>
+      <c r="L17" s="62">
+        <v>3428</v>
+      </c>
+      <c r="M17" s="62">
+        <v>3822</v>
+      </c>
+      <c r="N17" s="62">
+        <v>4221</v>
+      </c>
+      <c r="O17" s="62">
+        <v>4556</v>
+      </c>
+      <c r="P17" s="62">
+        <v>4793</v>
+      </c>
+      <c r="Q17" s="62">
+        <v>5024</v>
+      </c>
+      <c r="R17" s="62">
+        <v>4945</v>
+      </c>
+      <c r="S17" s="62">
+        <v>4954</v>
+      </c>
+      <c r="T17" s="62">
+        <v>5047</v>
+      </c>
+      <c r="U17" s="62">
+        <v>5286</v>
+      </c>
+      <c r="V17" s="62">
+        <v>5679</v>
+      </c>
+      <c r="W17" s="62">
+        <v>5591</v>
+      </c>
+      <c r="X17" s="62">
+        <v>5771</v>
+      </c>
+      <c r="Y17" s="62">
+        <v>7585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="65">
+        <v>922</v>
+      </c>
+      <c r="C18" s="65">
+        <v>764</v>
+      </c>
+      <c r="D18" s="65">
+        <v>790</v>
+      </c>
+      <c r="E18" s="65">
+        <v>882</v>
+      </c>
+      <c r="F18" s="65">
+        <v>1007</v>
+      </c>
+      <c r="G18" s="65">
+        <v>1035</v>
+      </c>
+      <c r="H18" s="65">
+        <v>1119</v>
+      </c>
+      <c r="I18" s="66">
+        <v>1174</v>
+      </c>
+      <c r="J18" s="65">
+        <v>1232</v>
+      </c>
+      <c r="K18" s="65">
+        <v>1394</v>
+      </c>
+      <c r="L18" s="65">
+        <v>1584</v>
+      </c>
+      <c r="M18" s="65">
+        <v>1710</v>
+      </c>
+      <c r="N18" s="65">
+        <v>1763</v>
+      </c>
+      <c r="O18" s="65">
+        <v>1915</v>
+      </c>
+      <c r="P18" s="65">
+        <v>2325</v>
+      </c>
+      <c r="Q18" s="65">
+        <v>2409</v>
+      </c>
+      <c r="R18" s="65">
+        <v>2730</v>
+      </c>
+      <c r="S18" s="65">
+        <v>3170</v>
+      </c>
+      <c r="T18" s="65">
+        <v>3209</v>
+      </c>
+      <c r="U18" s="65">
+        <v>3365</v>
+      </c>
+      <c r="V18" s="65">
+        <v>3503</v>
+      </c>
+      <c r="W18" s="65">
+        <v>3725</v>
+      </c>
+      <c r="X18" s="65">
+        <v>3955</v>
+      </c>
+      <c r="Y18" s="65">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="62">
+        <v>30</v>
+      </c>
+      <c r="C19" s="62">
+        <v>49</v>
+      </c>
+      <c r="D19" s="62">
+        <v>48</v>
+      </c>
+      <c r="E19" s="62">
+        <v>49</v>
+      </c>
+      <c r="F19" s="62">
+        <v>54</v>
+      </c>
+      <c r="G19" s="62">
+        <v>56</v>
+      </c>
+      <c r="H19" s="62">
+        <v>57</v>
+      </c>
+      <c r="I19" s="63">
+        <v>57</v>
+      </c>
+      <c r="J19" s="62">
+        <v>97</v>
+      </c>
+      <c r="K19" s="62">
+        <v>162</v>
+      </c>
+      <c r="L19" s="62">
+        <v>200</v>
+      </c>
+      <c r="M19" s="62">
+        <v>169</v>
+      </c>
+      <c r="N19" s="62">
+        <v>115</v>
+      </c>
+      <c r="O19" s="62">
+        <v>110</v>
+      </c>
+      <c r="P19" s="62">
+        <v>101</v>
+      </c>
+      <c r="Q19" s="62">
+        <v>129</v>
+      </c>
+      <c r="R19" s="62">
+        <v>149</v>
+      </c>
+      <c r="S19" s="62">
+        <v>188</v>
+      </c>
+      <c r="T19" s="62">
+        <v>192</v>
+      </c>
+      <c r="U19" s="62">
+        <v>193</v>
+      </c>
+      <c r="V19" s="62">
+        <v>192</v>
+      </c>
+      <c r="W19" s="62">
+        <v>239</v>
+      </c>
+      <c r="X19" s="62">
+        <v>286</v>
+      </c>
+      <c r="Y19" s="62">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="65">
+        <v>186</v>
+      </c>
+      <c r="C20" s="65">
+        <v>242</v>
+      </c>
+      <c r="D20" s="65">
+        <v>330</v>
+      </c>
+      <c r="E20" s="65">
+        <v>509</v>
+      </c>
+      <c r="F20" s="65">
+        <v>420</v>
+      </c>
+      <c r="G20" s="65">
+        <v>540</v>
+      </c>
+      <c r="H20" s="65">
+        <v>605</v>
+      </c>
+      <c r="I20" s="66">
+        <v>570</v>
+      </c>
+      <c r="J20" s="65">
+        <v>600</v>
+      </c>
+      <c r="K20" s="65">
+        <v>763</v>
+      </c>
+      <c r="L20" s="65">
+        <v>1022</v>
+      </c>
+      <c r="M20" s="65">
+        <v>1428</v>
+      </c>
+      <c r="N20" s="65">
+        <v>1484</v>
+      </c>
+      <c r="O20" s="65">
+        <v>1804</v>
+      </c>
+      <c r="P20" s="65">
+        <v>1627</v>
+      </c>
+      <c r="Q20" s="65">
+        <v>1917</v>
+      </c>
+      <c r="R20" s="65">
+        <v>2181</v>
+      </c>
+      <c r="S20" s="65">
+        <v>2090</v>
+      </c>
+      <c r="T20" s="65">
+        <v>2098</v>
+      </c>
+      <c r="U20" s="65">
+        <v>1995</v>
+      </c>
+      <c r="V20" s="65">
+        <v>1679</v>
+      </c>
+      <c r="W20" s="65">
+        <v>1671</v>
+      </c>
+      <c r="X20" s="65">
+        <v>1696</v>
+      </c>
+      <c r="Y20" s="65">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="85">
+        <v>25867</v>
+      </c>
+      <c r="S21" s="85">
+        <v>27234</v>
+      </c>
+      <c r="T21" s="85">
+        <v>27090</v>
+      </c>
+      <c r="U21" s="85">
+        <v>26270</v>
+      </c>
+      <c r="V21" s="85">
+        <v>24312</v>
+      </c>
+      <c r="W21" s="85">
+        <v>25236</v>
+      </c>
+      <c r="X21" s="85">
+        <v>24934</v>
+      </c>
+      <c r="Y21" s="85">
+        <v>25178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="86">
+        <v>6129127</v>
+      </c>
+      <c r="S22" s="86">
+        <v>6286780</v>
+      </c>
+      <c r="T22" s="86">
+        <v>6715949</v>
+      </c>
+      <c r="U22" s="86">
+        <v>7146861</v>
+      </c>
+      <c r="V22" s="86">
+        <v>7773773</v>
+      </c>
+      <c r="W22" s="86">
+        <v>8819397</v>
+      </c>
+      <c r="X22" s="85">
+        <v>8955598</v>
+      </c>
+      <c r="Y22" s="85">
+        <v>8912124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="67">
+        <v>30.4721351597717</v>
+      </c>
+      <c r="C23" s="67">
+        <v>28.513390173860799</v>
+      </c>
+      <c r="D23" s="67">
+        <v>23.4280136442623</v>
+      </c>
+      <c r="E23" s="67">
+        <v>20.734686625505301</v>
+      </c>
+      <c r="F23" s="67">
+        <v>17.803396306045201</v>
+      </c>
+      <c r="G23" s="67">
+        <v>10.448336580639101</v>
+      </c>
+      <c r="H23" s="67">
+        <v>2.8588166373755102</v>
+      </c>
+      <c r="I23" s="67">
+        <v>2.5914340491501</v>
+      </c>
+      <c r="J23" s="67">
+        <v>2.7029568398827202</v>
+      </c>
+      <c r="K23" s="67">
+        <v>6.1649446817310496</v>
+      </c>
+      <c r="L23" s="67">
+        <v>6.5992420402883596</v>
+      </c>
+      <c r="M23" s="67">
+        <v>6.1452191838088002</v>
+      </c>
+      <c r="N23" s="67">
+        <v>2.68730209655596</v>
+      </c>
+      <c r="O23" s="67">
+        <v>1.1307367764166401</v>
+      </c>
+      <c r="P23" s="67">
+        <v>0.48519481919754198</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>0.73782926492897505</v>
+      </c>
+      <c r="R23" s="67">
+        <v>1.32187113359104</v>
+      </c>
+      <c r="S23" s="67">
+        <v>1.45461737629459</v>
+      </c>
+      <c r="T23" s="67">
+        <v>0.98405675490121303</v>
+      </c>
+      <c r="U23" s="67">
+        <v>0.997380499791367</v>
+      </c>
+      <c r="V23" s="67">
+        <v>0.57043204320432095</v>
+      </c>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+    </row>
+    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="67">
+        <v>42.3298327984716</v>
+      </c>
+      <c r="C24" s="67">
+        <v>42.647091560740002</v>
+      </c>
+      <c r="D24" s="67">
+        <v>47.935125394203297</v>
+      </c>
+      <c r="E24" s="67">
+        <v>54.677297561408999</v>
+      </c>
+      <c r="F24" s="67">
+        <v>59.111051877519699</v>
+      </c>
+      <c r="G24" s="67">
+        <v>64.222678350021397</v>
+      </c>
+      <c r="H24" s="67">
+        <v>71.106229252099197</v>
+      </c>
+      <c r="I24" s="67">
+        <v>72.644546980635297</v>
+      </c>
+      <c r="J24" s="67">
+        <v>73.514955164425601</v>
+      </c>
+      <c r="K24" s="67">
+        <v>71.622642709998701</v>
+      </c>
+      <c r="L24" s="67">
+        <v>72.332201184595704</v>
+      </c>
+      <c r="M24" s="67">
+        <v>68.695852733851297</v>
+      </c>
+      <c r="N24" s="67">
+        <v>68.939446777050904</v>
+      </c>
+      <c r="O24" s="67">
+        <v>70.720225740371404</v>
+      </c>
+      <c r="P24" s="67">
+        <v>72.3782632721</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>74.816639711137</v>
+      </c>
+      <c r="R24" s="67">
+        <v>68.315479739215704</v>
+      </c>
+      <c r="S24" s="67">
+        <v>70.158467587265093</v>
+      </c>
+      <c r="T24" s="67">
+        <v>68.658643210477805</v>
+      </c>
+      <c r="U24" s="67">
+        <v>68.709722286615005</v>
+      </c>
+      <c r="V24" s="67">
+        <v>71.4367686768677</v>
+      </c>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+    </row>
+    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="67">
+        <v>26413004</v>
+      </c>
+      <c r="C25" s="67">
+        <v>27143793</v>
+      </c>
+      <c r="D25" s="67">
+        <v>27617214</v>
+      </c>
+      <c r="E25" s="67">
+        <v>27814014</v>
+      </c>
+      <c r="F25" s="67">
+        <v>28660817</v>
+      </c>
+      <c r="G25" s="67">
+        <v>30529251</v>
+      </c>
+      <c r="H25" s="67">
+        <v>33822931</v>
+      </c>
+      <c r="I25" s="67">
+        <v>32806558</v>
+      </c>
+      <c r="J25" s="67">
+        <v>34288531</v>
+      </c>
+      <c r="K25" s="67">
+        <v>33403954</v>
+      </c>
+      <c r="L25" s="67">
+        <v>34962737</v>
+      </c>
+      <c r="M25" s="67">
+        <v>34125561</v>
+      </c>
+      <c r="N25" s="67">
+        <v>36666662</v>
+      </c>
+      <c r="O25" s="67">
+        <v>36569651</v>
+      </c>
+      <c r="P25" s="67">
+        <v>37326770</v>
+      </c>
+      <c r="Q25" s="67">
+        <v>40889315</v>
+      </c>
+      <c r="R25" s="67">
+        <v>43393530</v>
+      </c>
+      <c r="S25" s="67">
+        <v>43376227</v>
+      </c>
+      <c r="T25" s="67">
+        <v>41971848</v>
+      </c>
+      <c r="U25" s="67">
+        <v>37762326</v>
+      </c>
+      <c r="V25" s="67">
+        <v>32797879</v>
+      </c>
+      <c r="W25" s="67">
+        <v>30483516</v>
+      </c>
+      <c r="X25" s="67">
+        <v>38015496</v>
+      </c>
+      <c r="Y25" s="67">
+        <v>37564640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="74">
+        <v>15859</v>
+      </c>
+      <c r="N26" s="74">
+        <v>16757</v>
+      </c>
+      <c r="O26" s="74">
+        <v>19201</v>
+      </c>
+      <c r="P26" s="74">
+        <v>20717</v>
+      </c>
+      <c r="Q26" s="74">
+        <v>18789</v>
+      </c>
+      <c r="R26" s="73">
+        <v>17534.3</v>
+      </c>
+      <c r="S26" s="73">
+        <v>25215.89</v>
+      </c>
+      <c r="T26" s="73">
+        <v>20493.7</v>
+      </c>
+      <c r="U26" s="73">
+        <v>20409.63</v>
+      </c>
+      <c r="V26" s="73">
+        <v>22218.1</v>
+      </c>
+      <c r="W26" s="73">
+        <v>23095.32</v>
+      </c>
+      <c r="X26" s="73">
+        <v>23780.19</v>
+      </c>
+      <c r="Y26" s="73">
+        <v>22790.080000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="76">
+        <v>1155861</v>
+      </c>
+      <c r="R27" s="76">
+        <v>1158113</v>
+      </c>
+      <c r="S27" s="76">
+        <v>1180726</v>
+      </c>
+      <c r="T27" s="76">
+        <v>1177369</v>
+      </c>
+      <c r="U27" s="76">
+        <v>1178443</v>
+      </c>
+      <c r="V27" s="76">
+        <v>1177896</v>
+      </c>
+      <c r="W27" s="76">
+        <v>1178345</v>
+      </c>
+      <c r="X27" s="76">
+        <v>1178698</v>
+      </c>
+      <c r="Y27" s="76">
+        <v>1178475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="80">
+        <v>7060.41</v>
+      </c>
+      <c r="R28" s="80">
+        <v>5759.82</v>
+      </c>
+      <c r="S28" s="80">
+        <v>7642</v>
+      </c>
+      <c r="T28" s="80">
+        <v>8170.42</v>
+      </c>
+      <c r="U28" s="80">
+        <v>9013.07</v>
+      </c>
+      <c r="V28" s="80">
+        <v>9752.11</v>
+      </c>
+      <c r="W28" s="80">
+        <v>10379.51</v>
+      </c>
+      <c r="X28" s="80">
+        <v>11423</v>
+      </c>
+      <c r="Y28" s="80">
+        <v>12997.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" s="80">
+        <v>2882.91</v>
+      </c>
+      <c r="R29" s="80">
+        <v>2063.46</v>
+      </c>
+      <c r="S29" s="80">
+        <v>3927.24</v>
+      </c>
+      <c r="T29" s="80">
+        <v>4064.61</v>
+      </c>
+      <c r="U29" s="80">
+        <v>4433.59</v>
+      </c>
+      <c r="V29" s="80">
+        <v>4733.0600000000004</v>
+      </c>
+      <c r="W29" s="80">
+        <v>4930.18</v>
+      </c>
+      <c r="X29" s="80">
+        <v>5478.48</v>
+      </c>
+      <c r="Y29" s="80">
+        <v>6018.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="83">
+        <v>147</v>
+      </c>
+      <c r="S30" s="83">
+        <v>109</v>
+      </c>
+      <c r="T30" s="83">
+        <v>93</v>
+      </c>
+      <c r="U30" s="83">
+        <v>117</v>
+      </c>
+      <c r="V30" s="83">
+        <v>132</v>
+      </c>
+      <c r="W30" s="83">
+        <v>121</v>
+      </c>
+      <c r="X30" s="83">
+        <v>117</v>
+      </c>
+      <c r="Y30" s="83">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="69">
+        <v>143862.554</v>
+      </c>
+      <c r="C31" s="69">
+        <v>171503.91700000002</v>
+      </c>
+      <c r="D31" s="69">
+        <v>179223.451</v>
+      </c>
+      <c r="E31" s="69">
+        <v>180611.80600000001</v>
+      </c>
+      <c r="F31" s="69">
+        <v>189856.70600000001</v>
+      </c>
+      <c r="G31" s="69">
+        <v>219141.84700000001</v>
+      </c>
+      <c r="H31" s="69">
+        <v>219060.592</v>
+      </c>
+      <c r="I31" s="70">
+        <v>231122.49200000003</v>
+      </c>
+      <c r="J31" s="71">
+        <v>256743.10100000002</v>
+      </c>
+      <c r="K31" s="71">
+        <v>271765.11700000003</v>
+      </c>
+      <c r="L31" s="71">
+        <v>273739.91000000003</v>
+      </c>
+      <c r="M31" s="71">
+        <v>298954.25300000003</v>
+      </c>
+      <c r="N31" s="71">
+        <v>339993.39600000001</v>
+      </c>
+      <c r="O31" s="71">
+        <v>438555.44500000001</v>
+      </c>
+      <c r="P31" s="71">
+        <v>379657.777</v>
+      </c>
+      <c r="Q31" s="71">
+        <v>427733.43600000005</v>
+      </c>
+      <c r="R31" s="69">
+        <v>365800.94500000001</v>
+      </c>
+      <c r="S31" s="69">
+        <v>378620.53700000001</v>
+      </c>
+      <c r="T31" s="69">
+        <v>461789.49600000004</v>
+      </c>
+      <c r="U31" s="69">
+        <v>417614.34099999996</v>
+      </c>
+      <c r="V31" s="69">
+        <v>468325.83400000003</v>
+      </c>
+      <c r="W31" s="69">
+        <v>444803.565</v>
+      </c>
+      <c r="X31" s="69">
+        <v>449602.96699999995</v>
+      </c>
+      <c r="Y31" s="69">
+        <v>454952.54100000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB9047E-B268-2648-8545-D88A4802D6F0}">
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:Y22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="76.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="45">
+        <v>2016</v>
+      </c>
+      <c r="X1" s="45">
+        <v>2017</v>
+      </c>
+      <c r="Y1" s="45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="49">
+        <v>5391.5758539999997</v>
+      </c>
+      <c r="C2" s="49">
+        <v>6206.6825580000004</v>
+      </c>
+      <c r="D2" s="49">
+        <v>6014.4152150000009</v>
+      </c>
+      <c r="E2" s="49">
+        <v>6270.1771489999992</v>
+      </c>
+      <c r="F2" s="49">
+        <v>5684.6740969999992</v>
+      </c>
+      <c r="G2" s="49">
+        <v>6101.7808180000002</v>
+      </c>
+      <c r="H2" s="49">
+        <v>6704.374562</v>
+      </c>
+      <c r="I2" s="50">
+        <v>6495.3498030000001</v>
+      </c>
+      <c r="J2" s="51">
+        <v>7014.641912</v>
+      </c>
+      <c r="K2" s="51">
+        <v>7333.6659089999994</v>
+      </c>
+      <c r="L2" s="51">
+        <v>7960.8161129999999</v>
+      </c>
+      <c r="M2" s="51">
+        <v>7815.0604689999991</v>
+      </c>
+      <c r="N2" s="51">
+        <v>9248.951384</v>
+      </c>
+      <c r="O2" s="51">
+        <v>12887.833873</v>
+      </c>
+      <c r="P2" s="51">
+        <v>13002.126053</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>12440.96422</v>
+      </c>
+      <c r="R2" s="49">
+        <v>14130.475935</v>
+      </c>
+      <c r="S2" s="49">
+        <v>16469.528678999999</v>
+      </c>
+      <c r="T2" s="49">
+        <v>17217.859748999999</v>
+      </c>
+      <c r="U2" s="49">
+        <v>17305.341702000002</v>
+      </c>
+      <c r="V2" s="49">
+        <v>15588.94169</v>
+      </c>
+      <c r="W2" s="49">
+        <v>15961.808110000002</v>
+      </c>
+      <c r="X2" s="49">
+        <v>18110.396808999998</v>
+      </c>
+      <c r="Y2" s="49">
+        <v>20601.412908999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="53">
+        <v>19.009823000000001</v>
+      </c>
+      <c r="C3" s="53">
+        <v>37.744703000000001</v>
+      </c>
+      <c r="D3" s="53">
+        <v>36.238534999999999</v>
+      </c>
+      <c r="E3" s="53">
+        <v>28.193052999999999</v>
+      </c>
+      <c r="F3" s="53">
+        <v>42.046275999999999</v>
+      </c>
+      <c r="G3" s="53">
+        <v>19.685466000000002</v>
+      </c>
+      <c r="H3" s="53">
+        <v>27.442478000000001</v>
+      </c>
+      <c r="I3" s="54">
+        <v>31.694595</v>
+      </c>
+      <c r="J3" s="55">
+        <v>55.201692999999999</v>
+      </c>
+      <c r="K3" s="55">
+        <v>85.532655000000005</v>
+      </c>
+      <c r="L3" s="55">
+        <v>105.336168</v>
+      </c>
+      <c r="M3" s="55">
+        <v>130.340599</v>
+      </c>
+      <c r="N3" s="55">
+        <v>186.747015</v>
+      </c>
+      <c r="O3" s="55">
+        <v>211.38096899999999</v>
+      </c>
+      <c r="P3" s="55">
+        <v>326.29012999999998</v>
+      </c>
+      <c r="Q3" s="55">
+        <v>338.87062500000002</v>
+      </c>
+      <c r="R3" s="53">
+        <v>260.52309000000002</v>
+      </c>
+      <c r="S3" s="53">
+        <v>252.60647399999999</v>
+      </c>
+      <c r="T3" s="53">
+        <v>232.67008999999999</v>
+      </c>
+      <c r="U3" s="53">
+        <v>277.73333200000002</v>
+      </c>
+      <c r="V3" s="53">
+        <v>605.35670700000003</v>
+      </c>
+      <c r="W3" s="53">
+        <v>1075.216017</v>
+      </c>
+      <c r="X3" s="53">
+        <v>1293.9742610000001</v>
+      </c>
+      <c r="Y3" s="53">
+        <v>921.72877000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="49">
+        <v>7176.043232</v>
+      </c>
+      <c r="C4" s="49">
+        <v>6810.3174569999992</v>
+      </c>
+      <c r="D4" s="49">
+        <v>6988.106194</v>
+      </c>
+      <c r="E4" s="49">
+        <v>5739.5746220000001</v>
+      </c>
+      <c r="F4" s="49">
+        <v>4594.756351</v>
+      </c>
+      <c r="G4" s="49">
+        <v>5106.5363270000007</v>
+      </c>
+      <c r="H4" s="49">
+        <v>7786.63699</v>
+      </c>
+      <c r="I4" s="50">
+        <v>12221.180023999999</v>
+      </c>
+      <c r="J4" s="51">
+        <v>14449.786892</v>
+      </c>
+      <c r="K4" s="51">
+        <v>14609.135541</v>
+      </c>
+      <c r="L4" s="51">
+        <v>16051.876292999999</v>
+      </c>
+      <c r="M4" s="51">
+        <v>16381.059371000001</v>
+      </c>
+      <c r="N4" s="51">
+        <v>13990.253939</v>
+      </c>
+      <c r="O4" s="51">
+        <v>15308.007311000001</v>
+      </c>
+      <c r="P4" s="51">
+        <v>16958.982390000001</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>18119.109111000002</v>
+      </c>
+      <c r="R4" s="49">
+        <v>22255.055638999998</v>
+      </c>
+      <c r="S4" s="49">
+        <v>26925.109248999997</v>
+      </c>
+      <c r="T4" s="49">
+        <v>29236.708713</v>
+      </c>
+      <c r="U4" s="49">
+        <v>32449.357227</v>
+      </c>
+      <c r="V4" s="49">
+        <v>33482.667132000002</v>
+      </c>
+      <c r="W4" s="49">
+        <v>34521.386075000002</v>
+      </c>
+      <c r="X4" s="49">
+        <v>38776.266119999993</v>
+      </c>
+      <c r="Y4" s="49">
+        <v>34067.300287000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="53">
+        <v>590.23870599999998</v>
+      </c>
+      <c r="C5" s="53">
+        <v>677.21830699999998</v>
+      </c>
+      <c r="D5" s="53">
+        <v>817.94111899999996</v>
+      </c>
+      <c r="E5" s="53">
+        <v>1090.8698690000001</v>
+      </c>
+      <c r="F5" s="53">
+        <v>958.72226899999998</v>
+      </c>
+      <c r="G5" s="53">
+        <v>1056.5439260000001</v>
+      </c>
+      <c r="H5" s="53">
+        <v>1087.192094</v>
+      </c>
+      <c r="I5" s="54">
+        <v>1129.3474699999999</v>
+      </c>
+      <c r="J5" s="55">
+        <v>1240.583435</v>
+      </c>
+      <c r="K5" s="55">
+        <v>1420.0946489999999</v>
+      </c>
+      <c r="L5" s="55">
+        <v>1286.447195</v>
+      </c>
+      <c r="M5" s="55">
+        <v>1493.574517</v>
+      </c>
+      <c r="N5" s="55">
+        <v>1432.539722</v>
+      </c>
+      <c r="O5" s="55">
+        <v>1383.84726</v>
+      </c>
+      <c r="P5" s="55">
+        <v>1649.304351</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>1836.976422</v>
+      </c>
+      <c r="R5" s="53">
+        <v>1828.7517909999999</v>
+      </c>
+      <c r="S5" s="53">
+        <v>2073.8949499999999</v>
+      </c>
+      <c r="T5" s="53">
+        <v>2195.5455390000002</v>
+      </c>
+      <c r="U5" s="53">
+        <v>2310.8807059999999</v>
+      </c>
+      <c r="V5" s="53">
+        <v>2321.948946</v>
+      </c>
+      <c r="W5" s="53">
+        <v>2354.1560469999999</v>
+      </c>
+      <c r="X5" s="53">
+        <v>2482.8914140000002</v>
+      </c>
+      <c r="Y5" s="53">
+        <v>2187.8439349999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="49">
+        <v>142.27762200000001</v>
+      </c>
+      <c r="C6" s="49">
+        <v>137.42399900000001</v>
+      </c>
+      <c r="D6" s="49">
+        <v>149.15933000000001</v>
+      </c>
+      <c r="E6" s="49">
+        <v>130.48914300000001</v>
+      </c>
+      <c r="F6" s="49">
+        <v>143.73449500000001</v>
+      </c>
+      <c r="G6" s="49">
+        <v>181.363449</v>
+      </c>
+      <c r="H6" s="49">
+        <v>195.98029199999999</v>
+      </c>
+      <c r="I6" s="50">
+        <v>176.04478599999999</v>
+      </c>
+      <c r="J6" s="51">
+        <v>176.639261</v>
+      </c>
+      <c r="K6" s="51">
+        <v>215.456435</v>
+      </c>
+      <c r="L6" s="51">
+        <v>215.885648</v>
+      </c>
+      <c r="M6" s="51">
+        <v>168.72327999999999</v>
+      </c>
+      <c r="N6" s="51">
+        <v>169.47104999999999</v>
+      </c>
+      <c r="O6" s="51">
+        <v>190.842276</v>
+      </c>
+      <c r="P6" s="51">
+        <v>228.69747799999999</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>224.632328</v>
+      </c>
+      <c r="R6" s="49">
+        <v>213.479006</v>
+      </c>
+      <c r="S6" s="49">
+        <v>270.62905699999999</v>
+      </c>
+      <c r="T6" s="49">
+        <v>312.24555700000002</v>
+      </c>
+      <c r="U6" s="49">
+        <v>349.81324499999999</v>
+      </c>
+      <c r="V6" s="49">
+        <v>347.644564</v>
+      </c>
+      <c r="W6" s="49">
+        <v>324.97511800000001</v>
+      </c>
+      <c r="X6" s="49">
+        <v>399.40900199999999</v>
+      </c>
+      <c r="Y6" s="49">
+        <v>457.13392800000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="49">
+        <v>3391.0051010000002</v>
+      </c>
+      <c r="C7" s="49">
+        <v>7728.6456310000003</v>
+      </c>
+      <c r="D7" s="49">
+        <v>5647.8942470000002</v>
+      </c>
+      <c r="E7" s="49">
+        <v>3182.2889129999999</v>
+      </c>
+      <c r="F7" s="49">
+        <v>2304.8760779999998</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1693.173646</v>
+      </c>
+      <c r="H7" s="49">
+        <v>2188.2464249999998</v>
+      </c>
+      <c r="I7" s="50">
+        <v>2224.4460779999999</v>
+      </c>
+      <c r="J7" s="51">
+        <v>2001.4497670000001</v>
+      </c>
+      <c r="K7" s="51">
+        <v>1908.8842549999999</v>
+      </c>
+      <c r="L7" s="51">
+        <v>2160.7576300000001</v>
+      </c>
+      <c r="M7" s="51">
+        <v>2116.1205249999998</v>
+      </c>
+      <c r="N7" s="51">
+        <v>1728.3727289999999</v>
+      </c>
+      <c r="O7" s="51">
+        <v>1606.899461</v>
+      </c>
+      <c r="P7" s="51">
+        <v>2363.0427030000001</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>2414.2055110000001</v>
+      </c>
+      <c r="R7" s="49">
+        <v>2447.707218</v>
+      </c>
+      <c r="S7" s="49">
+        <v>3287.7490229999999</v>
+      </c>
+      <c r="T7" s="49">
+        <v>2380.5430769999998</v>
+      </c>
+      <c r="U7" s="49">
+        <v>2129.7829750000001</v>
+      </c>
+      <c r="V7" s="49">
+        <v>2159.959695</v>
+      </c>
+      <c r="W7" s="49">
+        <v>2148.0528469999999</v>
+      </c>
+      <c r="X7" s="49">
+        <v>2011.3616709999999</v>
+      </c>
+      <c r="Y7" s="49">
+        <v>2569.1319560000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="53">
+        <v>3484.5076330000002</v>
+      </c>
+      <c r="C8" s="53">
+        <v>3737.141208</v>
+      </c>
+      <c r="D8" s="53">
+        <v>4542.778789</v>
+      </c>
+      <c r="E8" s="53">
+        <v>4987.8019489999997</v>
+      </c>
+      <c r="F8" s="53">
+        <v>4652.3368540000001</v>
+      </c>
+      <c r="G8" s="53">
+        <v>5657.5769979999995</v>
+      </c>
+      <c r="H8" s="53">
+        <v>5226.6517320000003</v>
+      </c>
+      <c r="I8" s="54">
+        <v>5545.6078399999997</v>
+      </c>
+      <c r="J8" s="55">
+        <v>5403.8761489999997</v>
+      </c>
+      <c r="K8" s="55">
+        <v>5598.8796129999992</v>
+      </c>
+      <c r="L8" s="55">
+        <v>6069.4313860000002</v>
+      </c>
+      <c r="M8" s="55">
+        <v>6013.7032350000009</v>
+      </c>
+      <c r="N8" s="55">
+        <v>6150.713948999999</v>
+      </c>
+      <c r="O8" s="55">
+        <v>5669.1797379999998</v>
+      </c>
+      <c r="P8" s="55">
+        <v>6402.6582399999998</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>5984.8282249999993</v>
+      </c>
+      <c r="R8" s="53">
+        <v>6287.1760519999998</v>
+      </c>
+      <c r="S8" s="53">
+        <v>7446.6467359999997</v>
+      </c>
+      <c r="T8" s="53">
+        <v>7472.8277740000003</v>
+      </c>
+      <c r="U8" s="53">
+        <v>8105.0012489999999</v>
+      </c>
+      <c r="V8" s="53">
+        <v>8864.264059000001</v>
+      </c>
+      <c r="W8" s="53">
+        <v>9864.3798509999997</v>
+      </c>
+      <c r="X8" s="53">
+        <v>11186.072060999999</v>
+      </c>
+      <c r="Y8" s="53">
+        <v>12069.243621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="49">
+        <v>1016.73673</v>
+      </c>
+      <c r="C9" s="49">
+        <v>1113.2568200000001</v>
+      </c>
+      <c r="D9" s="49">
+        <v>1172.7838609999999</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1245.8561259999999</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1226.1777950000001</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1092.173499</v>
+      </c>
+      <c r="H9" s="49">
+        <v>1114.796732</v>
+      </c>
+      <c r="I9" s="50">
+        <v>1423.8312699999999</v>
+      </c>
+      <c r="J9" s="51">
+        <v>1325.3334460000001</v>
+      </c>
+      <c r="K9" s="51">
+        <v>1230.0797379999999</v>
+      </c>
+      <c r="L9" s="51">
+        <v>1446.537108</v>
+      </c>
+      <c r="M9" s="51">
+        <v>1609.395573</v>
+      </c>
+      <c r="N9" s="51">
+        <v>1730.3017910000001</v>
+      </c>
+      <c r="O9" s="51">
+        <v>1848.460221</v>
+      </c>
+      <c r="P9" s="51">
+        <v>1898.122038</v>
+      </c>
+      <c r="Q9" s="51">
+        <v>1840.2281310000001</v>
+      </c>
+      <c r="R9" s="49">
+        <v>1747.320946</v>
+      </c>
+      <c r="S9" s="49">
+        <v>1896.38302</v>
+      </c>
+      <c r="T9" s="49">
+        <v>1911.03736</v>
+      </c>
+      <c r="U9" s="49">
+        <v>1957.2446399999999</v>
+      </c>
+      <c r="V9" s="49">
+        <v>2142.4587059999999</v>
+      </c>
+      <c r="W9" s="49">
+        <v>2253.990953</v>
+      </c>
+      <c r="X9" s="49">
+        <v>2551.9392859999998</v>
+      </c>
+      <c r="Y9" s="49">
+        <v>2719.0488879999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="53">
+        <v>176.89891700000001</v>
+      </c>
+      <c r="C10" s="53">
+        <v>153.858116</v>
+      </c>
+      <c r="D10" s="53">
+        <v>140.14187899999999</v>
+      </c>
+      <c r="E10" s="53">
+        <v>474.66292900000002</v>
+      </c>
+      <c r="F10" s="53">
+        <v>564.89695200000006</v>
+      </c>
+      <c r="G10" s="53">
+        <v>585.61596999999995</v>
+      </c>
+      <c r="H10" s="53">
+        <v>581.19999600000006</v>
+      </c>
+      <c r="I10" s="54">
+        <v>242.56599700000001</v>
+      </c>
+      <c r="J10" s="55">
+        <v>245.50652199999999</v>
+      </c>
+      <c r="K10" s="55">
+        <v>195.79318699999999</v>
+      </c>
+      <c r="L10" s="55">
+        <v>215.61647300000001</v>
+      </c>
+      <c r="M10" s="55">
+        <v>199.65825699999999</v>
+      </c>
+      <c r="N10" s="55">
+        <v>207.11415400000001</v>
+      </c>
+      <c r="O10" s="55">
+        <v>228.573487</v>
+      </c>
+      <c r="P10" s="55">
+        <v>246.853712</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>280.386077</v>
+      </c>
+      <c r="R10" s="53">
+        <v>319.279991</v>
+      </c>
+      <c r="S10" s="53">
+        <v>357.46761199999997</v>
+      </c>
+      <c r="T10" s="53">
+        <v>377.23650500000002</v>
+      </c>
+      <c r="U10" s="53">
+        <v>380.95510999999999</v>
+      </c>
+      <c r="V10" s="53">
+        <v>420.38574599999998</v>
+      </c>
+      <c r="W10" s="53">
+        <v>449.19643100000002</v>
+      </c>
+      <c r="X10" s="53">
+        <v>495.09547800000001</v>
+      </c>
+      <c r="Y10" s="53">
+        <v>557.09805700000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="49">
+        <v>195.790885</v>
+      </c>
+      <c r="C11" s="49">
+        <v>224.36921100000001</v>
+      </c>
+      <c r="D11" s="49">
+        <v>234.72714300000001</v>
+      </c>
+      <c r="E11" s="49">
+        <v>229.726314</v>
+      </c>
+      <c r="F11" s="49">
+        <v>241.43656999999999</v>
+      </c>
+      <c r="G11" s="49">
+        <v>313.33488599999998</v>
+      </c>
+      <c r="H11" s="49">
+        <v>397.56017000000003</v>
+      </c>
+      <c r="I11" s="50">
+        <v>382.51189299999999</v>
+      </c>
+      <c r="J11" s="51">
+        <v>461.78232100000002</v>
+      </c>
+      <c r="K11" s="51">
+        <v>477.09094900000002</v>
+      </c>
+      <c r="L11" s="51">
+        <v>451.64035999999999</v>
+      </c>
+      <c r="M11" s="51">
+        <v>412.034424</v>
+      </c>
+      <c r="N11" s="51">
+        <v>390.71606200000002</v>
+      </c>
+      <c r="O11" s="51">
+        <v>397.78660200000002</v>
+      </c>
+      <c r="P11" s="51">
+        <v>431.48874999999998</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>511.94456000000002</v>
+      </c>
+      <c r="R11" s="49">
+        <v>565.30637899999999</v>
+      </c>
+      <c r="S11" s="49">
+        <v>570.01839099999995</v>
+      </c>
+      <c r="T11" s="49">
+        <v>552.58881699999995</v>
+      </c>
+      <c r="U11" s="49">
+        <v>466.27297099999998</v>
+      </c>
+      <c r="V11" s="49">
+        <v>474.879974</v>
+      </c>
+      <c r="W11" s="49">
+        <v>485.75881900000002</v>
+      </c>
+      <c r="X11" s="49">
+        <v>608.02768900000001</v>
+      </c>
+      <c r="Y11" s="49">
+        <v>614.87138100000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="53">
+        <v>1521.8594969999999</v>
+      </c>
+      <c r="C12" s="53">
+        <v>1600.252772</v>
+      </c>
+      <c r="D12" s="53">
+        <v>1491.5824909999999</v>
+      </c>
+      <c r="E12" s="53">
+        <v>1468.5692489999999</v>
+      </c>
+      <c r="F12" s="53">
+        <v>1110.1148009999999</v>
+      </c>
+      <c r="G12" s="53">
+        <v>1106.9162590000001</v>
+      </c>
+      <c r="H12" s="53">
+        <v>1171.4860779999999</v>
+      </c>
+      <c r="I12" s="54">
+        <v>1293.409537</v>
+      </c>
+      <c r="J12" s="55">
+        <v>1367.61502</v>
+      </c>
+      <c r="K12" s="55">
+        <v>1490.08006</v>
+      </c>
+      <c r="L12" s="55">
+        <v>1771.2210749999999</v>
+      </c>
+      <c r="M12" s="55">
+        <v>2117.0688559999999</v>
+      </c>
+      <c r="N12" s="55">
+        <v>2352.724561</v>
+      </c>
+      <c r="O12" s="55">
+        <v>2428.6192769999998</v>
+      </c>
+      <c r="P12" s="55">
+        <v>2454.4595410000002</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>2593.2462690000002</v>
+      </c>
+      <c r="R12" s="53">
+        <v>2802.9883369999998</v>
+      </c>
+      <c r="S12" s="53">
+        <v>3235.7426679999999</v>
+      </c>
+      <c r="T12" s="53">
+        <v>3634.8479619999998</v>
+      </c>
+      <c r="U12" s="53">
+        <v>4021.7197460000002</v>
+      </c>
+      <c r="V12" s="53">
+        <v>4285.0244979999998</v>
+      </c>
+      <c r="W12" s="53">
+        <v>4753.0912830000007</v>
+      </c>
+      <c r="X12" s="53">
+        <v>4791.9661120000001</v>
+      </c>
+      <c r="Y12" s="53">
+        <v>4933.9823139999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="49">
+        <v>1211.3843770000001</v>
+      </c>
+      <c r="C13" s="49">
+        <v>1423.189247</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1633.6141990000001</v>
+      </c>
+      <c r="E13" s="49">
+        <v>1912.106225</v>
+      </c>
+      <c r="F13" s="49">
+        <v>2311.0051199999998</v>
+      </c>
+      <c r="G13" s="49">
+        <v>2363.7076809999999</v>
+      </c>
+      <c r="H13" s="49">
+        <v>2237.7930419999998</v>
+      </c>
+      <c r="I13" s="50">
+        <v>2435.280448</v>
+      </c>
+      <c r="J13" s="51">
+        <v>2514.535265</v>
+      </c>
+      <c r="K13" s="51">
+        <v>2554.5029</v>
+      </c>
+      <c r="L13" s="51">
+        <v>2675.815548</v>
+      </c>
+      <c r="M13" s="51">
+        <v>2959.8331360000002</v>
+      </c>
+      <c r="N13" s="51">
+        <v>3005.3877040000002</v>
+      </c>
+      <c r="O13" s="51">
+        <v>2894.797986</v>
+      </c>
+      <c r="P13" s="51">
+        <v>3152.4036689999998</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>2889.9189459999998</v>
+      </c>
+      <c r="R13" s="49">
+        <v>2868.3197749999999</v>
+      </c>
+      <c r="S13" s="49">
+        <v>2950.6643880000001</v>
+      </c>
+      <c r="T13" s="49">
+        <v>3119.5282820000002</v>
+      </c>
+      <c r="U13" s="49">
+        <v>2661.313877</v>
+      </c>
+      <c r="V13" s="49">
+        <v>2941.445561</v>
+      </c>
+      <c r="W13" s="49">
+        <v>2917.3873600000002</v>
+      </c>
+      <c r="X13" s="49">
+        <v>3403.7357550000002</v>
+      </c>
+      <c r="Y13" s="49">
+        <v>3817.7946889999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="53">
+        <v>6.45967</v>
+      </c>
+      <c r="C14" s="53">
+        <v>29.954806999999999</v>
+      </c>
+      <c r="D14" s="53">
+        <v>32.264023000000002</v>
+      </c>
+      <c r="E14" s="53">
+        <v>17.17709</v>
+      </c>
+      <c r="F14" s="53">
+        <v>19.834430999999999</v>
+      </c>
+      <c r="G14" s="53">
+        <v>23.493938</v>
+      </c>
+      <c r="H14" s="53">
+        <v>18.949171</v>
+      </c>
+      <c r="I14" s="54">
+        <v>16.311499000000001</v>
+      </c>
+      <c r="J14" s="55">
+        <v>19.876991</v>
+      </c>
+      <c r="K14" s="55">
+        <v>21.148817000000001</v>
+      </c>
+      <c r="L14" s="55">
+        <v>19.178619000000001</v>
+      </c>
+      <c r="M14" s="55">
+        <v>23.525400999999999</v>
+      </c>
+      <c r="N14" s="55">
+        <v>19.714769</v>
+      </c>
+      <c r="O14" s="55">
+        <v>24.131412999999998</v>
+      </c>
+      <c r="P14" s="55">
+        <v>27.894767000000002</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>30.551497999999999</v>
+      </c>
+      <c r="R14" s="53">
+        <v>35.629902999999999</v>
+      </c>
+      <c r="S14" s="53">
+        <v>51.684524000000003</v>
+      </c>
+      <c r="T14" s="53">
+        <v>54.838940000000001</v>
+      </c>
+      <c r="U14" s="53">
+        <v>70.840280000000007</v>
+      </c>
+      <c r="V14" s="53">
+        <v>70.789113999999998</v>
+      </c>
+      <c r="W14" s="53">
+        <v>65.852356</v>
+      </c>
+      <c r="X14" s="53">
+        <v>58.664696999999997</v>
+      </c>
+      <c r="Y14" s="53">
+        <v>82.258585999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="49">
+        <v>124.472756</v>
+      </c>
+      <c r="C15" s="49">
+        <v>141.783152</v>
+      </c>
+      <c r="D15" s="49">
+        <v>134.53321399999999</v>
+      </c>
+      <c r="E15" s="49">
+        <v>154.05838800000001</v>
+      </c>
+      <c r="F15" s="49">
+        <v>193.13363899999999</v>
+      </c>
+      <c r="G15" s="49">
+        <v>156.66572400000001</v>
+      </c>
+      <c r="H15" s="49">
+        <v>312.79471699999999</v>
+      </c>
+      <c r="I15" s="50">
+        <v>212.07455200000001</v>
+      </c>
+      <c r="J15" s="51">
+        <v>214.62754200000001</v>
+      </c>
+      <c r="K15" s="51">
+        <v>181.071775</v>
+      </c>
+      <c r="L15" s="51">
+        <v>169.49777</v>
+      </c>
+      <c r="M15" s="51">
+        <v>315.67356799999999</v>
+      </c>
+      <c r="N15" s="51">
+        <v>216.85839300000001</v>
+      </c>
+      <c r="O15" s="51">
+        <v>219.42526599999999</v>
+      </c>
+      <c r="P15" s="51">
+        <v>135.11809299999999</v>
+      </c>
+      <c r="Q15" s="51">
+        <v>218.65114299999999</v>
+      </c>
+      <c r="R15" s="49">
+        <v>163.88539499999999</v>
+      </c>
+      <c r="S15" s="49">
+        <v>242.72905499999999</v>
+      </c>
+      <c r="T15" s="49">
+        <v>240.47305499999999</v>
+      </c>
+      <c r="U15" s="49">
+        <v>303.416315</v>
+      </c>
+      <c r="V15" s="49">
+        <v>270.58614299999999</v>
+      </c>
+      <c r="W15" s="49">
+        <v>335.15758899999997</v>
+      </c>
+      <c r="X15" s="49">
+        <v>339.21287999999998</v>
+      </c>
+      <c r="Y15" s="49">
+        <v>422.76399400000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="53">
+        <v>4819.9535689999993</v>
+      </c>
+      <c r="C16" s="53">
+        <v>5143.6857600000003</v>
+      </c>
+      <c r="D16" s="53">
+        <v>5642.8587209999996</v>
+      </c>
+      <c r="E16" s="53">
+        <v>6305.8568340000002</v>
+      </c>
+      <c r="F16" s="53">
+        <v>6774.3252739999998</v>
+      </c>
+      <c r="G16" s="53">
+        <v>7643.8283569999994</v>
+      </c>
+      <c r="H16" s="53">
+        <v>7867.5334849999999</v>
+      </c>
+      <c r="I16" s="54">
+        <v>9349.3598559999991</v>
+      </c>
+      <c r="J16" s="55">
+        <v>8853.6782640000001</v>
+      </c>
+      <c r="K16" s="55">
+        <v>9006.2775950000014</v>
+      </c>
+      <c r="L16" s="55">
+        <v>10769.570129</v>
+      </c>
+      <c r="M16" s="55">
+        <v>9332.2261159999998</v>
+      </c>
+      <c r="N16" s="55">
+        <v>9936.5900339999989</v>
+      </c>
+      <c r="O16" s="55">
+        <v>9885.1810099999984</v>
+      </c>
+      <c r="P16" s="55">
+        <v>10303.078414000001</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>11503.079081999998</v>
+      </c>
+      <c r="R16" s="53">
+        <v>11735.746643</v>
+      </c>
+      <c r="S16" s="53">
+        <v>17495.226049000001</v>
+      </c>
+      <c r="T16" s="53">
+        <v>18683.099835000001</v>
+      </c>
+      <c r="U16" s="53">
+        <v>16976.436754999999</v>
+      </c>
+      <c r="V16" s="53">
+        <v>14875.869424999999</v>
+      </c>
+      <c r="W16" s="53">
+        <v>15481.432991</v>
+      </c>
+      <c r="X16" s="53">
+        <v>15970.611371999999</v>
+      </c>
+      <c r="Y16" s="53">
+        <v>16818.212539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="49">
+        <v>1504.610046</v>
+      </c>
+      <c r="C17" s="49">
+        <v>1636.4712569999999</v>
+      </c>
+      <c r="D17" s="49">
+        <v>1770.697394</v>
+      </c>
+      <c r="E17" s="49">
+        <v>2030.665974</v>
+      </c>
+      <c r="F17" s="49">
+        <v>2163.7702920000002</v>
+      </c>
+      <c r="G17" s="49">
+        <v>2246.9812310000002</v>
+      </c>
+      <c r="H17" s="49">
+        <v>2283.8550730000002</v>
+      </c>
+      <c r="I17" s="50">
+        <v>2282.7811280000001</v>
+      </c>
+      <c r="J17" s="51">
+        <v>2458.8356739999999</v>
+      </c>
+      <c r="K17" s="51">
+        <v>2800.4199589999998</v>
+      </c>
+      <c r="L17" s="51">
+        <v>3394.2603009999998</v>
+      </c>
+      <c r="M17" s="51">
+        <v>3556.8884830000002</v>
+      </c>
+      <c r="N17" s="51">
+        <v>3892.7831059999999</v>
+      </c>
+      <c r="O17" s="51">
+        <v>4115.504457</v>
+      </c>
+      <c r="P17" s="51">
+        <v>4300.5087700000004</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>4411.0508159999999</v>
+      </c>
+      <c r="R17" s="49">
+        <v>4421.1794190000001</v>
+      </c>
+      <c r="S17" s="49">
+        <v>4477.6671329999999</v>
+      </c>
+      <c r="T17" s="49">
+        <v>4645.4518779999999</v>
+      </c>
+      <c r="U17" s="49">
+        <v>4794.3813440000004</v>
+      </c>
+      <c r="V17" s="49">
+        <v>4839.0147870000001</v>
+      </c>
+      <c r="W17" s="49">
+        <v>4796.3022209999999</v>
+      </c>
+      <c r="X17" s="49">
+        <v>4859.13249</v>
+      </c>
+      <c r="Y17" s="49">
+        <v>4715.4060659999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="53">
+        <v>716.65538200000003</v>
+      </c>
+      <c r="C18" s="53">
+        <v>818.21109899999999</v>
+      </c>
+      <c r="D18" s="53">
+        <v>838.40557899999999</v>
+      </c>
+      <c r="E18" s="53">
+        <v>894.04171399999996</v>
+      </c>
+      <c r="F18" s="53">
+        <v>855.69454699999994</v>
+      </c>
+      <c r="G18" s="53">
+        <v>880.76673300000004</v>
+      </c>
+      <c r="H18" s="53">
+        <v>964.67942300000004</v>
+      </c>
+      <c r="I18" s="54">
+        <v>1014.102584</v>
+      </c>
+      <c r="J18" s="55">
+        <v>966.89520100000004</v>
+      </c>
+      <c r="K18" s="55">
+        <v>1063.3032740000001</v>
+      </c>
+      <c r="L18" s="55">
+        <v>1029.2602710000001</v>
+      </c>
+      <c r="M18" s="55">
+        <v>1185.7122300000001</v>
+      </c>
+      <c r="N18" s="55">
+        <v>1204.1676520000001</v>
+      </c>
+      <c r="O18" s="55">
+        <v>1366.1471529999999</v>
+      </c>
+      <c r="P18" s="55">
+        <v>1554.781528</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>1481.1972390000001</v>
+      </c>
+      <c r="R18" s="53">
+        <v>1569.6933059999999</v>
+      </c>
+      <c r="S18" s="53">
+        <v>1738.269405</v>
+      </c>
+      <c r="T18" s="53">
+        <v>1846.760284</v>
+      </c>
+      <c r="U18" s="53">
+        <v>1998.965921</v>
+      </c>
+      <c r="V18" s="53">
+        <v>2091.9380350000001</v>
+      </c>
+      <c r="W18" s="53">
+        <v>2233.1837529999998</v>
+      </c>
+      <c r="X18" s="53">
+        <v>2353.2852360000002</v>
+      </c>
+      <c r="Y18" s="53">
+        <v>2550.2496489999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="40" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="49">
+        <v>26.557051999999999</v>
+      </c>
+      <c r="C19" s="49">
+        <v>42.952067999999997</v>
+      </c>
+      <c r="D19" s="49">
+        <v>42.137507999999997</v>
+      </c>
+      <c r="E19" s="49">
+        <v>42.357120000000002</v>
+      </c>
+      <c r="F19" s="49">
+        <v>47.004904000000003</v>
+      </c>
+      <c r="G19" s="49">
+        <v>48.677945999999999</v>
+      </c>
+      <c r="H19" s="49">
+        <v>49.748054000000003</v>
+      </c>
+      <c r="I19" s="50">
+        <v>50.203249</v>
+      </c>
+      <c r="J19" s="51">
+        <v>87.546211999999997</v>
+      </c>
+      <c r="K19" s="51">
+        <v>139.17858000000001</v>
+      </c>
+      <c r="L19" s="51">
+        <v>156.863497</v>
+      </c>
+      <c r="M19" s="51">
+        <v>153.17819900000001</v>
+      </c>
+      <c r="N19" s="51">
+        <v>89.122446999999994</v>
+      </c>
+      <c r="O19" s="51">
+        <v>83.412541000000004</v>
+      </c>
+      <c r="P19" s="51">
+        <v>79.060235000000006</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>106.208242</v>
+      </c>
+      <c r="R19" s="49">
+        <v>126.835776</v>
+      </c>
+      <c r="S19" s="49">
+        <v>152.466466</v>
+      </c>
+      <c r="T19" s="49">
+        <v>155.193645</v>
+      </c>
+      <c r="U19" s="49">
+        <v>154.578732</v>
+      </c>
+      <c r="V19" s="49">
+        <v>154.00774100000001</v>
+      </c>
+      <c r="W19" s="49">
+        <v>193.74377899999999</v>
+      </c>
+      <c r="X19" s="49">
+        <v>232.34284</v>
+      </c>
+      <c r="Y19" s="49">
+        <v>267.578441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="53">
+        <v>154.69646499999999</v>
+      </c>
+      <c r="C20" s="53">
+        <v>183.70074600000001</v>
+      </c>
+      <c r="D20" s="53">
+        <v>178.92272500000001</v>
+      </c>
+      <c r="E20" s="53">
+        <v>178.815946</v>
+      </c>
+      <c r="F20" s="53">
+        <v>173.65217100000001</v>
+      </c>
+      <c r="G20" s="53">
+        <v>200.359486</v>
+      </c>
+      <c r="H20" s="53">
+        <v>220.330814</v>
+      </c>
+      <c r="I20" s="54">
+        <v>235.141682</v>
+      </c>
+      <c r="J20" s="55">
+        <v>272.98862100000002</v>
+      </c>
+      <c r="K20" s="55">
+        <v>305.31859100000003</v>
+      </c>
+      <c r="L20" s="55">
+        <v>335.27581600000002</v>
+      </c>
+      <c r="M20" s="55">
+        <v>357.64218499999998</v>
+      </c>
+      <c r="N20" s="55">
+        <v>451.419555</v>
+      </c>
+      <c r="O20" s="55">
+        <v>504.980345</v>
+      </c>
+      <c r="P20" s="55">
+        <v>528.05403000000001</v>
+      </c>
+      <c r="Q20" s="55">
+        <v>461.65977099999998</v>
+      </c>
+      <c r="R20" s="53">
+        <v>462.58383600000002</v>
+      </c>
+      <c r="S20" s="53">
+        <v>510.31514499999997</v>
+      </c>
+      <c r="T20" s="53">
+        <v>525.06967499999996</v>
+      </c>
+      <c r="U20" s="53">
+        <v>530.01994500000001</v>
+      </c>
+      <c r="V20" s="53">
+        <v>576.51475600000003</v>
+      </c>
+      <c r="W20" s="53">
+        <v>589.40652299999999</v>
+      </c>
+      <c r="X20" s="53">
+        <v>625.48046099999999</v>
+      </c>
+      <c r="Y20" s="53">
+        <v>588.92233599999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="85">
+        <v>25867</v>
+      </c>
+      <c r="S21" s="85">
+        <v>27234</v>
+      </c>
+      <c r="T21" s="85">
+        <v>27090</v>
+      </c>
+      <c r="U21" s="85">
+        <v>26270</v>
+      </c>
+      <c r="V21" s="85">
+        <v>24312</v>
+      </c>
+      <c r="W21" s="85">
+        <v>25236</v>
+      </c>
+      <c r="X21" s="85">
+        <v>24934</v>
+      </c>
+      <c r="Y21" s="85">
+        <v>25178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="86">
+        <v>6129127</v>
+      </c>
+      <c r="S22" s="86">
+        <v>6286780</v>
+      </c>
+      <c r="T22" s="86">
+        <v>6715949</v>
+      </c>
+      <c r="U22" s="86">
+        <v>7146861</v>
+      </c>
+      <c r="V22" s="86">
+        <v>7773773</v>
+      </c>
+      <c r="W22" s="86">
+        <v>8819397</v>
+      </c>
+      <c r="X22" s="85">
+        <v>8955598</v>
+      </c>
+      <c r="Y22" s="85">
+        <v>8912124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="67">
+        <v>30.4721351597717</v>
+      </c>
+      <c r="C23" s="67">
+        <v>28.513390173860799</v>
+      </c>
+      <c r="D23" s="67">
+        <v>23.4280136442623</v>
+      </c>
+      <c r="E23" s="67">
+        <v>20.734686625505301</v>
+      </c>
+      <c r="F23" s="67">
+        <v>17.803396306045201</v>
+      </c>
+      <c r="G23" s="67">
+        <v>10.448336580639101</v>
+      </c>
+      <c r="H23" s="67">
+        <v>2.8588166373755102</v>
+      </c>
+      <c r="I23" s="67">
+        <v>2.5914340491501</v>
+      </c>
+      <c r="J23" s="67">
+        <v>2.7029568398827202</v>
+      </c>
+      <c r="K23" s="67">
+        <v>6.1649446817310496</v>
+      </c>
+      <c r="L23" s="67">
+        <v>6.5992420402883596</v>
+      </c>
+      <c r="M23" s="67">
+        <v>6.1452191838088002</v>
+      </c>
+      <c r="N23" s="67">
+        <v>2.68730209655596</v>
+      </c>
+      <c r="O23" s="67">
+        <v>1.1307367764166401</v>
+      </c>
+      <c r="P23" s="67">
+        <v>0.48519481919754198</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>0.73782926492897505</v>
+      </c>
+      <c r="R23" s="67">
+        <v>1.32187113359104</v>
+      </c>
+      <c r="S23" s="67">
+        <v>1.45461737629459</v>
+      </c>
+      <c r="T23" s="67">
+        <v>0.98405675490121303</v>
+      </c>
+      <c r="U23" s="67">
+        <v>0.997380499791367</v>
+      </c>
+      <c r="V23" s="67">
+        <v>0.57043204320432095</v>
+      </c>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+    </row>
+    <row r="24" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="67">
+        <v>42.3298327984716</v>
+      </c>
+      <c r="C24" s="67">
+        <v>42.647091560740002</v>
+      </c>
+      <c r="D24" s="67">
+        <v>47.935125394203297</v>
+      </c>
+      <c r="E24" s="67">
+        <v>54.677297561408999</v>
+      </c>
+      <c r="F24" s="67">
+        <v>59.111051877519699</v>
+      </c>
+      <c r="G24" s="67">
+        <v>64.222678350021397</v>
+      </c>
+      <c r="H24" s="67">
+        <v>71.106229252099197</v>
+      </c>
+      <c r="I24" s="67">
+        <v>72.644546980635297</v>
+      </c>
+      <c r="J24" s="67">
+        <v>73.514955164425601</v>
+      </c>
+      <c r="K24" s="67">
+        <v>71.622642709998701</v>
+      </c>
+      <c r="L24" s="67">
+        <v>72.332201184595704</v>
+      </c>
+      <c r="M24" s="67">
+        <v>68.695852733851297</v>
+      </c>
+      <c r="N24" s="67">
+        <v>68.939446777050904</v>
+      </c>
+      <c r="O24" s="67">
+        <v>70.720225740371404</v>
+      </c>
+      <c r="P24" s="67">
+        <v>72.3782632721</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>74.816639711137</v>
+      </c>
+      <c r="R24" s="67">
+        <v>68.315479739215704</v>
+      </c>
+      <c r="S24" s="67">
+        <v>70.158467587265093</v>
+      </c>
+      <c r="T24" s="67">
+        <v>68.658643210477805</v>
+      </c>
+      <c r="U24" s="67">
+        <v>68.709722286615005</v>
+      </c>
+      <c r="V24" s="67">
+        <v>71.4367686768677</v>
+      </c>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+    </row>
+    <row r="25" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="67">
+        <v>26413004</v>
+      </c>
+      <c r="C25" s="67">
+        <v>27143793</v>
+      </c>
+      <c r="D25" s="67">
+        <v>27617214</v>
+      </c>
+      <c r="E25" s="67">
+        <v>27814014</v>
+      </c>
+      <c r="F25" s="67">
+        <v>28660817</v>
+      </c>
+      <c r="G25" s="67">
+        <v>30529251</v>
+      </c>
+      <c r="H25" s="67">
+        <v>33822931</v>
+      </c>
+      <c r="I25" s="67">
+        <v>32806558</v>
+      </c>
+      <c r="J25" s="67">
+        <v>34288531</v>
+      </c>
+      <c r="K25" s="67">
+        <v>33403954</v>
+      </c>
+      <c r="L25" s="67">
+        <v>34962737</v>
+      </c>
+      <c r="M25" s="67">
+        <v>34125561</v>
+      </c>
+      <c r="N25" s="67">
+        <v>36666662</v>
+      </c>
+      <c r="O25" s="67">
+        <v>36569651</v>
+      </c>
+      <c r="P25" s="67">
+        <v>37326770</v>
+      </c>
+      <c r="Q25" s="67">
+        <v>40889315</v>
+      </c>
+      <c r="R25" s="67">
+        <v>43393530</v>
+      </c>
+      <c r="S25" s="67">
+        <v>43376227</v>
+      </c>
+      <c r="T25" s="67">
+        <v>41971848</v>
+      </c>
+      <c r="U25" s="67">
+        <v>37762326</v>
+      </c>
+      <c r="V25" s="67">
+        <v>32797879</v>
+      </c>
+      <c r="W25" s="67">
+        <v>30483516</v>
+      </c>
+      <c r="X25" s="67">
+        <v>38015496</v>
+      </c>
+      <c r="Y25" s="67">
+        <v>37564640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="74">
+        <v>15870</v>
+      </c>
+      <c r="N26" s="74">
+        <v>14462</v>
+      </c>
+      <c r="O26" s="74">
+        <v>15386</v>
+      </c>
+      <c r="P26" s="74">
+        <v>16764</v>
+      </c>
+      <c r="Q26" s="74">
+        <v>14433</v>
+      </c>
+      <c r="R26" s="73">
+        <v>14875.4</v>
+      </c>
+      <c r="S26" s="73">
+        <v>17356.96</v>
+      </c>
+      <c r="T26" s="73">
+        <v>15944.8</v>
+      </c>
+      <c r="U26" s="73">
+        <v>14910.71</v>
+      </c>
+      <c r="V26" s="73">
+        <v>17968.900000000001</v>
+      </c>
+      <c r="W26" s="73">
+        <v>15875.5</v>
+      </c>
+      <c r="X26" s="73">
+        <v>16012.15</v>
+      </c>
+      <c r="Y26" s="79">
+        <v>17016.830000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="76">
+        <v>2541350</v>
+      </c>
+      <c r="R27" s="76">
+        <v>2541569</v>
+      </c>
+      <c r="S27" s="76">
+        <v>2196101</v>
+      </c>
+      <c r="T27" s="76">
+        <v>2189464</v>
+      </c>
+      <c r="U27" s="76">
+        <v>2211616</v>
+      </c>
+      <c r="V27" s="76">
+        <v>2191974</v>
+      </c>
+      <c r="W27" s="76">
+        <v>2191454</v>
+      </c>
+      <c r="X27" s="77">
+        <v>2191311</v>
+      </c>
+      <c r="Y27" s="76">
+        <v>2191867</v>
+      </c>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+    </row>
+    <row r="28" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="80">
+        <v>2574.2800000000002</v>
+      </c>
+      <c r="R28" s="80">
+        <v>1269.26</v>
+      </c>
+      <c r="S28" s="80">
+        <v>3738.06</v>
+      </c>
+      <c r="T28" s="80">
+        <v>3880.85</v>
+      </c>
+      <c r="U28" s="80">
+        <v>4053.01</v>
+      </c>
+      <c r="V28" s="80">
+        <v>4452.7299999999996</v>
+      </c>
+      <c r="W28" s="80">
+        <v>4774.74</v>
+      </c>
+      <c r="X28" s="80">
+        <v>5264.61</v>
+      </c>
+      <c r="Y28" s="80">
+        <v>5532.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" s="82">
+        <v>57.14</v>
+      </c>
+      <c r="R29" s="82">
+        <v>13.08</v>
+      </c>
+      <c r="S29" s="82">
+        <v>22.92</v>
+      </c>
+      <c r="T29" s="82">
+        <v>28.14</v>
+      </c>
+      <c r="U29" s="82">
+        <v>27.73</v>
+      </c>
+      <c r="V29" s="82">
+        <v>32.15</v>
+      </c>
+      <c r="W29" s="82">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="X29" s="82">
+        <v>39.86</v>
+      </c>
+      <c r="Y29" s="82">
+        <v>41.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83">
+        <v>26</v>
+      </c>
+      <c r="S30" s="83">
+        <v>40</v>
+      </c>
+      <c r="T30" s="83">
+        <v>32</v>
+      </c>
+      <c r="U30" s="83">
+        <v>37</v>
+      </c>
+      <c r="V30" s="83">
+        <v>59</v>
+      </c>
+      <c r="W30" s="83">
+        <v>31</v>
+      </c>
+      <c r="X30" s="83">
+        <v>19</v>
+      </c>
+      <c r="Y30" s="83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="69">
+        <v>143862.554</v>
+      </c>
+      <c r="C31" s="69">
+        <v>171503.91700000002</v>
+      </c>
+      <c r="D31" s="69">
+        <v>179223.451</v>
+      </c>
+      <c r="E31" s="69">
+        <v>180611.80600000001</v>
+      </c>
+      <c r="F31" s="69">
+        <v>189856.70600000001</v>
+      </c>
+      <c r="G31" s="69">
+        <v>219141.84700000001</v>
+      </c>
+      <c r="H31" s="69">
+        <v>219060.592</v>
+      </c>
+      <c r="I31" s="70">
+        <v>231122.49200000003</v>
+      </c>
+      <c r="J31" s="71">
+        <v>256743.10100000002</v>
+      </c>
+      <c r="K31" s="71">
+        <v>271765.11700000003</v>
+      </c>
+      <c r="L31" s="71">
+        <v>273739.91000000003</v>
+      </c>
+      <c r="M31" s="71">
+        <v>298954.25300000003</v>
+      </c>
+      <c r="N31" s="71">
+        <v>339993.39600000001</v>
+      </c>
+      <c r="O31" s="71">
+        <v>438555.44500000001</v>
+      </c>
+      <c r="P31" s="71">
+        <v>379657.777</v>
+      </c>
+      <c r="Q31" s="71">
+        <v>427733.43600000005</v>
+      </c>
+      <c r="R31" s="69">
+        <v>365800.94500000001</v>
+      </c>
+      <c r="S31" s="69">
+        <v>378620.53700000001</v>
+      </c>
+      <c r="T31" s="69">
+        <v>461789.49600000004</v>
+      </c>
+      <c r="U31" s="69">
+        <v>417614.34099999996</v>
+      </c>
+      <c r="V31" s="69">
+        <v>468325.83400000003</v>
+      </c>
+      <c r="W31" s="69">
+        <v>444803.565</v>
+      </c>
+      <c r="X31" s="69">
+        <v>449602.96699999995</v>
+      </c>
+      <c r="Y31" s="69">
+        <v>454952.54100000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Z27:AA27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B32E04E-C22B-ED4B-85C4-796A1BDA05F3}">
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="17" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="45">
+        <v>2016</v>
+      </c>
+      <c r="X1" s="45">
+        <v>2017</v>
+      </c>
+      <c r="Y1" s="45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="49">
+        <v>1517.1673639999999</v>
+      </c>
+      <c r="C2" s="49">
+        <v>2151.7327289999998</v>
+      </c>
+      <c r="D2" s="49">
+        <v>2438.9091920000001</v>
+      </c>
+      <c r="E2" s="49">
+        <v>2872.2276790000001</v>
+      </c>
+      <c r="F2" s="49">
+        <v>1738.973389</v>
+      </c>
+      <c r="G2" s="49">
+        <v>2041.548117</v>
+      </c>
+      <c r="H2" s="49">
+        <v>1900.398244</v>
+      </c>
+      <c r="I2" s="50">
+        <v>1951.4735659999999</v>
+      </c>
+      <c r="J2" s="51">
+        <v>2330.5766400000002</v>
+      </c>
+      <c r="K2" s="51">
+        <v>2726.8671509999999</v>
+      </c>
+      <c r="L2" s="51">
+        <v>2950.9067839999998</v>
+      </c>
+      <c r="M2" s="51">
+        <v>3119.9154859999999</v>
+      </c>
+      <c r="N2" s="51">
+        <v>3684.521788</v>
+      </c>
+      <c r="O2" s="51">
+        <v>5248.6923790000001</v>
+      </c>
+      <c r="P2" s="51">
+        <v>4423.0372029999999</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>3240.6692849999999</v>
+      </c>
+      <c r="R2" s="49">
+        <v>3576.782068</v>
+      </c>
+      <c r="S2" s="49">
+        <v>6015.3732430000009</v>
+      </c>
+      <c r="T2" s="49">
+        <v>5646.1184910000002</v>
+      </c>
+      <c r="U2" s="49">
+        <v>4101.6656670000002</v>
+      </c>
+      <c r="V2" s="49">
+        <v>2643.7459709999998</v>
+      </c>
+      <c r="W2" s="49">
+        <v>2456.2343449999998</v>
+      </c>
+      <c r="X2" s="49">
+        <v>3401.5183919999999</v>
+      </c>
+      <c r="Y2" s="49">
+        <v>4314.3237319999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="53">
+        <v>42.410974000000003</v>
+      </c>
+      <c r="C3" s="53">
+        <v>39.837997000000001</v>
+      </c>
+      <c r="D3" s="53">
+        <v>28.967616</v>
+      </c>
+      <c r="E3" s="53">
+        <v>23.722861999999999</v>
+      </c>
+      <c r="F3" s="53">
+        <v>18.169377000000001</v>
+      </c>
+      <c r="G3" s="53">
+        <v>15.352669000000001</v>
+      </c>
+      <c r="H3" s="53">
+        <v>16.256768999999998</v>
+      </c>
+      <c r="I3" s="54">
+        <v>14.873887</v>
+      </c>
+      <c r="J3" s="55">
+        <v>14.910602000000001</v>
+      </c>
+      <c r="K3" s="55">
+        <v>15.203193000000001</v>
+      </c>
+      <c r="L3" s="55">
+        <v>12.557382</v>
+      </c>
+      <c r="M3" s="55">
+        <v>60.508246</v>
+      </c>
+      <c r="N3" s="55">
+        <v>59.214776000000001</v>
+      </c>
+      <c r="O3" s="55">
+        <v>57.911354000000003</v>
+      </c>
+      <c r="P3" s="55">
+        <v>54.023598</v>
+      </c>
+      <c r="Q3" s="55">
+        <v>55.520870000000002</v>
+      </c>
+      <c r="R3" s="53">
+        <v>62.032474999999998</v>
+      </c>
+      <c r="S3" s="53">
+        <v>57.633502</v>
+      </c>
+      <c r="T3" s="53">
+        <v>55.812863</v>
+      </c>
+      <c r="U3" s="53">
+        <v>52.207929999999998</v>
+      </c>
+      <c r="V3" s="53">
+        <v>64.552128999999994</v>
+      </c>
+      <c r="W3" s="53">
+        <v>49.939608999999997</v>
+      </c>
+      <c r="X3" s="53">
+        <v>44.789842999999998</v>
+      </c>
+      <c r="Y3" s="53">
+        <v>46.443027000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="49">
+        <v>2247.7353360000002</v>
+      </c>
+      <c r="C4" s="49">
+        <v>2525.5262910000001</v>
+      </c>
+      <c r="D4" s="49">
+        <v>2434.7777580000002</v>
+      </c>
+      <c r="E4" s="49">
+        <v>2635.2337859999998</v>
+      </c>
+      <c r="F4" s="49">
+        <v>2775.66986</v>
+      </c>
+      <c r="G4" s="49">
+        <v>3129.051723</v>
+      </c>
+      <c r="H4" s="49">
+        <v>3458.696101</v>
+      </c>
+      <c r="I4" s="50">
+        <v>3567.4072590000001</v>
+      </c>
+      <c r="J4" s="51">
+        <v>4839.2156080000004</v>
+      </c>
+      <c r="K4" s="51">
+        <v>5165.4480129999993</v>
+      </c>
+      <c r="L4" s="51">
+        <v>5243.3079740000003</v>
+      </c>
+      <c r="M4" s="51">
+        <v>5882.1478870000001</v>
+      </c>
+      <c r="N4" s="51">
+        <v>6332.3594649999995</v>
+      </c>
+      <c r="O4" s="51">
+        <v>7225.1302369999994</v>
+      </c>
+      <c r="P4" s="51">
+        <v>8422.3229389999997</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>9837.9356079999998</v>
+      </c>
+      <c r="R4" s="49">
+        <v>9922.8362519999991</v>
+      </c>
+      <c r="S4" s="49">
+        <v>7715.2128599999996</v>
+      </c>
+      <c r="T4" s="49">
+        <v>7758.9439460000003</v>
+      </c>
+      <c r="U4" s="49">
+        <v>7679.6094870000006</v>
+      </c>
+      <c r="V4" s="49">
+        <v>7502.1853889999993</v>
+      </c>
+      <c r="W4" s="49">
+        <v>7879.7490990000006</v>
+      </c>
+      <c r="X4" s="49">
+        <v>7512.115366</v>
+      </c>
+      <c r="Y4" s="49">
+        <v>7184.4808499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="120" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="53">
+        <v>251.36057299999999</v>
+      </c>
+      <c r="C5" s="53">
+        <v>268.32203299999998</v>
+      </c>
+      <c r="D5" s="53">
+        <v>282.65665999999999</v>
+      </c>
+      <c r="E5" s="53">
+        <v>362.89272099999999</v>
+      </c>
+      <c r="F5" s="53">
+        <v>310.67528499999997</v>
+      </c>
+      <c r="G5" s="53">
+        <v>332.91534999999999</v>
+      </c>
+      <c r="H5" s="53">
+        <v>325.463302</v>
+      </c>
+      <c r="I5" s="54">
+        <v>330.52504599999997</v>
+      </c>
+      <c r="J5" s="55">
+        <v>370.27648900000003</v>
+      </c>
+      <c r="K5" s="55">
+        <v>424.47723500000001</v>
+      </c>
+      <c r="L5" s="55">
+        <v>510.371306</v>
+      </c>
+      <c r="M5" s="55">
+        <v>552.83233499999994</v>
+      </c>
+      <c r="N5" s="55">
+        <v>546.26774699999999</v>
+      </c>
+      <c r="O5" s="55">
+        <v>540.34763099999998</v>
+      </c>
+      <c r="P5" s="55">
+        <v>668.30098099999998</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>705.67134499999997</v>
+      </c>
+      <c r="R5" s="53">
+        <v>678.20064600000001</v>
+      </c>
+      <c r="S5" s="53">
+        <v>763.31936199999996</v>
+      </c>
+      <c r="T5" s="53">
+        <v>831.63612999999998</v>
+      </c>
+      <c r="U5" s="53">
+        <v>831.68772899999999</v>
+      </c>
+      <c r="V5" s="53">
+        <v>773.44355900000005</v>
+      </c>
+      <c r="W5" s="53">
+        <v>759.05327599999998</v>
+      </c>
+      <c r="X5" s="53">
+        <v>763.74001299999998</v>
+      </c>
+      <c r="Y5" s="53">
+        <v>625.10137199999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="180" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="49">
+        <v>20.751177999999999</v>
+      </c>
+      <c r="C6" s="49">
+        <v>21.818722999999999</v>
+      </c>
+      <c r="D6" s="49">
+        <v>23.104803</v>
+      </c>
+      <c r="E6" s="49">
+        <v>23.570354999999999</v>
+      </c>
+      <c r="F6" s="49">
+        <v>26.850345999999998</v>
+      </c>
+      <c r="G6" s="49">
+        <v>42.477141000000003</v>
+      </c>
+      <c r="H6" s="49">
+        <v>38.342888000000002</v>
+      </c>
+      <c r="I6" s="50">
+        <v>26.335972000000002</v>
+      </c>
+      <c r="J6" s="51">
+        <v>30.488796000000001</v>
+      </c>
+      <c r="K6" s="51">
+        <v>33.970981000000002</v>
+      </c>
+      <c r="L6" s="51">
+        <v>53.111646</v>
+      </c>
+      <c r="M6" s="51">
+        <v>53.828200000000002</v>
+      </c>
+      <c r="N6" s="51">
+        <v>36.663021999999998</v>
+      </c>
+      <c r="O6" s="51">
+        <v>39.591146999999999</v>
+      </c>
+      <c r="P6" s="51">
+        <v>46.478808999999998</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>45.349361999999999</v>
+      </c>
+      <c r="R6" s="49">
+        <v>46.650812999999999</v>
+      </c>
+      <c r="S6" s="49">
+        <v>49.240749999999998</v>
+      </c>
+      <c r="T6" s="49">
+        <v>56.596603999999999</v>
+      </c>
+      <c r="U6" s="49">
+        <v>65.900210999999999</v>
+      </c>
+      <c r="V6" s="49">
+        <v>128.11793700000001</v>
+      </c>
+      <c r="W6" s="49">
+        <v>107.980249</v>
+      </c>
+      <c r="X6" s="49">
+        <v>138.114047</v>
+      </c>
+      <c r="Y6" s="49">
+        <v>200.17054400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="40" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="49">
+        <v>540.08848899999998</v>
+      </c>
+      <c r="C7" s="49">
+        <v>412.59641499999998</v>
+      </c>
+      <c r="D7" s="49">
+        <v>399.62583599999999</v>
+      </c>
+      <c r="E7" s="49">
+        <v>241.360017</v>
+      </c>
+      <c r="F7" s="49">
+        <v>240.759815</v>
+      </c>
+      <c r="G7" s="49">
+        <v>301.09201899999999</v>
+      </c>
+      <c r="H7" s="49">
+        <v>234.134117</v>
+      </c>
+      <c r="I7" s="50">
+        <v>375.039221</v>
+      </c>
+      <c r="J7" s="51">
+        <v>309.378895</v>
+      </c>
+      <c r="K7" s="51">
+        <v>400.19775600000003</v>
+      </c>
+      <c r="L7" s="51">
+        <v>424.87431099999998</v>
+      </c>
+      <c r="M7" s="51">
+        <v>550.64190699999995</v>
+      </c>
+      <c r="N7" s="51">
+        <v>690.54012</v>
+      </c>
+      <c r="O7" s="51">
+        <v>585.78157899999997</v>
+      </c>
+      <c r="P7" s="51">
+        <v>648.09115999999995</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>555.43018800000004</v>
+      </c>
+      <c r="R7" s="49">
+        <v>722.41804300000001</v>
+      </c>
+      <c r="S7" s="49">
+        <v>1474.33484</v>
+      </c>
+      <c r="T7" s="49">
+        <v>825.75317900000005</v>
+      </c>
+      <c r="U7" s="49">
+        <v>749.91904299999999</v>
+      </c>
+      <c r="V7" s="49">
+        <v>751.28846799999997</v>
+      </c>
+      <c r="W7" s="49">
+        <v>783.99641599999995</v>
+      </c>
+      <c r="X7" s="49">
+        <v>786.33034499999997</v>
+      </c>
+      <c r="Y7" s="49">
+        <v>816.34720500000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="120" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="53">
+        <v>1553.3504829999999</v>
+      </c>
+      <c r="C8" s="53">
+        <v>1778.5790030000001</v>
+      </c>
+      <c r="D8" s="53">
+        <v>1934.5774710000001</v>
+      </c>
+      <c r="E8" s="53">
+        <v>1787.959114</v>
+      </c>
+      <c r="F8" s="53">
+        <v>1607.2854609999999</v>
+      </c>
+      <c r="G8" s="53">
+        <v>1620.9961249999999</v>
+      </c>
+      <c r="H8" s="53">
+        <v>1515.208091</v>
+      </c>
+      <c r="I8" s="54">
+        <v>1543.583746</v>
+      </c>
+      <c r="J8" s="55">
+        <v>1630.0828509999999</v>
+      </c>
+      <c r="K8" s="55">
+        <v>1763.609616</v>
+      </c>
+      <c r="L8" s="55">
+        <v>1922.678934</v>
+      </c>
+      <c r="M8" s="55">
+        <v>2024.0927489999999</v>
+      </c>
+      <c r="N8" s="55">
+        <v>2290.930492</v>
+      </c>
+      <c r="O8" s="55">
+        <v>2520.3690270000002</v>
+      </c>
+      <c r="P8" s="55">
+        <v>2695.278182</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>2495.0958989999999</v>
+      </c>
+      <c r="R8" s="53">
+        <v>2545.1322660000001</v>
+      </c>
+      <c r="S8" s="53">
+        <v>3189.9114209999998</v>
+      </c>
+      <c r="T8" s="53">
+        <v>2924.518427</v>
+      </c>
+      <c r="U8" s="53">
+        <v>2741.9193009999999</v>
+      </c>
+      <c r="V8" s="53">
+        <v>2689.8009489999999</v>
+      </c>
+      <c r="W8" s="53">
+        <v>2937.1454739999999</v>
+      </c>
+      <c r="X8" s="53">
+        <v>3333.8359850000002</v>
+      </c>
+      <c r="Y8" s="53">
+        <v>3726.8711079999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="49">
+        <v>662.27885200000003</v>
+      </c>
+      <c r="C9" s="49">
+        <v>737.96758</v>
+      </c>
+      <c r="D9" s="49">
+        <v>790.81920200000002</v>
+      </c>
+      <c r="E9" s="49">
+        <v>724.54561100000001</v>
+      </c>
+      <c r="F9" s="49">
+        <v>736.278279</v>
+      </c>
+      <c r="G9" s="49">
+        <v>712.62413300000003</v>
+      </c>
+      <c r="H9" s="49">
+        <v>657.05397200000004</v>
+      </c>
+      <c r="I9" s="50">
+        <v>660.09715600000004</v>
+      </c>
+      <c r="J9" s="51">
+        <v>569.15611100000001</v>
+      </c>
+      <c r="K9" s="51">
+        <v>607.83936200000005</v>
+      </c>
+      <c r="L9" s="51">
+        <v>618.82910400000003</v>
+      </c>
+      <c r="M9" s="51">
+        <v>656.589967</v>
+      </c>
+      <c r="N9" s="51">
+        <v>670.68351500000006</v>
+      </c>
+      <c r="O9" s="51">
+        <v>690.23718499999995</v>
+      </c>
+      <c r="P9" s="51">
+        <v>716.813804</v>
+      </c>
+      <c r="Q9" s="51">
+        <v>632.52622399999996</v>
+      </c>
+      <c r="R9" s="49">
+        <v>615.34095600000001</v>
+      </c>
+      <c r="S9" s="49">
+        <v>576.95891099999994</v>
+      </c>
+      <c r="T9" s="49">
+        <v>581.72520099999997</v>
+      </c>
+      <c r="U9" s="49">
+        <v>600.70335899999998</v>
+      </c>
+      <c r="V9" s="49">
+        <v>619.72768599999995</v>
+      </c>
+      <c r="W9" s="49">
+        <v>678.31694100000004</v>
+      </c>
+      <c r="X9" s="49">
+        <v>754.49839999999995</v>
+      </c>
+      <c r="Y9" s="49">
+        <v>773.16384500000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="100" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="53">
+        <v>43.742963000000003</v>
+      </c>
+      <c r="C10" s="53">
+        <v>37.939543</v>
+      </c>
+      <c r="D10" s="53">
+        <v>44.211323999999998</v>
+      </c>
+      <c r="E10" s="53">
+        <v>45.740985000000002</v>
+      </c>
+      <c r="F10" s="53">
+        <v>63.183245999999997</v>
+      </c>
+      <c r="G10" s="53">
+        <v>74.348899000000003</v>
+      </c>
+      <c r="H10" s="53">
+        <v>82.619238999999993</v>
+      </c>
+      <c r="I10" s="54">
+        <v>71.461164999999994</v>
+      </c>
+      <c r="J10" s="55">
+        <v>92.557047999999995</v>
+      </c>
+      <c r="K10" s="55">
+        <v>118.79088299999999</v>
+      </c>
+      <c r="L10" s="55">
+        <v>109.01724900000001</v>
+      </c>
+      <c r="M10" s="55">
+        <v>95.453866000000005</v>
+      </c>
+      <c r="N10" s="55">
+        <v>96.333707000000004</v>
+      </c>
+      <c r="O10" s="55">
+        <v>103.75981899999999</v>
+      </c>
+      <c r="P10" s="55">
+        <v>109.22230500000001</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>115.228942</v>
+      </c>
+      <c r="R10" s="53">
+        <v>103.50732000000001</v>
+      </c>
+      <c r="S10" s="53">
+        <v>91.249972999999997</v>
+      </c>
+      <c r="T10" s="53">
+        <v>96.097821999999994</v>
+      </c>
+      <c r="U10" s="53">
+        <v>97.966733000000005</v>
+      </c>
+      <c r="V10" s="53">
+        <v>108.005154</v>
+      </c>
+      <c r="W10" s="53">
+        <v>116.11282</v>
+      </c>
+      <c r="X10" s="53">
+        <v>124.95141099999999</v>
+      </c>
+      <c r="Y10" s="53">
+        <v>137.40613300000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="49">
+        <v>80.752568999999994</v>
+      </c>
+      <c r="C11" s="49">
+        <v>90.268174999999999</v>
+      </c>
+      <c r="D11" s="49">
+        <v>89.376423000000003</v>
+      </c>
+      <c r="E11" s="49">
+        <v>87.423897999999994</v>
+      </c>
+      <c r="F11" s="49">
+        <v>98.627150999999998</v>
+      </c>
+      <c r="G11" s="49">
+        <v>106.625631</v>
+      </c>
+      <c r="H11" s="49">
+        <v>145.250597</v>
+      </c>
+      <c r="I11" s="50">
+        <v>165.947248</v>
+      </c>
+      <c r="J11" s="51">
+        <v>187.39382599999999</v>
+      </c>
+      <c r="K11" s="51">
+        <v>189.10605200000001</v>
+      </c>
+      <c r="L11" s="51">
+        <v>186.14523299999999</v>
+      </c>
+      <c r="M11" s="51">
+        <v>182.891437</v>
+      </c>
+      <c r="N11" s="51">
+        <v>166.212996</v>
+      </c>
+      <c r="O11" s="51">
+        <v>172.64999800000001</v>
+      </c>
+      <c r="P11" s="51">
+        <v>171.15072799999999</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>182.46911399999999</v>
+      </c>
+      <c r="R11" s="49">
+        <v>202.099502</v>
+      </c>
+      <c r="S11" s="49">
+        <v>190.75493</v>
+      </c>
+      <c r="T11" s="49">
+        <v>203.978049</v>
+      </c>
+      <c r="U11" s="49">
+        <v>191.99365800000001</v>
+      </c>
+      <c r="V11" s="49">
+        <v>198.76593099999999</v>
+      </c>
+      <c r="W11" s="49">
+        <v>184.197732</v>
+      </c>
+      <c r="X11" s="49">
+        <v>211.792147</v>
+      </c>
+      <c r="Y11" s="49">
+        <v>221.698824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="53">
+        <v>939.77599999999995</v>
+      </c>
+      <c r="C12" s="53">
+        <v>622.03428099999996</v>
+      </c>
+      <c r="D12" s="53">
+        <v>573.92851499999995</v>
+      </c>
+      <c r="E12" s="53">
+        <v>542.87358900000004</v>
+      </c>
+      <c r="F12" s="53">
+        <v>384.46262300000001</v>
+      </c>
+      <c r="G12" s="53">
+        <v>395.23318799999998</v>
+      </c>
+      <c r="H12" s="53">
+        <v>383.89962400000002</v>
+      </c>
+      <c r="I12" s="54">
+        <v>473.92343899999997</v>
+      </c>
+      <c r="J12" s="55">
+        <v>490.97785399999998</v>
+      </c>
+      <c r="K12" s="55">
+        <v>554.22479299999998</v>
+      </c>
+      <c r="L12" s="55">
+        <v>713.48042199999998</v>
+      </c>
+      <c r="M12" s="55">
+        <v>924.072138</v>
+      </c>
+      <c r="N12" s="55">
+        <v>927.90794700000004</v>
+      </c>
+      <c r="O12" s="55">
+        <v>851.115769</v>
+      </c>
+      <c r="P12" s="55">
+        <v>849.32515100000001</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>847.77004399999998</v>
+      </c>
+      <c r="R12" s="53">
+        <v>901.61320999999998</v>
+      </c>
+      <c r="S12" s="53">
+        <v>1033.736416</v>
+      </c>
+      <c r="T12" s="53">
+        <v>1154.9829549999999</v>
+      </c>
+      <c r="U12" s="53">
+        <v>1246.3423009999999</v>
+      </c>
+      <c r="V12" s="53">
+        <v>1340.4462020000001</v>
+      </c>
+      <c r="W12" s="53">
+        <v>1504.921736</v>
+      </c>
+      <c r="X12" s="53">
+        <v>1523.9466789999999</v>
+      </c>
+      <c r="Y12" s="53">
+        <v>1552.445774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="49">
+        <v>365.54209700000001</v>
+      </c>
+      <c r="C13" s="49">
+        <v>432.64720399999999</v>
+      </c>
+      <c r="D13" s="49">
+        <v>502.25883900000002</v>
+      </c>
+      <c r="E13" s="49">
+        <v>600.64526000000001</v>
+      </c>
+      <c r="F13" s="49">
+        <v>725.96368500000005</v>
+      </c>
+      <c r="G13" s="49">
+        <v>742.800749</v>
+      </c>
+      <c r="H13" s="49">
+        <v>709.50090399999999</v>
+      </c>
+      <c r="I13" s="50">
+        <v>772.88371800000004</v>
+      </c>
+      <c r="J13" s="51">
+        <v>808.48991599999999</v>
+      </c>
+      <c r="K13" s="51">
+        <v>813.69758200000001</v>
+      </c>
+      <c r="L13" s="51">
+        <v>829.24437399999999</v>
+      </c>
+      <c r="M13" s="51">
+        <v>883.39262299999996</v>
+      </c>
+      <c r="N13" s="51">
+        <v>974.31660999999997</v>
+      </c>
+      <c r="O13" s="51">
+        <v>817.94337199999995</v>
+      </c>
+      <c r="P13" s="51">
+        <v>840.13249800000006</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>778.186868</v>
+      </c>
+      <c r="R13" s="49">
+        <v>748.38890700000002</v>
+      </c>
+      <c r="S13" s="49">
+        <v>852.94688099999996</v>
+      </c>
+      <c r="T13" s="49">
+        <v>1026.9585729999999</v>
+      </c>
+      <c r="U13" s="49">
+        <v>706.86712599999998</v>
+      </c>
+      <c r="V13" s="49">
+        <v>809.97268199999996</v>
+      </c>
+      <c r="W13" s="49">
+        <v>842.64566400000001</v>
+      </c>
+      <c r="X13" s="49">
+        <v>909.48021400000005</v>
+      </c>
+      <c r="Y13" s="49">
+        <v>1103.455522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="120" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="53">
+        <v>1.6664999999999999E-2</v>
+      </c>
+      <c r="C14" s="53">
+        <v>0.76424199999999998</v>
+      </c>
+      <c r="D14" s="53">
+        <v>0.66490700000000003</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0.50025200000000003</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0.60951299999999997</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0.60637799999999997</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0.60765899999999995</v>
+      </c>
+      <c r="I14" s="54">
+        <v>1.1702600000000001</v>
+      </c>
+      <c r="J14" s="55">
+        <v>1.565585</v>
+      </c>
+      <c r="K14" s="55">
+        <v>1.3158939999999999</v>
+      </c>
+      <c r="L14" s="55">
+        <v>0.97226699999999999</v>
+      </c>
+      <c r="M14" s="55">
+        <v>0.85654699999999995</v>
+      </c>
+      <c r="N14" s="55">
+        <v>0.86802400000000002</v>
+      </c>
+      <c r="O14" s="55">
+        <v>1.1866460000000001</v>
+      </c>
+      <c r="P14" s="55">
+        <v>1.5403530000000001</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>3.4486119999999998</v>
+      </c>
+      <c r="R14" s="53">
+        <v>2.1181559999999999</v>
+      </c>
+      <c r="S14" s="53">
+        <v>2.022383</v>
+      </c>
+      <c r="T14" s="53">
+        <v>1.9912879999999999</v>
+      </c>
+      <c r="U14" s="53">
+        <v>1.7343679999999999</v>
+      </c>
+      <c r="V14" s="53">
+        <v>2.204971</v>
+      </c>
+      <c r="W14" s="53">
+        <v>3.3622390000000002</v>
+      </c>
+      <c r="X14" s="53">
+        <v>5.1916909999999996</v>
+      </c>
+      <c r="Y14" s="53">
+        <v>4.0811830000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="100" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="49">
+        <v>5.4256380000000002</v>
+      </c>
+      <c r="C15" s="49">
+        <v>4.470313</v>
+      </c>
+      <c r="D15" s="49">
+        <v>37.927701999999996</v>
+      </c>
+      <c r="E15" s="49">
+        <v>19.804368</v>
+      </c>
+      <c r="F15" s="49">
+        <v>3.288818</v>
+      </c>
+      <c r="G15" s="49">
+        <v>4.1493120000000001</v>
+      </c>
+      <c r="H15" s="49">
+        <v>4.7204670000000002</v>
+      </c>
+      <c r="I15" s="50">
+        <v>16.565521</v>
+      </c>
+      <c r="J15" s="51">
+        <v>18.173078</v>
+      </c>
+      <c r="K15" s="51">
+        <v>22.523520999999999</v>
+      </c>
+      <c r="L15" s="51">
+        <v>23.076566</v>
+      </c>
+      <c r="M15" s="51">
+        <v>27.909994000000001</v>
+      </c>
+      <c r="N15" s="51">
+        <v>32.106999000000002</v>
+      </c>
+      <c r="O15" s="51">
+        <v>39.980524000000003</v>
+      </c>
+      <c r="P15" s="51">
+        <v>54.571458</v>
+      </c>
+      <c r="Q15" s="51">
+        <v>53.166648000000002</v>
+      </c>
+      <c r="R15" s="49">
+        <v>43.523842000000002</v>
+      </c>
+      <c r="S15" s="49">
+        <v>33.090502999999998</v>
+      </c>
+      <c r="T15" s="49">
+        <v>29.241012000000001</v>
+      </c>
+      <c r="U15" s="49">
+        <v>26.725743000000001</v>
+      </c>
+      <c r="V15" s="49">
+        <v>34.625695999999998</v>
+      </c>
+      <c r="W15" s="49">
+        <v>38.996673999999999</v>
+      </c>
+      <c r="X15" s="49">
+        <v>45.237101000000003</v>
+      </c>
+      <c r="Y15" s="49">
+        <v>40.576529999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="140" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="53">
+        <v>459.21773200000001</v>
+      </c>
+      <c r="C16" s="53">
+        <v>506.82884899999999</v>
+      </c>
+      <c r="D16" s="53">
+        <v>547.37277099999994</v>
+      </c>
+      <c r="E16" s="53">
+        <v>630.95762100000002</v>
+      </c>
+      <c r="F16" s="53">
+        <v>695.04029500000001</v>
+      </c>
+      <c r="G16" s="53">
+        <v>948.84756400000003</v>
+      </c>
+      <c r="H16" s="53">
+        <v>878.03489200000001</v>
+      </c>
+      <c r="I16" s="54">
+        <v>948.82965899999999</v>
+      </c>
+      <c r="J16" s="55">
+        <v>984.15137300000004</v>
+      </c>
+      <c r="K16" s="55">
+        <v>1060.1517759999999</v>
+      </c>
+      <c r="L16" s="55">
+        <v>1221.0411810000001</v>
+      </c>
+      <c r="M16" s="55">
+        <v>1259.986568</v>
+      </c>
+      <c r="N16" s="55">
+        <v>1065.940004</v>
+      </c>
+      <c r="O16" s="55">
+        <v>905.18195000000003</v>
+      </c>
+      <c r="P16" s="55">
+        <v>947.71603800000003</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>997.59863900000005</v>
+      </c>
+      <c r="R16" s="53">
+        <v>1135.2868699999999</v>
+      </c>
+      <c r="S16" s="53">
+        <v>1387.671515</v>
+      </c>
+      <c r="T16" s="53">
+        <v>1097.0559599999999</v>
+      </c>
+      <c r="U16" s="53">
+        <v>833.84823500000005</v>
+      </c>
+      <c r="V16" s="53">
+        <v>889.84305700000004</v>
+      </c>
+      <c r="W16" s="53">
+        <v>893.49458100000004</v>
+      </c>
+      <c r="X16" s="53">
+        <v>922.677054</v>
+      </c>
+      <c r="Y16" s="53">
+        <v>956.24064699999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="49">
+        <v>683.20480299999997</v>
+      </c>
+      <c r="C17" s="49">
+        <v>736.510538</v>
+      </c>
+      <c r="D17" s="49">
+        <v>769.08044099999995</v>
+      </c>
+      <c r="E17" s="49">
+        <v>896.40938700000004</v>
+      </c>
+      <c r="F17" s="49">
+        <v>927.37326499999995</v>
+      </c>
+      <c r="G17" s="49">
+        <v>943.03179799999998</v>
+      </c>
+      <c r="H17" s="49">
+        <v>948.91436699999997</v>
+      </c>
+      <c r="I17" s="50">
+        <v>987.87709600000005</v>
+      </c>
+      <c r="J17" s="51">
+        <v>1040.789117</v>
+      </c>
+      <c r="K17" s="51">
+        <v>1174.1039539999999</v>
+      </c>
+      <c r="L17" s="51">
+        <v>1356.7399620000001</v>
+      </c>
+      <c r="M17" s="51">
+        <v>1454.1966460000001</v>
+      </c>
+      <c r="N17" s="51">
+        <v>1602.2972890000001</v>
+      </c>
+      <c r="O17" s="51">
+        <v>1676.344554</v>
+      </c>
+      <c r="P17" s="51">
+        <v>1759.303228</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>1842.9994019999999</v>
+      </c>
+      <c r="R17" s="49">
+        <v>2860.1228689999998</v>
+      </c>
+      <c r="S17" s="49">
+        <v>4044.3491469999999</v>
+      </c>
+      <c r="T17" s="49">
+        <v>4156.1298660000002</v>
+      </c>
+      <c r="U17" s="49">
+        <v>4351.2944049999996</v>
+      </c>
+      <c r="V17" s="49">
+        <v>3970.3217749999999</v>
+      </c>
+      <c r="W17" s="49">
+        <v>3829.300827</v>
+      </c>
+      <c r="X17" s="49">
+        <v>3885.283003</v>
+      </c>
+      <c r="Y17" s="49">
+        <v>3710.8028530000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="53">
+        <v>337.997771</v>
+      </c>
+      <c r="C18" s="53">
+        <v>561.60140999999999</v>
+      </c>
+      <c r="D18" s="53">
+        <v>564.66907700000002</v>
+      </c>
+      <c r="E18" s="53">
+        <v>594.62234899999999</v>
+      </c>
+      <c r="F18" s="53">
+        <v>619.26658799999996</v>
+      </c>
+      <c r="G18" s="53">
+        <v>653.29269799999997</v>
+      </c>
+      <c r="H18" s="53">
+        <v>745.83059600000001</v>
+      </c>
+      <c r="I18" s="54">
+        <v>752.23300099999994</v>
+      </c>
+      <c r="J18" s="55">
+        <v>626.55416700000001</v>
+      </c>
+      <c r="K18" s="55">
+        <v>677.19379800000002</v>
+      </c>
+      <c r="L18" s="55">
+        <v>727.259995</v>
+      </c>
+      <c r="M18" s="55">
+        <v>709.93198500000005</v>
+      </c>
+      <c r="N18" s="55">
+        <v>738.99451799999997</v>
+      </c>
+      <c r="O18" s="55">
+        <v>801.08351500000003</v>
+      </c>
+      <c r="P18" s="55">
+        <v>808.75316199999997</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>775.93738099999996</v>
+      </c>
+      <c r="R18" s="53">
+        <v>805.21874300000002</v>
+      </c>
+      <c r="S18" s="53">
+        <v>879.86534500000005</v>
+      </c>
+      <c r="T18" s="53">
+        <v>945.07603300000005</v>
+      </c>
+      <c r="U18" s="53">
+        <v>1012.753674</v>
+      </c>
+      <c r="V18" s="53">
+        <v>1057.109451</v>
+      </c>
+      <c r="W18" s="53">
+        <v>1122.470503</v>
+      </c>
+      <c r="X18" s="53">
+        <v>1184.502833</v>
+      </c>
+      <c r="Y18" s="53">
+        <v>1303.039743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="40" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="49">
+        <v>13.959275</v>
+      </c>
+      <c r="C19" s="49">
+        <v>22.577044999999998</v>
+      </c>
+      <c r="D19" s="49">
+        <v>22.148885</v>
+      </c>
+      <c r="E19" s="49">
+        <v>22.264320000000001</v>
+      </c>
+      <c r="F19" s="49">
+        <v>24.707350999999999</v>
+      </c>
+      <c r="G19" s="49">
+        <v>25.586758</v>
+      </c>
+      <c r="H19" s="49">
+        <v>26.149242000000001</v>
+      </c>
+      <c r="I19" s="50">
+        <v>26.388508000000002</v>
+      </c>
+      <c r="J19" s="51">
+        <v>42.985919000000003</v>
+      </c>
+      <c r="K19" s="51">
+        <v>78.540615000000003</v>
+      </c>
+      <c r="L19" s="51">
+        <v>101.717376</v>
+      </c>
+      <c r="M19" s="51">
+        <v>90.137845999999996</v>
+      </c>
+      <c r="N19" s="51">
+        <v>46.845740999999997</v>
+      </c>
+      <c r="O19" s="51">
+        <v>43.844423999999997</v>
+      </c>
+      <c r="P19" s="51">
+        <v>41.556705999999998</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>55.826607000000003</v>
+      </c>
+      <c r="R19" s="49">
+        <v>66.669128999999998</v>
+      </c>
+      <c r="S19" s="49">
+        <v>80.141478000000006</v>
+      </c>
+      <c r="T19" s="49">
+        <v>81.574973999999997</v>
+      </c>
+      <c r="U19" s="49">
+        <v>81.251755000000003</v>
+      </c>
+      <c r="V19" s="49">
+        <v>80.951623999999995</v>
+      </c>
+      <c r="W19" s="49">
+        <v>102.847759</v>
+      </c>
+      <c r="X19" s="49">
+        <v>120.9744</v>
+      </c>
+      <c r="Y19" s="49">
+        <v>140.434381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="53">
+        <v>50.404097</v>
+      </c>
+      <c r="C20" s="53">
+        <v>52.587071999999999</v>
+      </c>
+      <c r="D20" s="53">
+        <v>53.450476000000002</v>
+      </c>
+      <c r="E20" s="53">
+        <v>53.628442</v>
+      </c>
+      <c r="F20" s="53">
+        <v>57.101004000000003</v>
+      </c>
+      <c r="G20" s="53">
+        <v>56.653778000000003</v>
+      </c>
+      <c r="H20" s="53">
+        <v>54.888973999999997</v>
+      </c>
+      <c r="I20" s="54">
+        <v>72.981699000000006</v>
+      </c>
+      <c r="J20" s="55">
+        <v>80.332272000000003</v>
+      </c>
+      <c r="K20" s="55">
+        <v>65.172888999999998</v>
+      </c>
+      <c r="L20" s="55">
+        <v>103.703924</v>
+      </c>
+      <c r="M20" s="55">
+        <v>108.28717899999999</v>
+      </c>
+      <c r="N20" s="55">
+        <v>113.45966199999999</v>
+      </c>
+      <c r="O20" s="55">
+        <v>135.29069200000001</v>
+      </c>
+      <c r="P20" s="55">
+        <v>152.986143</v>
+      </c>
+      <c r="Q20" s="55">
+        <v>133.997028</v>
+      </c>
+      <c r="R20" s="53">
+        <v>177.54431600000001</v>
+      </c>
+      <c r="S20" s="53">
+        <v>272.12013100000001</v>
+      </c>
+      <c r="T20" s="53">
+        <v>274.31893300000002</v>
+      </c>
+      <c r="U20" s="53">
+        <v>268.55886099999998</v>
+      </c>
+      <c r="V20" s="53">
+        <v>695.19094199999995</v>
+      </c>
+      <c r="W20" s="53">
+        <v>913.11873000000003</v>
+      </c>
+      <c r="X20" s="53">
+        <v>948.29857000000004</v>
+      </c>
+      <c r="Y20" s="53">
+        <v>925.66668700000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="85">
+        <v>25867</v>
+      </c>
+      <c r="S21" s="85">
+        <v>27234</v>
+      </c>
+      <c r="T21" s="85">
+        <v>27090</v>
+      </c>
+      <c r="U21" s="85">
+        <v>26270</v>
+      </c>
+      <c r="V21" s="85">
+        <v>24312</v>
+      </c>
+      <c r="W21" s="85">
+        <v>25236</v>
+      </c>
+      <c r="X21" s="85">
+        <v>24934</v>
+      </c>
+      <c r="Y21" s="85">
+        <v>25178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="86">
+        <v>6129127</v>
+      </c>
+      <c r="S22" s="86">
+        <v>6286780</v>
+      </c>
+      <c r="T22" s="86">
+        <v>6715949</v>
+      </c>
+      <c r="U22" s="86">
+        <v>7146861</v>
+      </c>
+      <c r="V22" s="86">
+        <v>7773773</v>
+      </c>
+      <c r="W22" s="86">
+        <v>8819397</v>
+      </c>
+      <c r="X22" s="85">
+        <v>8955598</v>
+      </c>
+      <c r="Y22" s="85">
+        <v>8912124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="67">
+        <v>30.4721351597717</v>
+      </c>
+      <c r="C23" s="67">
+        <v>28.513390173860799</v>
+      </c>
+      <c r="D23" s="67">
+        <v>23.4280136442623</v>
+      </c>
+      <c r="E23" s="67">
+        <v>20.734686625505301</v>
+      </c>
+      <c r="F23" s="67">
+        <v>17.803396306045201</v>
+      </c>
+      <c r="G23" s="67">
+        <v>10.448336580639101</v>
+      </c>
+      <c r="H23" s="67">
+        <v>2.8588166373755102</v>
+      </c>
+      <c r="I23" s="67">
+        <v>2.5914340491501</v>
+      </c>
+      <c r="J23" s="67">
+        <v>2.7029568398827202</v>
+      </c>
+      <c r="K23" s="67">
+        <v>6.1649446817310496</v>
+      </c>
+      <c r="L23" s="67">
+        <v>6.5992420402883596</v>
+      </c>
+      <c r="M23" s="67">
+        <v>6.1452191838088002</v>
+      </c>
+      <c r="N23" s="67">
+        <v>2.68730209655596</v>
+      </c>
+      <c r="O23" s="67">
+        <v>1.1307367764166401</v>
+      </c>
+      <c r="P23" s="67">
+        <v>0.48519481919754198</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>0.73782926492897505</v>
+      </c>
+      <c r="R23" s="67">
+        <v>1.32187113359104</v>
+      </c>
+      <c r="S23" s="67">
+        <v>1.45461737629459</v>
+      </c>
+      <c r="T23" s="67">
+        <v>0.98405675490121303</v>
+      </c>
+      <c r="U23" s="67">
+        <v>0.997380499791367</v>
+      </c>
+      <c r="V23" s="67">
+        <v>0.57043204320432095</v>
+      </c>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+    </row>
+    <row r="24" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="67">
+        <v>42.3298327984716</v>
+      </c>
+      <c r="C24" s="67">
+        <v>42.647091560740002</v>
+      </c>
+      <c r="D24" s="67">
+        <v>47.935125394203297</v>
+      </c>
+      <c r="E24" s="67">
+        <v>54.677297561408999</v>
+      </c>
+      <c r="F24" s="67">
+        <v>59.111051877519699</v>
+      </c>
+      <c r="G24" s="67">
+        <v>64.222678350021397</v>
+      </c>
+      <c r="H24" s="67">
+        <v>71.106229252099197</v>
+      </c>
+      <c r="I24" s="67">
+        <v>72.644546980635297</v>
+      </c>
+      <c r="J24" s="67">
+        <v>73.514955164425601</v>
+      </c>
+      <c r="K24" s="67">
+        <v>71.622642709998701</v>
+      </c>
+      <c r="L24" s="67">
+        <v>72.332201184595704</v>
+      </c>
+      <c r="M24" s="67">
+        <v>68.695852733851297</v>
+      </c>
+      <c r="N24" s="67">
+        <v>68.939446777050904</v>
+      </c>
+      <c r="O24" s="67">
+        <v>70.720225740371404</v>
+      </c>
+      <c r="P24" s="67">
+        <v>72.3782632721</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>74.816639711137</v>
+      </c>
+      <c r="R24" s="67">
+        <v>68.315479739215704</v>
+      </c>
+      <c r="S24" s="67">
+        <v>70.158467587265093</v>
+      </c>
+      <c r="T24" s="67">
+        <v>68.658643210477805</v>
+      </c>
+      <c r="U24" s="67">
+        <v>68.709722286615005</v>
+      </c>
+      <c r="V24" s="67">
+        <v>71.4367686768677</v>
+      </c>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+    </row>
+    <row r="25" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="67">
+        <v>26413004</v>
+      </c>
+      <c r="C25" s="67">
+        <v>27143793</v>
+      </c>
+      <c r="D25" s="67">
+        <v>27617214</v>
+      </c>
+      <c r="E25" s="67">
+        <v>27814014</v>
+      </c>
+      <c r="F25" s="67">
+        <v>28660817</v>
+      </c>
+      <c r="G25" s="67">
+        <v>30529251</v>
+      </c>
+      <c r="H25" s="67">
+        <v>33822931</v>
+      </c>
+      <c r="I25" s="67">
+        <v>32806558</v>
+      </c>
+      <c r="J25" s="67">
+        <v>34288531</v>
+      </c>
+      <c r="K25" s="67">
+        <v>33403954</v>
+      </c>
+      <c r="L25" s="67">
+        <v>34962737</v>
+      </c>
+      <c r="M25" s="67">
+        <v>34125561</v>
+      </c>
+      <c r="N25" s="67">
+        <v>36666662</v>
+      </c>
+      <c r="O25" s="67">
+        <v>36569651</v>
+      </c>
+      <c r="P25" s="67">
+        <v>37326770</v>
+      </c>
+      <c r="Q25" s="67">
+        <v>40889315</v>
+      </c>
+      <c r="R25" s="67">
+        <v>43393530</v>
+      </c>
+      <c r="S25" s="67">
+        <v>43376227</v>
+      </c>
+      <c r="T25" s="67">
+        <v>41971848</v>
+      </c>
+      <c r="U25" s="67">
+        <v>37762326</v>
+      </c>
+      <c r="V25" s="67">
+        <v>32797879</v>
+      </c>
+      <c r="W25" s="67">
+        <v>30483516</v>
+      </c>
+      <c r="X25" s="67">
+        <v>38015496</v>
+      </c>
+      <c r="Y25" s="67">
+        <v>37564640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="74">
+        <v>16209</v>
+      </c>
+      <c r="N26" s="74">
+        <v>14988</v>
+      </c>
+      <c r="O26" s="74">
+        <v>13792</v>
+      </c>
+      <c r="P26" s="74">
+        <v>17787</v>
+      </c>
+      <c r="Q26" s="74">
+        <v>15643</v>
+      </c>
+      <c r="R26" s="73">
+        <v>19207.099999999999</v>
+      </c>
+      <c r="S26" s="73">
+        <v>23474.62</v>
+      </c>
+      <c r="T26" s="73">
+        <v>22118.2</v>
+      </c>
+      <c r="U26" s="73">
+        <v>19631.55</v>
+      </c>
+      <c r="V26" s="73">
+        <v>22136.799999999999</v>
+      </c>
+      <c r="W26" s="73">
+        <v>19381.46</v>
+      </c>
+      <c r="X26" s="73">
+        <v>20262.78</v>
+      </c>
+      <c r="Y26" s="73">
+        <v>19773.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="76">
+        <v>449686</v>
+      </c>
+      <c r="R27" s="76">
+        <v>449681</v>
+      </c>
+      <c r="S27" s="76">
+        <v>492314</v>
+      </c>
+      <c r="T27" s="76">
+        <v>491212</v>
+      </c>
+      <c r="U27" s="76">
+        <v>491553</v>
+      </c>
+      <c r="V27" s="76">
+        <v>491350</v>
+      </c>
+      <c r="W27" s="76">
+        <v>491322</v>
+      </c>
+      <c r="X27" s="76">
+        <v>491855</v>
+      </c>
+      <c r="Y27" s="76">
+        <v>492113</v>
+      </c>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+    </row>
+    <row r="28" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="82">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="R28" s="82">
+        <v>309.3</v>
+      </c>
+      <c r="S28" s="82">
+        <v>540.73</v>
+      </c>
+      <c r="T28" s="82">
+        <v>579.13</v>
+      </c>
+      <c r="U28" s="82">
+        <v>622.14</v>
+      </c>
+      <c r="V28" s="82">
+        <v>680.96</v>
+      </c>
+      <c r="W28" s="82">
+        <v>730.73</v>
+      </c>
+      <c r="X28" s="82">
+        <v>784.49</v>
+      </c>
+      <c r="Y28" s="82">
+        <v>828.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" s="82">
+        <v>3</v>
+      </c>
+      <c r="R29" s="82">
+        <v>2.06</v>
+      </c>
+      <c r="S29" s="82">
+        <v>3.47</v>
+      </c>
+      <c r="T29" s="82">
+        <v>3.46</v>
+      </c>
+      <c r="U29" s="82">
+        <v>3.53</v>
+      </c>
+      <c r="V29" s="82">
+        <v>3.75</v>
+      </c>
+      <c r="W29" s="82">
+        <v>4</v>
+      </c>
+      <c r="X29" s="82">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="Y29" s="82">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="83">
+        <v>9</v>
+      </c>
+      <c r="S30" s="83">
+        <v>6</v>
+      </c>
+      <c r="T30" s="83">
+        <v>8</v>
+      </c>
+      <c r="U30" s="83">
+        <v>4</v>
+      </c>
+      <c r="V30" s="83">
+        <v>6</v>
+      </c>
+      <c r="W30" s="83">
+        <v>11</v>
+      </c>
+      <c r="X30" s="83">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="69">
+        <v>143862.554</v>
+      </c>
+      <c r="C31" s="69">
+        <v>171503.91700000002</v>
+      </c>
+      <c r="D31" s="69">
+        <v>179223.451</v>
+      </c>
+      <c r="E31" s="69">
+        <v>180611.80600000001</v>
+      </c>
+      <c r="F31" s="69">
+        <v>189856.70600000001</v>
+      </c>
+      <c r="G31" s="69">
+        <v>219141.84700000001</v>
+      </c>
+      <c r="H31" s="69">
+        <v>219060.592</v>
+      </c>
+      <c r="I31" s="70">
+        <v>231122.49200000003</v>
+      </c>
+      <c r="J31" s="71">
+        <v>256743.10100000002</v>
+      </c>
+      <c r="K31" s="71">
+        <v>271765.11700000003</v>
+      </c>
+      <c r="L31" s="71">
+        <v>273739.91000000003</v>
+      </c>
+      <c r="M31" s="71">
+        <v>298954.25300000003</v>
+      </c>
+      <c r="N31" s="71">
+        <v>339993.39600000001</v>
+      </c>
+      <c r="O31" s="71">
+        <v>438555.44500000001</v>
+      </c>
+      <c r="P31" s="71">
+        <v>379657.777</v>
+      </c>
+      <c r="Q31" s="71">
+        <v>427733.43600000005</v>
+      </c>
+      <c r="R31" s="69">
+        <v>365800.94500000001</v>
+      </c>
+      <c r="S31" s="69">
+        <v>378620.53700000001</v>
+      </c>
+      <c r="T31" s="69">
+        <v>461789.49600000004</v>
+      </c>
+      <c r="U31" s="69">
+        <v>417614.34099999996</v>
+      </c>
+      <c r="V31" s="69">
+        <v>468325.83400000003</v>
+      </c>
+      <c r="W31" s="69">
+        <v>444803.565</v>
+      </c>
+      <c r="X31" s="69">
+        <v>449602.96699999995</v>
+      </c>
+      <c r="Y31" s="69">
+        <v>454952.54100000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Z27:AA27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/process_data/GPP_6210501001.xlsx
+++ b/process_data/GPP_6210501001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF58910-5991-0341-8477-C59B1EF23057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56443326-5D41-D147-83E8-534E6A04736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="4540" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
+    <workbookView xWindow="-37900" yWindow="5380" windowWidth="38400" windowHeight="20360" activeTab="3" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>GROSS PROVINCIAL PRODUCT AT CURRENT MARKET PRICES</t>
   </si>
@@ -243,6 +243,12 @@
   <si>
     <t>จำนวนนักท่องเที่ยวชาวต่างชาติ (คน)</t>
   </si>
+  <si>
+    <t>เนื้อที่สำหรับปลูกนาข้าว (ไร่)</t>
+  </si>
+  <si>
+    <t>เนื้อที่สำหรับปลูกพืชไร่ (ไร่)</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -510,6 +516,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -517,7 +549,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -739,8 +771,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6529,10 +6569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB9047E-B268-2648-8545-D88A4802D6F0}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6541,7 +6581,10 @@
     <col min="6" max="6" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" customWidth="1"/>
     <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.33203125" customWidth="1"/>
+    <col min="22" max="22" width="23.1640625" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.6640625" customWidth="1"/>
     <col min="25" max="25" width="12" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="21.1640625" customWidth="1"/>
@@ -6550,7 +6593,7 @@
     <col min="30" max="30" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="140" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>56</v>
       </c>
@@ -6636,10 +6679,10 @@
         <v>54</v>
       </c>
       <c r="AC1" s="61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD1" s="61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE1" s="61" t="s">
         <v>55</v>
@@ -8055,11 +8098,11 @@
       <c r="AB17" s="65">
         <v>2541350</v>
       </c>
-      <c r="AC17" s="77">
-        <v>695858</v>
-      </c>
-      <c r="AD17" s="75">
-        <v>10147</v>
+      <c r="AC17" s="79">
+        <v>1149975</v>
+      </c>
+      <c r="AD17" s="79">
+        <v>825214</v>
       </c>
       <c r="AE17" s="62"/>
       <c r="AF17" s="56">
@@ -8151,11 +8194,11 @@
       <c r="AB18" s="65">
         <v>2541569</v>
       </c>
-      <c r="AC18" s="77">
-        <v>333161</v>
-      </c>
-      <c r="AD18" s="75">
-        <v>4904</v>
+      <c r="AC18" s="79">
+        <v>1154555</v>
+      </c>
+      <c r="AD18" s="79">
+        <v>812779</v>
       </c>
       <c r="AE18" s="62">
         <v>26</v>
@@ -8247,11 +8290,11 @@
       <c r="AB19" s="65">
         <v>2196101</v>
       </c>
-      <c r="AC19" s="77">
-        <v>966110</v>
-      </c>
-      <c r="AD19" s="75">
-        <v>6619</v>
+      <c r="AC19" s="79">
+        <v>1153432</v>
+      </c>
+      <c r="AD19" s="79">
+        <v>812975</v>
       </c>
       <c r="AE19" s="62">
         <v>40</v>
@@ -8345,11 +8388,11 @@
       <c r="AB20" s="65">
         <v>2189464</v>
       </c>
-      <c r="AC20" s="77">
-        <v>1010038</v>
-      </c>
-      <c r="AD20" s="75">
-        <v>7369</v>
+      <c r="AC20" s="79">
+        <v>1153662</v>
+      </c>
+      <c r="AD20" s="79">
+        <v>812719</v>
       </c>
       <c r="AE20" s="62">
         <v>32</v>
@@ -8443,11 +8486,11 @@
       <c r="AB21" s="65">
         <v>2211616</v>
       </c>
-      <c r="AC21" s="77">
-        <v>1025505</v>
-      </c>
-      <c r="AD21" s="75">
-        <v>7016</v>
+      <c r="AC21" s="79">
+        <v>1154050</v>
+      </c>
+      <c r="AD21" s="79">
+        <v>812522</v>
       </c>
       <c r="AE21" s="62">
         <v>37</v>
@@ -8541,11 +8584,11 @@
       <c r="AB22" s="65">
         <v>2191974</v>
       </c>
-      <c r="AC22" s="77">
-        <v>1078379</v>
-      </c>
-      <c r="AD22" s="75">
-        <v>8049</v>
+      <c r="AC22" s="79">
+        <v>1133959</v>
+      </c>
+      <c r="AD22" s="79">
+        <v>813100</v>
       </c>
       <c r="AE22" s="62">
         <v>59</v>
@@ -8639,11 +8682,11 @@
       <c r="AB23" s="65">
         <v>2191454</v>
       </c>
-      <c r="AC23" s="77">
-        <v>1098904</v>
-      </c>
-      <c r="AD23" s="75">
-        <v>8415</v>
+      <c r="AC23" s="79">
+        <v>1133991</v>
+      </c>
+      <c r="AD23" s="79">
+        <v>812485</v>
       </c>
       <c r="AE23" s="62">
         <v>31</v>
@@ -8737,11 +8780,11 @@
       <c r="AB24" s="65">
         <v>2191311</v>
       </c>
-      <c r="AC24" s="77">
-        <v>1148049</v>
-      </c>
-      <c r="AD24" s="75">
-        <v>8962</v>
+      <c r="AC24" s="79">
+        <v>1133430</v>
+      </c>
+      <c r="AD24" s="79">
+        <v>813167</v>
       </c>
       <c r="AE24" s="62">
         <v>19</v>
@@ -8833,11 +8876,11 @@
       <c r="AB25" s="65">
         <v>2191867</v>
       </c>
-      <c r="AC25" s="77">
-        <v>1107250</v>
-      </c>
-      <c r="AD25" s="75">
-        <v>8501</v>
+      <c r="AC25" s="79">
+        <v>1134183</v>
+      </c>
+      <c r="AD25" s="79">
+        <v>812834</v>
       </c>
       <c r="AE25" s="62">
         <v>30</v>
@@ -8858,15 +8901,31 @@
       <c r="AK28" s="73"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="77"/>
       <c r="AH29" s="74"/>
       <c r="AI29" s="74"/>
       <c r="AJ29" s="74"/>
       <c r="AK29" s="74"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8875,10 +8934,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B32E04E-C22B-ED4B-85C4-796A1BDA05F3}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8890,7 +8949,8 @@
     <col min="23" max="23" width="26.6640625" customWidth="1"/>
     <col min="24" max="24" width="22.6640625" customWidth="1"/>
     <col min="25" max="26" width="28.5" customWidth="1"/>
-    <col min="29" max="30" width="10.83203125" customWidth="1"/>
+    <col min="29" max="29" width="33" customWidth="1"/>
+    <col min="30" max="30" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
@@ -8979,10 +9039,10 @@
         <v>54</v>
       </c>
       <c r="AC1" s="61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD1" s="61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE1" s="61" t="s">
         <v>55</v>
@@ -10315,7 +10375,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>19</v>
       </c>
@@ -10398,18 +10458,18 @@
       <c r="AB17" s="47">
         <v>449686</v>
       </c>
-      <c r="AC17" s="75">
-        <v>130915</v>
-      </c>
-      <c r="AD17" s="75">
-        <v>1266</v>
+      <c r="AC17" s="79">
+        <v>105867</v>
+      </c>
+      <c r="AD17" s="79">
+        <v>313067</v>
       </c>
       <c r="AE17" s="51"/>
       <c r="AF17" s="50">
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
         <v>20</v>
       </c>
@@ -10494,11 +10554,11 @@
       <c r="AB18" s="47">
         <v>449681</v>
       </c>
-      <c r="AC18" s="75">
-        <v>113017</v>
-      </c>
-      <c r="AD18" s="78">
-        <v>932</v>
+      <c r="AC18" s="79">
+        <v>111656</v>
+      </c>
+      <c r="AD18" s="79">
+        <v>344589</v>
       </c>
       <c r="AE18" s="52">
         <v>9</v>
@@ -10507,7 +10567,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
         <v>21</v>
       </c>
@@ -10590,11 +10650,11 @@
       <c r="AB19" s="47">
         <v>492314</v>
       </c>
-      <c r="AC19" s="75">
-        <v>164531</v>
-      </c>
-      <c r="AD19" s="78">
-        <v>945</v>
+      <c r="AC19" s="79">
+        <v>112165</v>
+      </c>
+      <c r="AD19" s="79">
+        <v>345037</v>
       </c>
       <c r="AE19" s="52">
         <v>6</v>
@@ -10603,7 +10663,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
         <v>22</v>
       </c>
@@ -10688,11 +10748,11 @@
       <c r="AB20" s="47">
         <v>491212</v>
       </c>
-      <c r="AC20" s="75">
-        <v>162999</v>
-      </c>
-      <c r="AD20" s="78">
-        <v>856</v>
+      <c r="AC20" s="79">
+        <v>112054</v>
+      </c>
+      <c r="AD20" s="79">
+        <v>345116</v>
       </c>
       <c r="AE20" s="52">
         <v>8</v>
@@ -10701,7 +10761,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
         <v>23</v>
       </c>
@@ -10786,11 +10846,11 @@
       <c r="AB21" s="47">
         <v>491553</v>
       </c>
-      <c r="AC21" s="75">
-        <v>172139</v>
-      </c>
-      <c r="AD21" s="78">
-        <v>875</v>
+      <c r="AC21" s="79">
+        <v>111942</v>
+      </c>
+      <c r="AD21" s="79">
+        <v>345313</v>
       </c>
       <c r="AE21" s="52">
         <v>4</v>
@@ -10799,7 +10859,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>24</v>
       </c>
@@ -10884,11 +10944,11 @@
       <c r="AB22" s="47">
         <v>491350</v>
       </c>
-      <c r="AC22" s="75">
-        <v>184089</v>
-      </c>
-      <c r="AD22" s="78">
-        <v>922</v>
+      <c r="AC22" s="79">
+        <v>111778</v>
+      </c>
+      <c r="AD22" s="79">
+        <v>345205</v>
       </c>
       <c r="AE22" s="52">
         <v>6</v>
@@ -10897,7 +10957,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
         <v>2016</v>
       </c>
@@ -10982,11 +11042,11 @@
       <c r="AB23" s="47">
         <v>491322</v>
       </c>
-      <c r="AC23" s="75">
-        <v>188910</v>
-      </c>
-      <c r="AD23" s="78">
-        <v>953</v>
+      <c r="AC23" s="79">
+        <v>111677</v>
+      </c>
+      <c r="AD23" s="79">
+        <v>345244</v>
       </c>
       <c r="AE23" s="52">
         <v>11</v>
@@ -10995,7 +11055,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="66">
         <v>2017</v>
       </c>
@@ -11080,11 +11140,11 @@
       <c r="AB24" s="47">
         <v>491855</v>
       </c>
-      <c r="AC24" s="75">
-        <v>197075</v>
-      </c>
-      <c r="AD24" s="75">
-        <v>1014</v>
+      <c r="AC24" s="79">
+        <v>112365</v>
+      </c>
+      <c r="AD24" s="79">
+        <v>345124</v>
       </c>
       <c r="AE24" s="52">
         <v>6</v>
@@ -11093,7 +11153,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
         <v>2018</v>
       </c>
@@ -11176,11 +11236,11 @@
       <c r="AB25" s="47">
         <v>492113</v>
       </c>
-      <c r="AC25" s="75">
-        <v>200403</v>
-      </c>
-      <c r="AD25" s="75">
-        <v>1061</v>
+      <c r="AC25" s="79">
+        <v>112314</v>
+      </c>
+      <c r="AD25" s="79">
+        <v>345409</v>
       </c>
       <c r="AE25" s="52">
         <v>5</v>
@@ -11189,7 +11249,7 @@
         <v>454952.54100000003</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="71"/>
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
@@ -11217,7 +11277,7 @@
       <c r="Y26" s="71"/>
       <c r="Z26" s="71"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="71"/>
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
@@ -11245,7 +11305,7 @@
       <c r="Y27" s="71"/>
       <c r="Z27" s="71"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="71"/>
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
@@ -11273,7 +11333,7 @@
       <c r="Y28" s="71"/>
       <c r="Z28" s="71"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="71"/>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -11298,10 +11358,17 @@
       <c r="V29" s="71"/>
       <c r="W29" s="71"/>
       <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="71"/>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -11325,16 +11392,18 @@
       <c r="U30" s="71"/>
       <c r="V30" s="71"/>
       <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="X30" s="80"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="71"/>
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
@@ -11362,7 +11431,7 @@
       <c r="Y31" s="71"/>
       <c r="Z31" s="71"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="71"/>
       <c r="B32" s="71"/>
       <c r="C32" s="71"/>

--- a/process_data/GPP_6210501001.xlsx
+++ b/process_data/GPP_6210501001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56443326-5D41-D147-83E8-534E6A04736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8FB17-4E2A-5346-A155-4D3E1F0DAD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37900" yWindow="5380" windowWidth="38400" windowHeight="20360" activeTab="3" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
+    <workbookView xWindow="-30880" yWindow="4540" windowWidth="38400" windowHeight="20360" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E03C5-685B-5940-859A-56FF0EBDBC17}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8936,7 +8936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B32E04E-C22B-ED4B-85C4-796A1BDA05F3}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>

--- a/process_data/GPP_6210501001.xlsx
+++ b/process_data/GPP_6210501001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8FB17-4E2A-5346-A155-4D3E1F0DAD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119D877-AC04-4849-AEAC-6E38E4D98862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30880" yWindow="4540" windowWidth="38400" windowHeight="20360" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
+    <workbookView xWindow="-33400" yWindow="4540" windowWidth="38400" windowHeight="20360" activeTab="3" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
   <si>
     <t>GROSS PROVINCIAL PRODUCT AT CURRENT MARKET PRICES</t>
   </si>
@@ -238,16 +238,10 @@
     <t>ค่าใช้จ่ายในการวิจัยและพัฒนา (คิดเป็น % ของจีดีพี)</t>
   </si>
   <si>
-    <t>จำนวนนักท่องเที่ยวชาวไทย (คน)</t>
-  </si>
-  <si>
-    <t>จำนวนนักท่องเที่ยวชาวต่างชาติ (คน)</t>
-  </si>
-  <si>
     <t>เนื้อที่สำหรับปลูกนาข้าว (ไร่)</t>
   </si>
   <si>
-    <t>เนื้อที่สำหรับปลูกพืชไร่ (ไร่)</t>
+    <t>เนื้อที่สวนผักและไม้ดอก (ไร่)</t>
   </si>
 </sst>
 </file>
@@ -257,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,6 +323,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -549,7 +555,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -765,9 +771,6 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -782,6 +785,18 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1100,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E03C5-685B-5940-859A-56FF0EBDBC17}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -4223,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244176B4-7511-5248-99A4-5973B793F41B}">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+      <selection activeCell="AC1" sqref="AC1:AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4334,10 +4349,10 @@
         <v>54</v>
       </c>
       <c r="AC1" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="61" t="s">
         <v>66</v>
-      </c>
-      <c r="AD1" s="61" t="s">
-        <v>67</v>
       </c>
       <c r="AE1" s="61" t="s">
         <v>55</v>
@@ -5688,7 +5703,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>2010</v>
       </c>
@@ -5771,18 +5786,18 @@
       <c r="AB17" s="65">
         <v>1155861</v>
       </c>
-      <c r="AC17" s="75">
-        <v>1068404</v>
-      </c>
-      <c r="AD17" s="75">
-        <v>241583</v>
+      <c r="AC17" s="81">
+        <v>9042</v>
+      </c>
+      <c r="AD17" s="81">
+        <v>1046128</v>
       </c>
       <c r="AE17" s="64"/>
       <c r="AF17" s="56">
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>2011</v>
       </c>
@@ -5867,11 +5882,11 @@
       <c r="AB18" s="65">
         <v>1158113</v>
       </c>
-      <c r="AC18" s="75">
-        <v>851323</v>
-      </c>
-      <c r="AD18" s="75">
-        <v>176974</v>
+      <c r="AC18" s="81">
+        <v>9461</v>
+      </c>
+      <c r="AD18" s="81">
+        <v>1065030</v>
       </c>
       <c r="AE18" s="62">
         <v>147</v>
@@ -5880,7 +5895,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>2012</v>
       </c>
@@ -5963,11 +5978,11 @@
       <c r="AB19" s="65">
         <v>1180726</v>
       </c>
-      <c r="AC19" s="75">
-        <v>1068100</v>
-      </c>
-      <c r="AD19" s="75">
-        <v>319872</v>
+      <c r="AC19" s="81">
+        <v>9598</v>
+      </c>
+      <c r="AD19" s="81">
+        <v>1065565</v>
       </c>
       <c r="AE19" s="62">
         <v>109</v>
@@ -5976,7 +5991,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
         <v>2013</v>
       </c>
@@ -6061,11 +6076,11 @@
       <c r="AB20" s="65">
         <v>1177369</v>
       </c>
-      <c r="AC20" s="75">
-        <v>1073412</v>
-      </c>
-      <c r="AD20" s="75">
-        <v>319845</v>
+      <c r="AC20" s="81">
+        <v>9573.8304647791701</v>
+      </c>
+      <c r="AD20" s="81">
+        <v>1065335.81531144</v>
       </c>
       <c r="AE20" s="62">
         <v>93</v>
@@ -6074,7 +6089,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
         <v>2014</v>
       </c>
@@ -6159,11 +6174,11 @@
       <c r="AB21" s="65">
         <v>1178443</v>
       </c>
-      <c r="AC21" s="75">
-        <v>1142119</v>
-      </c>
-      <c r="AD21" s="75">
-        <v>343339</v>
+      <c r="AC21" s="81">
+        <v>9510</v>
+      </c>
+      <c r="AD21" s="81">
+        <v>1065583</v>
       </c>
       <c r="AE21" s="62">
         <v>117</v>
@@ -6172,7 +6187,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="53">
         <v>2015</v>
       </c>
@@ -6257,11 +6272,11 @@
       <c r="AB22" s="65">
         <v>1177896</v>
       </c>
-      <c r="AC22" s="75">
-        <v>1205428</v>
-      </c>
-      <c r="AD22" s="75">
-        <v>343180</v>
+      <c r="AC22" s="81">
+        <v>9500</v>
+      </c>
+      <c r="AD22" s="81">
+        <v>1065016</v>
       </c>
       <c r="AE22" s="62">
         <v>132</v>
@@ -6270,7 +6285,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
         <v>2016</v>
       </c>
@@ -6355,11 +6370,11 @@
       <c r="AB23" s="65">
         <v>1178345</v>
       </c>
-      <c r="AC23" s="75">
-        <v>1237790</v>
-      </c>
-      <c r="AD23" s="75">
-        <v>345115</v>
+      <c r="AC23" s="81">
+        <v>9711</v>
+      </c>
+      <c r="AD23" s="81">
+        <v>1065315</v>
       </c>
       <c r="AE23" s="62">
         <v>121</v>
@@ -6368,7 +6383,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <v>2017</v>
       </c>
@@ -6453,11 +6468,11 @@
       <c r="AB24" s="65">
         <v>1178698</v>
       </c>
-      <c r="AC24" s="75">
-        <v>1281574</v>
-      </c>
-      <c r="AD24" s="75">
-        <v>355607</v>
+      <c r="AC24" s="81">
+        <v>9720</v>
+      </c>
+      <c r="AD24" s="81">
+        <v>1065376</v>
       </c>
       <c r="AE24" s="62">
         <v>117</v>
@@ -6466,7 +6481,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="53">
         <v>2018</v>
       </c>
@@ -6549,11 +6564,11 @@
       <c r="AB25" s="65">
         <v>1178475</v>
       </c>
-      <c r="AC25" s="75">
-        <v>1354163</v>
-      </c>
-      <c r="AD25" s="75">
-        <v>369547</v>
+      <c r="AC25" s="81">
+        <v>9713</v>
+      </c>
+      <c r="AD25" s="81">
+        <v>1065197</v>
       </c>
       <c r="AE25" s="62">
         <v>96</v>
@@ -6561,6 +6576,17 @@
       <c r="AF25" s="55">
         <v>454952.54100000003</v>
       </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6572,7 +6598,7 @@
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="AC1" sqref="AC1:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,10 +6705,10 @@
         <v>54</v>
       </c>
       <c r="AC1" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD1" s="61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="61" t="s">
         <v>55</v>
@@ -8098,10 +8124,10 @@
       <c r="AB17" s="65">
         <v>2541350</v>
       </c>
-      <c r="AC17" s="79">
-        <v>1149975</v>
-      </c>
-      <c r="AD17" s="79">
+      <c r="AC17" s="81">
+        <v>20343</v>
+      </c>
+      <c r="AD17" s="78">
         <v>825214</v>
       </c>
       <c r="AE17" s="62"/>
@@ -8194,10 +8220,10 @@
       <c r="AB18" s="65">
         <v>2541569</v>
       </c>
-      <c r="AC18" s="79">
-        <v>1154555</v>
-      </c>
-      <c r="AD18" s="79">
+      <c r="AC18" s="81">
+        <v>20535</v>
+      </c>
+      <c r="AD18" s="78">
         <v>812779</v>
       </c>
       <c r="AE18" s="62">
@@ -8290,10 +8316,10 @@
       <c r="AB19" s="65">
         <v>2196101</v>
       </c>
-      <c r="AC19" s="79">
-        <v>1153432</v>
-      </c>
-      <c r="AD19" s="79">
+      <c r="AC19" s="81">
+        <v>20364</v>
+      </c>
+      <c r="AD19" s="78">
         <v>812975</v>
       </c>
       <c r="AE19" s="62">
@@ -8388,10 +8414,10 @@
       <c r="AB20" s="65">
         <v>2189464</v>
       </c>
-      <c r="AC20" s="79">
-        <v>1153662</v>
-      </c>
-      <c r="AD20" s="79">
+      <c r="AC20" s="81">
+        <v>20318.469064254801</v>
+      </c>
+      <c r="AD20" s="78">
         <v>812719</v>
       </c>
       <c r="AE20" s="62">
@@ -8486,10 +8512,10 @@
       <c r="AB21" s="65">
         <v>2211616</v>
       </c>
-      <c r="AC21" s="79">
-        <v>1154050</v>
-      </c>
-      <c r="AD21" s="79">
+      <c r="AC21" s="81">
+        <v>20634</v>
+      </c>
+      <c r="AD21" s="78">
         <v>812522</v>
       </c>
       <c r="AE21" s="62">
@@ -8584,10 +8610,10 @@
       <c r="AB22" s="65">
         <v>2191974</v>
       </c>
-      <c r="AC22" s="79">
-        <v>1133959</v>
-      </c>
-      <c r="AD22" s="79">
+      <c r="AC22" s="81">
+        <v>20630</v>
+      </c>
+      <c r="AD22" s="78">
         <v>813100</v>
       </c>
       <c r="AE22" s="62">
@@ -8682,10 +8708,10 @@
       <c r="AB23" s="65">
         <v>2191454</v>
       </c>
-      <c r="AC23" s="79">
-        <v>1133991</v>
-      </c>
-      <c r="AD23" s="79">
+      <c r="AC23" s="81">
+        <v>20629</v>
+      </c>
+      <c r="AD23" s="78">
         <v>812485</v>
       </c>
       <c r="AE23" s="62">
@@ -8780,10 +8806,10 @@
       <c r="AB24" s="65">
         <v>2191311</v>
       </c>
-      <c r="AC24" s="79">
-        <v>1133430</v>
-      </c>
-      <c r="AD24" s="79">
+      <c r="AC24" s="81">
+        <v>20523</v>
+      </c>
+      <c r="AD24" s="78">
         <v>813167</v>
       </c>
       <c r="AE24" s="62">
@@ -8876,10 +8902,10 @@
       <c r="AB25" s="65">
         <v>2191867</v>
       </c>
-      <c r="AC25" s="79">
-        <v>1134183</v>
-      </c>
-      <c r="AD25" s="79">
+      <c r="AC25" s="81">
+        <v>20527</v>
+      </c>
+      <c r="AD25" s="78">
         <v>812834</v>
       </c>
       <c r="AE25" s="62">
@@ -8901,31 +8927,42 @@
       <c r="AK28" s="73"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="76"/>
       <c r="AH29" s="74"/>
       <c r="AI29" s="74"/>
       <c r="AJ29" s="74"/>
       <c r="AK29" s="74"/>
     </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+    </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="78"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8936,8 +8973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B32E04E-C22B-ED4B-85C4-796A1BDA05F3}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9039,10 +9076,10 @@
         <v>54</v>
       </c>
       <c r="AC1" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD1" s="61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="61" t="s">
         <v>55</v>
@@ -10458,10 +10495,10 @@
       <c r="AB17" s="47">
         <v>449686</v>
       </c>
-      <c r="AC17" s="79">
-        <v>105867</v>
-      </c>
-      <c r="AD17" s="79">
+      <c r="AC17" s="83">
+        <v>2268</v>
+      </c>
+      <c r="AD17" s="78">
         <v>313067</v>
       </c>
       <c r="AE17" s="51"/>
@@ -10554,10 +10591,10 @@
       <c r="AB18" s="47">
         <v>449681</v>
       </c>
-      <c r="AC18" s="79">
-        <v>111656</v>
-      </c>
-      <c r="AD18" s="79">
+      <c r="AC18" s="83">
+        <v>2284</v>
+      </c>
+      <c r="AD18" s="78">
         <v>344589</v>
       </c>
       <c r="AE18" s="52">
@@ -10650,10 +10687,10 @@
       <c r="AB19" s="47">
         <v>492314</v>
       </c>
-      <c r="AC19" s="79">
-        <v>112165</v>
-      </c>
-      <c r="AD19" s="79">
+      <c r="AC19" s="83">
+        <v>2261</v>
+      </c>
+      <c r="AD19" s="78">
         <v>345037</v>
       </c>
       <c r="AE19" s="52">
@@ -10748,10 +10785,10 @@
       <c r="AB20" s="47">
         <v>491212</v>
       </c>
-      <c r="AC20" s="79">
-        <v>112054</v>
-      </c>
-      <c r="AD20" s="79">
+      <c r="AC20" s="83">
+        <v>2261.3418506463099</v>
+      </c>
+      <c r="AD20" s="78">
         <v>345116</v>
       </c>
       <c r="AE20" s="52">
@@ -10846,10 +10883,10 @@
       <c r="AB21" s="47">
         <v>491553</v>
       </c>
-      <c r="AC21" s="79">
-        <v>111942</v>
-      </c>
-      <c r="AD21" s="79">
+      <c r="AC21" s="83">
+        <v>2241</v>
+      </c>
+      <c r="AD21" s="78">
         <v>345313</v>
       </c>
       <c r="AE21" s="52">
@@ -10944,10 +10981,10 @@
       <c r="AB22" s="47">
         <v>491350</v>
       </c>
-      <c r="AC22" s="79">
-        <v>111778</v>
-      </c>
-      <c r="AD22" s="79">
+      <c r="AC22" s="83">
+        <v>2353</v>
+      </c>
+      <c r="AD22" s="78">
         <v>345205</v>
       </c>
       <c r="AE22" s="52">
@@ -11042,10 +11079,10 @@
       <c r="AB23" s="47">
         <v>491322</v>
       </c>
-      <c r="AC23" s="79">
-        <v>111677</v>
-      </c>
-      <c r="AD23" s="79">
+      <c r="AC23" s="83">
+        <v>2348</v>
+      </c>
+      <c r="AD23" s="78">
         <v>345244</v>
       </c>
       <c r="AE23" s="52">
@@ -11140,10 +11177,10 @@
       <c r="AB24" s="47">
         <v>491855</v>
       </c>
-      <c r="AC24" s="79">
-        <v>112365</v>
-      </c>
-      <c r="AD24" s="79">
+      <c r="AC24" s="83">
+        <v>2346</v>
+      </c>
+      <c r="AD24" s="78">
         <v>345124</v>
       </c>
       <c r="AE24" s="52">
@@ -11236,10 +11273,10 @@
       <c r="AB25" s="47">
         <v>492113</v>
       </c>
-      <c r="AC25" s="79">
-        <v>112314</v>
-      </c>
-      <c r="AD25" s="79">
+      <c r="AC25" s="83">
+        <v>2344</v>
+      </c>
+      <c r="AD25" s="78">
         <v>345409</v>
       </c>
       <c r="AE25" s="52">
@@ -11358,15 +11395,15 @@
       <c r="V29" s="71"/>
       <c r="W29" s="71"/>
       <c r="X29" s="71"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="78"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="71"/>
@@ -11392,16 +11429,16 @@
       <c r="U30" s="71"/>
       <c r="V30" s="71"/>
       <c r="W30" s="74"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="71"/>
@@ -11455,12 +11492,12 @@
       <c r="U32" s="71"/>
       <c r="V32" s="71"/>
       <c r="W32" s="74"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="76"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
       <c r="AD32" s="74"/>
       <c r="AE32" s="74"/>
     </row>

--- a/process_data/GPP_6210501001.xlsx
+++ b/process_data/GPP_6210501001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119D877-AC04-4849-AEAC-6E38E4D98862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D98CA-2B22-E74E-A46B-382B54FED7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33400" yWindow="4540" windowWidth="38400" windowHeight="20360" activeTab="3" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
+    <workbookView xWindow="-36900" yWindow="5000" windowWidth="38400" windowHeight="20360" activeTab="1" xr2:uid="{2C66FAEA-E0CB-8549-8FB7-1B1C9698EE09}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -696,15 +696,6 @@
     <xf numFmtId="3" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -797,6 +788,12 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4240,8 +4237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244176B4-7511-5248-99A4-5973B793F41B}">
   <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AD25"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4264,162 +4261,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="160" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="Z1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AA1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="61" t="s">
+      <c r="AC1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="61" t="s">
+      <c r="AD1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="61" t="s">
+      <c r="AE1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AF1" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
+      <c r="A2" s="50">
         <v>1995</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="51">
         <v>3069</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="51">
         <v>471</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="51">
         <v>70294</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="51">
         <v>2030</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="51">
         <v>254</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="51">
         <v>1566</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="51">
         <v>16137</v>
       </c>
-      <c r="I2" s="54">
+      <c r="I2" s="51">
         <v>1392</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="51">
         <v>655</v>
       </c>
-      <c r="K2" s="54">
+      <c r="K2" s="51">
         <v>472</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="51">
         <v>1214</v>
       </c>
-      <c r="M2" s="54">
+      <c r="M2" s="51">
         <v>1692</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="51">
         <v>686</v>
       </c>
-      <c r="O2" s="54">
+      <c r="O2" s="51">
         <v>97</v>
       </c>
-      <c r="P2" s="54">
+      <c r="P2" s="51">
         <v>1393</v>
       </c>
-      <c r="Q2" s="54">
+      <c r="Q2" s="51">
         <v>1593</v>
       </c>
-      <c r="R2" s="54">
+      <c r="R2" s="51">
         <v>922</v>
       </c>
-      <c r="S2" s="54">
+      <c r="S2" s="51">
         <v>30</v>
       </c>
-      <c r="T2" s="54">
+      <c r="T2" s="51">
         <v>186</v>
       </c>
       <c r="U2" s="44">
@@ -4437,75 +4434,75 @@
       <c r="Y2" s="44">
         <v>59467272</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="55">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="52">
         <v>143862.554</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="50">
         <v>1996</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="51">
         <v>3305</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="51">
         <v>513</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="51">
         <v>80942</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="51">
         <v>2290</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="51">
         <v>324</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="51">
         <v>5205</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="51">
         <v>19161</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="51">
         <v>1626</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="51">
         <v>819</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="51">
         <v>595</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="51">
         <v>2396</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="51">
         <v>2026</v>
       </c>
-      <c r="N3" s="54">
+      <c r="N3" s="51">
         <v>1130</v>
       </c>
-      <c r="O3" s="54">
+      <c r="O3" s="51">
         <v>185</v>
       </c>
-      <c r="P3" s="54">
+      <c r="P3" s="51">
         <v>1538</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="51">
         <v>1729</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="51">
         <v>764</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="51">
         <v>49</v>
       </c>
-      <c r="T3" s="54">
+      <c r="T3" s="51">
         <v>242</v>
       </c>
       <c r="U3" s="44">
@@ -4523,77 +4520,77 @@
       <c r="Y3" s="44">
         <v>60130190</v>
       </c>
-      <c r="Z3" s="72">
+      <c r="Z3" s="69">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="55">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="52">
         <v>171503.91700000002</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="50">
         <v>1997</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="51">
         <v>4056</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="51">
         <v>474</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="51">
         <v>86917</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="51">
         <v>2697</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="51">
         <v>382</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="51">
         <v>1756</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="51">
         <v>20641</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="51">
         <v>2219</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="51">
         <v>675</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="51">
         <v>575</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="51">
         <v>2221</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="51">
         <v>2382</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="51">
         <v>1194</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="51">
         <v>169</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="51">
         <v>1777</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="51">
         <v>1860</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="51">
         <v>790</v>
       </c>
-      <c r="S4" s="54">
+      <c r="S4" s="51">
         <v>48</v>
       </c>
-      <c r="T4" s="54">
+      <c r="T4" s="51">
         <v>330</v>
       </c>
       <c r="U4" s="44">
@@ -4611,77 +4608,77 @@
       <c r="Y4" s="44">
         <v>60846588</v>
       </c>
-      <c r="Z4" s="72">
+      <c r="Z4" s="69">
         <v>0.10213999999999999</v>
       </c>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="55">
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="52">
         <v>179223.451</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="A5" s="50">
         <v>1998</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="51">
         <v>4805</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="51">
         <v>395</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="51">
         <v>84878</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="51">
         <v>3388</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="51">
         <v>420</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="51">
         <v>1166</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="51">
         <v>22362</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="51">
         <v>2306</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="51">
         <v>666</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="51">
         <v>585</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="51">
         <v>2051</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="51">
         <v>2830</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="51">
         <v>1331</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="51">
         <v>154</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="51">
         <v>2019</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="51">
         <v>2085</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="51">
         <v>882</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="51">
         <v>49</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="51">
         <v>509</v>
       </c>
       <c r="U5" s="44">
@@ -4699,75 +4696,75 @@
       <c r="Y5" s="44">
         <v>61585103</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="55">
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="52">
         <v>180611.80600000001</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="A6" s="50">
         <v>1999</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="51">
         <v>4030</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="51">
         <v>302</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="51">
         <v>92332</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="51">
         <v>2974</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="51">
         <v>503</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="51">
         <v>1397</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="51">
         <v>22431</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="51">
         <v>2483</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="51">
         <v>685</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="51">
         <v>836</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="51">
         <v>1459</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="51">
         <v>3374</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="51">
         <v>1271</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="51">
         <v>207</v>
       </c>
-      <c r="P6" s="54">
+      <c r="P6" s="51">
         <v>2304</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="51">
         <v>2348</v>
       </c>
-      <c r="R6" s="54">
+      <c r="R6" s="51">
         <v>1007</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="51">
         <v>54</v>
       </c>
-      <c r="T6" s="54">
+      <c r="T6" s="51">
         <v>420</v>
       </c>
       <c r="U6" s="44">
@@ -4785,77 +4782,77 @@
       <c r="Y6" s="44">
         <v>62298569</v>
       </c>
-      <c r="Z6" s="72">
+      <c r="Z6" s="69">
         <v>0.24836</v>
       </c>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="55">
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="52">
         <v>189856.70600000001</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
+      <c r="A7" s="50">
         <v>2000</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="51">
         <v>3854</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="51">
         <v>255</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <v>107280</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="51">
         <v>3169</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="51">
         <v>590</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="51">
         <v>1579</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="51">
         <v>27786</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="51">
         <v>2503</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <v>849</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="51">
         <v>829</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="51">
         <v>1502</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="51">
         <v>3388</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="51">
         <v>2438</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="51">
         <v>293</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="51">
         <v>2580</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="51">
         <v>2393</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="51">
         <v>1035</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="51">
         <v>56</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="51">
         <v>540</v>
       </c>
       <c r="U7" s="44">
@@ -4873,77 +4870,77 @@
       <c r="Y7" s="44">
         <v>62952639</v>
       </c>
-      <c r="Z7" s="72">
+      <c r="Z7" s="69">
         <v>0.24471000000000001</v>
       </c>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="55">
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="52">
         <v>219141.84700000001</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="50">
         <v>2001</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="51">
         <v>4577</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="51">
         <v>271</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="51">
         <v>108644</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="51">
         <v>3266</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="51">
         <v>609</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="51">
         <v>1572</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="51">
         <v>26871</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="51">
         <v>2707</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="51">
         <v>917</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="51">
         <v>1048</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="51">
         <v>1608</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="51">
         <v>3155</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="51">
         <v>3154</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="51">
         <v>309</v>
       </c>
-      <c r="P8" s="54">
+      <c r="P8" s="51">
         <v>2830</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="51">
         <v>2444</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="51">
         <v>1119</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="51">
         <v>57</v>
       </c>
-      <c r="T8" s="54">
+      <c r="T8" s="51">
         <v>605</v>
       </c>
       <c r="U8" s="44">
@@ -4961,77 +4958,77 @@
       <c r="Y8" s="44">
         <v>63539190</v>
       </c>
-      <c r="Z8" s="72">
+      <c r="Z8" s="69">
         <v>0.25230999999999998</v>
       </c>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="55">
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="52">
         <v>219060.592</v>
       </c>
     </row>
     <row r="9" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+      <c r="A9" s="50">
         <v>2002</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="51">
         <v>4704</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="51">
         <v>248</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="51">
         <v>117685</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="51">
         <v>3440</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="51">
         <v>545</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="51">
         <v>1678</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="51">
         <v>28811</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="51">
         <v>3440</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="51">
         <v>899</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="51">
         <v>1121</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="51">
         <v>1893</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="51">
         <v>3449</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="51">
         <v>2551</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="51">
         <v>489</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="51">
         <v>2691</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="51">
         <v>2492</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="51">
         <v>1174</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9" s="51">
         <v>57</v>
       </c>
-      <c r="T9" s="54">
+      <c r="T9" s="51">
         <v>570</v>
       </c>
       <c r="U9" s="44">
@@ -5049,77 +5046,77 @@
       <c r="Y9" s="44">
         <v>64069093</v>
       </c>
-      <c r="Z9" s="72">
+      <c r="Z9" s="69">
         <v>0.23055</v>
       </c>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="56">
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="53">
         <v>231122.49200000003</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="50">
         <v>2003</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="51">
         <v>4892</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="51">
         <v>248</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="51">
         <v>138362</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="51">
         <v>3860</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="51">
         <v>952</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="51">
         <v>1745</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="51">
         <v>28845</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="51">
         <v>3569</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="51">
         <v>946</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="51">
         <v>1452</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="51">
         <v>2021</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="51">
         <v>3540</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="51">
         <v>2565</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="51">
         <v>611</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="51">
         <v>2806</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="51">
         <v>2678</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="51">
         <v>1232</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="51">
         <v>97</v>
       </c>
-      <c r="T10" s="54">
+      <c r="T10" s="51">
         <v>600</v>
       </c>
       <c r="U10" s="44">
@@ -5137,77 +5134,77 @@
       <c r="Y10" s="44">
         <v>64549867</v>
       </c>
-      <c r="Z10" s="72">
+      <c r="Z10" s="69">
         <v>0.24534</v>
       </c>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="56">
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="53">
         <v>256743.10100000002</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="A11" s="50">
         <v>2004</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="51">
         <v>5797</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="51">
         <v>537</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="51">
         <v>146185</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="51">
         <v>4317</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="51">
         <v>916</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="51">
         <v>2036</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="51">
         <v>29309</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="51">
         <v>3758</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="51">
         <v>1183</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="51">
         <v>1642</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="51">
         <v>2260</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="51">
         <v>3607</v>
       </c>
-      <c r="N11" s="54">
+      <c r="N11" s="51">
         <v>4916</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="51">
         <v>797</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="51">
         <v>3160</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="51">
         <v>3565</v>
       </c>
-      <c r="R11" s="54">
+      <c r="R11" s="51">
         <v>1394</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="51">
         <v>162</v>
       </c>
-      <c r="T11" s="54">
+      <c r="T11" s="51">
         <v>763</v>
       </c>
       <c r="U11" s="44">
@@ -5225,86 +5222,86 @@
       <c r="Y11" s="44">
         <v>64995303</v>
       </c>
-      <c r="Z11" s="72">
+      <c r="Z11" s="69">
         <v>0.23827999999999999</v>
       </c>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="56">
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="53">
         <v>271765.11700000003</v>
       </c>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="71"/>
     </row>
     <row r="12" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="A12" s="50">
         <v>2005</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="51">
         <v>5903</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="51">
         <v>586</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="51">
         <v>149386</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="51">
         <v>4430</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="51">
         <v>710</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="51">
         <v>2539</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="51">
         <v>28303</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="51">
         <v>3667</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <v>1406</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="51">
         <v>1568</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="51">
         <v>2679</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12" s="51">
         <v>3560</v>
       </c>
-      <c r="N12" s="54">
+      <c r="N12" s="51">
         <v>5489</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="51">
         <v>1012</v>
       </c>
-      <c r="P12" s="54">
+      <c r="P12" s="51">
         <v>3916</v>
       </c>
-      <c r="Q12" s="54">
+      <c r="Q12" s="51">
         <v>3428</v>
       </c>
-      <c r="R12" s="54">
+      <c r="R12" s="51">
         <v>1584</v>
       </c>
-      <c r="S12" s="54">
+      <c r="S12" s="51">
         <v>200</v>
       </c>
-      <c r="T12" s="54">
+      <c r="T12" s="51">
         <v>1022</v>
       </c>
       <c r="U12" s="44">
@@ -5322,77 +5319,77 @@
       <c r="Y12" s="44">
         <v>65416189</v>
       </c>
-      <c r="Z12" s="72">
+      <c r="Z12" s="69">
         <v>0.21889</v>
       </c>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="56">
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="53">
         <v>273739.91000000003</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+      <c r="A13" s="50">
         <v>2006</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="51">
         <v>6615</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="51">
         <v>933</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="51">
         <v>167232</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="51">
         <v>5012</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="51">
         <v>371</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="51">
         <v>2352</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="51">
         <v>27860</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="51">
         <v>6311</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="51">
         <v>1542</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="51">
         <v>1466</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="51">
         <v>3493</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="51">
         <v>3679</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="51">
         <v>6753</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="51">
         <v>1084</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="51">
         <v>3736</v>
       </c>
-      <c r="Q13" s="54">
+      <c r="Q13" s="51">
         <v>3822</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="51">
         <v>1710</v>
       </c>
-      <c r="S13" s="54">
+      <c r="S13" s="51">
         <v>169</v>
       </c>
-      <c r="T13" s="54">
+      <c r="T13" s="51">
         <v>1428</v>
       </c>
       <c r="U13" s="44">
@@ -5410,79 +5407,79 @@
       <c r="Y13" s="44">
         <v>65812540</v>
       </c>
-      <c r="Z13" s="72">
+      <c r="Z13" s="69">
         <v>0.23271</v>
       </c>
-      <c r="AA13" s="57">
+      <c r="AA13" s="54">
         <v>15859</v>
       </c>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="56">
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="53">
         <v>298954.25300000003</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="50">
         <v>2007</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="51">
         <v>7159</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="51">
         <v>1006</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="51">
         <v>194950</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="51">
         <v>5056</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="51">
         <v>441</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="51">
         <v>3471</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="51">
         <v>30847</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="51">
         <v>7862</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="51">
         <v>1888</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="51">
         <v>1747</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="51">
         <v>3516</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14" s="51">
         <v>3968</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="51">
         <v>8859</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="51">
         <v>1466</v>
       </c>
-      <c r="P14" s="54">
+      <c r="P14" s="51">
         <v>3701</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14" s="51">
         <v>4221</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="51">
         <v>1763</v>
       </c>
-      <c r="S14" s="54">
+      <c r="S14" s="51">
         <v>115</v>
       </c>
-      <c r="T14" s="54">
+      <c r="T14" s="51">
         <v>1484</v>
       </c>
       <c r="U14" s="44">
@@ -5500,88 +5497,88 @@
       <c r="Y14" s="44">
         <v>66182064</v>
       </c>
-      <c r="Z14" s="72">
+      <c r="Z14" s="69">
         <v>0.20080000000000001</v>
       </c>
-      <c r="AA14" s="57">
+      <c r="AA14" s="54">
         <v>16757</v>
       </c>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="56">
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="53">
         <v>339993.39600000001</v>
       </c>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="74"/>
-      <c r="AO14" s="74"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="74"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
     </row>
     <row r="15" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
+      <c r="A15" s="50">
         <v>2008</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="51">
         <v>11149</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="51">
         <v>1037</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="51">
         <v>267528</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="51">
         <v>4792</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="51">
         <v>514</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="51">
         <v>2851</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="51">
         <v>35032</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="51">
         <v>10191</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <v>2225</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="51">
         <v>1876</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="51">
         <v>3956</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="51">
         <v>4332</v>
       </c>
-      <c r="N15" s="54">
+      <c r="N15" s="51">
         <v>10421</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="51">
         <v>1540</v>
       </c>
-      <c r="P15" s="54">
+      <c r="P15" s="51">
         <v>5272</v>
       </c>
-      <c r="Q15" s="54">
+      <c r="Q15" s="51">
         <v>4556</v>
       </c>
-      <c r="R15" s="54">
+      <c r="R15" s="51">
         <v>1915</v>
       </c>
-      <c r="S15" s="54">
+      <c r="S15" s="51">
         <v>110</v>
       </c>
-      <c r="T15" s="54">
+      <c r="T15" s="51">
         <v>1804</v>
       </c>
       <c r="U15" s="44">
@@ -5599,79 +5596,79 @@
       <c r="Y15" s="44">
         <v>66530980</v>
       </c>
-      <c r="Z15" s="72">
+      <c r="Z15" s="69">
         <v>0.20330999999999999</v>
       </c>
-      <c r="AA15" s="57">
+      <c r="AA15" s="54">
         <v>19201</v>
       </c>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="56">
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="53">
         <v>438555.44500000001</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="50">
         <v>2009</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="51">
         <v>10239</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="51">
         <v>978</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="51">
         <v>227338</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="51">
         <v>5125</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="51">
         <v>566</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="51">
         <v>2734</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="51">
         <v>31486</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="51">
         <v>10669</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="51">
         <v>2244</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="51">
         <v>1704</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="51">
         <v>4194</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16" s="51">
         <v>3872</v>
       </c>
-      <c r="N16" s="54">
+      <c r="N16" s="51">
         <v>9371</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="51">
         <v>1042</v>
       </c>
-      <c r="P16" s="54">
+      <c r="P16" s="51">
         <v>5430</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16" s="51">
         <v>4793</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="51">
         <v>2325</v>
       </c>
-      <c r="S16" s="54">
+      <c r="S16" s="51">
         <v>101</v>
       </c>
-      <c r="T16" s="54">
+      <c r="T16" s="51">
         <v>1627</v>
       </c>
       <c r="U16" s="44">
@@ -5689,79 +5686,79 @@
       <c r="Y16" s="44">
         <v>66866834</v>
       </c>
-      <c r="Z16" s="72">
+      <c r="Z16" s="69">
         <v>0.23455000000000001</v>
       </c>
-      <c r="AA16" s="57">
+      <c r="AA16" s="54">
         <v>20717</v>
       </c>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="56">
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="53">
         <v>379657.777</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+      <c r="A17" s="50">
         <v>2010</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="51">
         <v>8556</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="51">
         <v>1040</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="51">
         <v>266438</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="51">
         <v>5826</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="51">
         <v>571</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="51">
         <v>3464</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="51">
         <v>36086</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="51">
         <v>12306</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="51">
         <v>2398</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="51">
         <v>1718</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="51">
         <v>4273</v>
       </c>
-      <c r="M17" s="54">
+      <c r="M17" s="51">
         <v>3250</v>
       </c>
-      <c r="N17" s="54">
+      <c r="N17" s="51">
         <v>9860</v>
       </c>
-      <c r="O17" s="54">
+      <c r="O17" s="51">
         <v>1328</v>
       </c>
-      <c r="P17" s="54">
+      <c r="P17" s="51">
         <v>5558</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="Q17" s="51">
         <v>5024</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="51">
         <v>2409</v>
       </c>
-      <c r="S17" s="54">
+      <c r="S17" s="51">
         <v>129</v>
       </c>
-      <c r="T17" s="54">
+      <c r="T17" s="51">
         <v>1917</v>
       </c>
       <c r="U17" s="44">
@@ -5779,83 +5776,83 @@
       <c r="Y17" s="44">
         <v>67195032</v>
       </c>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="57">
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="54">
         <v>18789</v>
       </c>
-      <c r="AB17" s="65">
+      <c r="AB17" s="62">
         <v>1155861</v>
       </c>
-      <c r="AC17" s="81">
+      <c r="AC17" s="78">
         <v>9042</v>
       </c>
-      <c r="AD17" s="81">
+      <c r="AD17" s="78">
         <v>1046128</v>
       </c>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="56">
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="53">
         <v>427733.43600000005</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="50">
         <v>2011</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="51">
         <v>6999</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="51">
         <v>1222</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="51">
         <v>217934</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="51">
         <v>5269</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="51">
         <v>491</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="51">
         <v>3100</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="51">
         <v>34003</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="51">
         <v>11681</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <v>2119</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="51">
         <v>1474</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="51">
         <v>4689</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="51">
         <v>3366</v>
       </c>
-      <c r="N18" s="54">
+      <c r="N18" s="51">
         <v>9994</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="51">
         <v>1313</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="51">
         <v>6273</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="Q18" s="51">
         <v>4945</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="51">
         <v>2730</v>
       </c>
-      <c r="S18" s="54">
+      <c r="S18" s="51">
         <v>149</v>
       </c>
-      <c r="T18" s="54">
+      <c r="T18" s="51">
         <v>2181</v>
       </c>
       <c r="U18" s="44">
@@ -5873,87 +5870,87 @@
       <c r="Y18" s="44">
         <v>67518379</v>
       </c>
-      <c r="Z18" s="72">
+      <c r="Z18" s="69">
         <v>0.36146</v>
       </c>
-      <c r="AA18" s="58">
+      <c r="AA18" s="55">
         <v>17534.3</v>
       </c>
-      <c r="AB18" s="65">
+      <c r="AB18" s="62">
         <v>1158113</v>
       </c>
-      <c r="AC18" s="81">
+      <c r="AC18" s="78">
         <v>9461</v>
       </c>
-      <c r="AD18" s="81">
+      <c r="AD18" s="78">
         <v>1065030</v>
       </c>
-      <c r="AE18" s="62">
+      <c r="AE18" s="59">
         <v>147</v>
       </c>
-      <c r="AF18" s="55">
+      <c r="AF18" s="52">
         <v>365800.94500000001</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+      <c r="A19" s="50">
         <v>2012</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="51">
         <v>11907</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="51">
         <v>1209</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="51">
         <v>218585</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="51">
         <v>5945</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="51">
         <v>558</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="51">
         <v>5891</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="51">
         <v>31525</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="51">
         <v>12345</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="51">
         <v>2317</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="51">
         <v>1347</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="51">
         <v>5613</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19" s="51">
         <v>3839</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="51">
         <v>12815</v>
       </c>
-      <c r="O19" s="54">
+      <c r="O19" s="51">
         <v>2302</v>
       </c>
-      <c r="P19" s="54">
+      <c r="P19" s="51">
         <v>6274</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="51">
         <v>4954</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="51">
         <v>3170</v>
       </c>
-      <c r="S19" s="54">
+      <c r="S19" s="51">
         <v>188</v>
       </c>
-      <c r="T19" s="54">
+      <c r="T19" s="51">
         <v>2090</v>
       </c>
       <c r="U19" s="44">
@@ -5971,85 +5968,85 @@
       <c r="Y19" s="44">
         <v>67835969</v>
       </c>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="58">
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="55">
         <v>25215.89</v>
       </c>
-      <c r="AB19" s="65">
+      <c r="AB19" s="62">
         <v>1180726</v>
       </c>
-      <c r="AC19" s="81">
+      <c r="AC19" s="78">
         <v>9598</v>
       </c>
-      <c r="AD19" s="81">
+      <c r="AD19" s="78">
         <v>1065565</v>
       </c>
-      <c r="AE19" s="62">
+      <c r="AE19" s="59">
         <v>109</v>
       </c>
-      <c r="AF19" s="55">
+      <c r="AF19" s="52">
         <v>378620.53700000001</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+      <c r="A20" s="50">
         <v>2013</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="51">
         <v>15892</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="51">
         <v>1187</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="51">
         <v>287459</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="51">
         <v>6688</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="51">
         <v>608</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="51">
         <v>3112</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="51">
         <v>37622</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="51">
         <v>10198</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="51">
         <v>2378</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="51">
         <v>1285</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="51">
         <v>6433</v>
       </c>
-      <c r="M20" s="54">
+      <c r="M20" s="51">
         <v>3888</v>
       </c>
-      <c r="N20" s="54">
+      <c r="N20" s="51">
         <v>12115</v>
       </c>
-      <c r="O20" s="54">
+      <c r="O20" s="51">
         <v>2492</v>
       </c>
-      <c r="P20" s="54">
+      <c r="P20" s="51">
         <v>6216</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="Q20" s="51">
         <v>5047</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="51">
         <v>3209</v>
       </c>
-      <c r="S20" s="54">
+      <c r="S20" s="51">
         <v>192</v>
       </c>
-      <c r="T20" s="54">
+      <c r="T20" s="51">
         <v>2098</v>
       </c>
       <c r="U20" s="44">
@@ -6067,87 +6064,87 @@
       <c r="Y20" s="44">
         <v>68144519</v>
       </c>
-      <c r="Z20" s="72">
+      <c r="Z20" s="69">
         <v>0.44163999999999998</v>
       </c>
-      <c r="AA20" s="58">
+      <c r="AA20" s="55">
         <v>20493.7</v>
       </c>
-      <c r="AB20" s="65">
+      <c r="AB20" s="62">
         <v>1177369</v>
       </c>
-      <c r="AC20" s="81">
+      <c r="AC20" s="78">
         <v>9573.8304647791701</v>
       </c>
-      <c r="AD20" s="81">
+      <c r="AD20" s="78">
         <v>1065335.81531144</v>
       </c>
-      <c r="AE20" s="62">
+      <c r="AE20" s="59">
         <v>93</v>
       </c>
-      <c r="AF20" s="55">
+      <c r="AF20" s="52">
         <v>461789.49600000004</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="50">
         <v>2014</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="51">
         <v>12116</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="51">
         <v>1334</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="51">
         <v>254115</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="51">
         <v>6854</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="51">
         <v>648</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="51">
         <v>2851</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="51">
         <v>36495</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="51">
         <v>11692</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <v>2370</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="51">
         <v>1360</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="51">
         <v>7019</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="51">
         <v>3473</v>
       </c>
-      <c r="N21" s="54">
+      <c r="N21" s="51">
         <v>11427</v>
       </c>
-      <c r="O21" s="54">
+      <c r="O21" s="51">
         <v>2687</v>
       </c>
-      <c r="P21" s="54">
+      <c r="P21" s="51">
         <v>5728</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="Q21" s="51">
         <v>5286</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="51">
         <v>3365</v>
       </c>
-      <c r="S21" s="54">
+      <c r="S21" s="51">
         <v>193</v>
       </c>
-      <c r="T21" s="54">
+      <c r="T21" s="51">
         <v>1995</v>
       </c>
       <c r="U21" s="44">
@@ -6165,87 +6162,87 @@
       <c r="Y21" s="44">
         <v>68438748</v>
       </c>
-      <c r="Z21" s="72">
+      <c r="Z21" s="69">
         <v>0.47987999999999997</v>
       </c>
-      <c r="AA21" s="58">
+      <c r="AA21" s="55">
         <v>20409.63</v>
       </c>
-      <c r="AB21" s="65">
+      <c r="AB21" s="62">
         <v>1178443</v>
       </c>
-      <c r="AC21" s="81">
+      <c r="AC21" s="78">
         <v>9510</v>
       </c>
-      <c r="AD21" s="81">
+      <c r="AD21" s="78">
         <v>1065583</v>
       </c>
-      <c r="AE21" s="62">
+      <c r="AE21" s="59">
         <v>117</v>
       </c>
-      <c r="AF21" s="55">
+      <c r="AF21" s="52">
         <v>417614.34099999996</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="53">
+      <c r="A22" s="50">
         <v>2015</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="51">
         <v>10473</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="51">
         <v>2067</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="51">
         <v>292508</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="51">
         <v>6645</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="51">
         <v>689</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="51">
         <v>3694</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="51">
         <v>43085</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="51">
         <v>12136</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="51">
         <v>2509</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="51">
         <v>1476</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="51">
         <v>7203</v>
       </c>
-      <c r="M22" s="54">
+      <c r="M22" s="51">
         <v>3981</v>
       </c>
-      <c r="N22" s="54">
+      <c r="N22" s="51">
         <v>12069</v>
       </c>
-      <c r="O22" s="54">
+      <c r="O22" s="51">
         <v>2608</v>
       </c>
-      <c r="P22" s="54">
+      <c r="P22" s="51">
         <v>6037</v>
       </c>
-      <c r="Q22" s="54">
+      <c r="Q22" s="51">
         <v>5679</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="51">
         <v>3503</v>
       </c>
-      <c r="S22" s="54">
+      <c r="S22" s="51">
         <v>192</v>
       </c>
-      <c r="T22" s="54">
+      <c r="T22" s="51">
         <v>1679</v>
       </c>
       <c r="U22" s="44">
@@ -6263,87 +6260,87 @@
       <c r="Y22" s="44">
         <v>68714519</v>
       </c>
-      <c r="Z22" s="72">
+      <c r="Z22" s="69">
         <v>0.61609000000000003</v>
       </c>
-      <c r="AA22" s="58">
+      <c r="AA22" s="55">
         <v>22218.1</v>
       </c>
-      <c r="AB22" s="65">
+      <c r="AB22" s="62">
         <v>1177896</v>
       </c>
-      <c r="AC22" s="81">
+      <c r="AC22" s="78">
         <v>9500</v>
       </c>
-      <c r="AD22" s="81">
+      <c r="AD22" s="78">
         <v>1065016</v>
       </c>
-      <c r="AE22" s="62">
+      <c r="AE22" s="59">
         <v>132</v>
       </c>
-      <c r="AF22" s="55">
+      <c r="AF22" s="52">
         <v>468325.83400000003</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="53">
+      <c r="A23" s="50">
         <v>2016</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="51">
         <v>9196</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="51">
         <v>2261</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="51">
         <v>272229</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="51">
         <v>6750</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="51">
         <v>716</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="51">
         <v>4024</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="51">
         <v>44196</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="51">
         <v>12904</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="51">
         <v>2648</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="51">
         <v>1460</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="51">
         <v>8019</v>
       </c>
-      <c r="M23" s="54">
+      <c r="M23" s="51">
         <v>4155</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="51">
         <v>10566</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="51">
         <v>2610</v>
       </c>
-      <c r="P23" s="54">
+      <c r="P23" s="51">
         <v>6348</v>
       </c>
-      <c r="Q23" s="54">
+      <c r="Q23" s="51">
         <v>5591</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="51">
         <v>3725</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="51">
         <v>239</v>
       </c>
-      <c r="T23" s="54">
+      <c r="T23" s="51">
         <v>1671</v>
       </c>
       <c r="U23" s="44">
@@ -6361,87 +6358,87 @@
       <c r="Y23" s="44">
         <v>68971313</v>
       </c>
-      <c r="Z23" s="72">
+      <c r="Z23" s="69">
         <v>0.77817000000000003</v>
       </c>
-      <c r="AA23" s="58">
+      <c r="AA23" s="55">
         <v>23095.32</v>
       </c>
-      <c r="AB23" s="65">
+      <c r="AB23" s="62">
         <v>1178345</v>
       </c>
-      <c r="AC23" s="81">
+      <c r="AC23" s="78">
         <v>9711</v>
       </c>
-      <c r="AD23" s="81">
+      <c r="AD23" s="78">
         <v>1065315</v>
       </c>
-      <c r="AE23" s="62">
+      <c r="AE23" s="59">
         <v>121</v>
       </c>
-      <c r="AF23" s="55">
+      <c r="AF23" s="52">
         <v>444803.565</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
+      <c r="A24" s="50">
         <v>2017</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="51">
         <v>10334</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="51">
         <v>2190</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="51">
         <v>268841</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="51">
         <v>9169</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="51">
         <v>801</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="51">
         <v>4736</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="51">
         <v>46668</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="51">
         <v>14165</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="51">
         <v>2987</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="51">
         <v>1576</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="51">
         <v>8037</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24" s="51">
         <v>5199</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="51">
         <v>9964</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="51">
         <v>2986</v>
       </c>
-      <c r="P24" s="54">
+      <c r="P24" s="51">
         <v>6368</v>
       </c>
-      <c r="Q24" s="54">
+      <c r="Q24" s="51">
         <v>5771</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="51">
         <v>3955</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="51">
         <v>286</v>
       </c>
-      <c r="T24" s="54">
+      <c r="T24" s="51">
         <v>1696</v>
       </c>
       <c r="U24" s="44">
@@ -6459,87 +6456,87 @@
       <c r="Y24" s="44">
         <v>69209817</v>
       </c>
-      <c r="Z24" s="72">
+      <c r="Z24" s="69">
         <v>1.00179</v>
       </c>
-      <c r="AA24" s="58">
+      <c r="AA24" s="55">
         <v>23780.19</v>
       </c>
-      <c r="AB24" s="65">
+      <c r="AB24" s="62">
         <v>1178698</v>
       </c>
-      <c r="AC24" s="81">
+      <c r="AC24" s="78">
         <v>9720</v>
       </c>
-      <c r="AD24" s="81">
+      <c r="AD24" s="78">
         <v>1065376</v>
       </c>
-      <c r="AE24" s="62">
+      <c r="AE24" s="59">
         <v>117</v>
       </c>
-      <c r="AF24" s="55">
+      <c r="AF24" s="52">
         <v>449602.96699999995</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="53">
+      <c r="A25" s="50">
         <v>2018</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="51">
         <v>11377</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="51">
         <v>2464</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="51">
         <v>265997</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="51">
         <v>9679</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="51">
         <v>921</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="51">
         <v>5058</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="51">
         <v>48725</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="51">
         <v>16430</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="51">
         <v>3360</v>
       </c>
-      <c r="K25" s="54">
+      <c r="K25" s="51">
         <v>1769</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="51">
         <v>8467</v>
       </c>
-      <c r="M25" s="54">
+      <c r="M25" s="51">
         <v>4806</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N25" s="51">
         <v>9299</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O25" s="51">
         <v>3270</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="51">
         <v>6906</v>
       </c>
-      <c r="Q25" s="54">
+      <c r="Q25" s="51">
         <v>7585</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="51">
         <v>4467</v>
       </c>
-      <c r="S25" s="54">
+      <c r="S25" s="51">
         <v>331</v>
       </c>
-      <c r="T25" s="54">
+      <c r="T25" s="51">
         <v>1790</v>
       </c>
       <c r="U25" s="44">
@@ -6557,36 +6554,36 @@
       <c r="Y25" s="44">
         <v>69428454</v>
       </c>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="58">
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="55">
         <v>22790.080000000002</v>
       </c>
-      <c r="AB25" s="65">
+      <c r="AB25" s="62">
         <v>1178475</v>
       </c>
-      <c r="AC25" s="81">
+      <c r="AC25" s="78">
         <v>9713</v>
       </c>
-      <c r="AD25" s="81">
+      <c r="AD25" s="78">
         <v>1065197</v>
       </c>
-      <c r="AE25" s="62">
+      <c r="AE25" s="59">
         <v>96</v>
       </c>
-      <c r="AF25" s="55">
+      <c r="AF25" s="52">
         <v>454952.54100000003</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="82"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6595,10 +6592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB9047E-B268-2648-8545-D88A4802D6F0}">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AX32"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC25"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF2:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6620,162 +6617,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="140" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="Z1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AA1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="61" t="s">
+      <c r="AC1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="61" t="s">
+      <c r="AD1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="61" t="s">
+      <c r="AE1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AF1" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="64">
         <v>5391.5758539999997</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="64">
         <v>19.009823000000001</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="64">
         <v>7176.043232</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="64">
         <v>590.23870599999998</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="64">
         <v>142.27762200000001</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="64">
         <v>3391.0051010000002</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="64">
         <v>3484.5076330000002</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="64">
         <v>1016.73673</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="64">
         <v>176.89891700000001</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="64">
         <v>195.790885</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="64">
         <v>1521.8594969999999</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="64">
         <v>1211.3843770000001</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="64">
         <v>6.45967</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="64">
         <v>124.472756</v>
       </c>
-      <c r="P2" s="67">
+      <c r="P2" s="64">
         <v>4819.9535689999993</v>
       </c>
-      <c r="Q2" s="67">
+      <c r="Q2" s="64">
         <v>1504.610046</v>
       </c>
-      <c r="R2" s="67">
+      <c r="R2" s="64">
         <v>716.65538200000003</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="64">
         <v>26.557051999999999</v>
       </c>
-      <c r="T2" s="67">
+      <c r="T2" s="64">
         <v>154.69646499999999</v>
       </c>
       <c r="U2" s="44">
@@ -6794,74 +6791,74 @@
         <v>59467272</v>
       </c>
       <c r="Z2" s="44"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="55">
-        <v>143862.554</v>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="81">
+        <v>42592.536</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="A3" s="63">
         <v>1996</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="64">
         <v>6206.6825580000004</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="64">
         <v>37.744703000000001</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="64">
         <v>6810.3174569999992</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="64">
         <v>677.21830699999998</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="64">
         <v>137.42399900000001</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="64">
         <v>7728.6456310000003</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="64">
         <v>3737.141208</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="64">
         <v>1113.2568200000001</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="64">
         <v>153.858116</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="64">
         <v>224.36921100000001</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="64">
         <v>1600.252772</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="64">
         <v>1423.189247</v>
       </c>
-      <c r="N3" s="67">
+      <c r="N3" s="64">
         <v>29.954806999999999</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="64">
         <v>141.783152</v>
       </c>
-      <c r="P3" s="67">
+      <c r="P3" s="64">
         <v>5143.6857600000003</v>
       </c>
-      <c r="Q3" s="67">
+      <c r="Q3" s="64">
         <v>1636.4712569999999</v>
       </c>
-      <c r="R3" s="67">
+      <c r="R3" s="64">
         <v>818.21109899999999</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="64">
         <v>42.952067999999997</v>
       </c>
-      <c r="T3" s="67">
+      <c r="T3" s="64">
         <v>183.70074600000001</v>
       </c>
       <c r="U3" s="44">
@@ -6882,74 +6879,74 @@
       <c r="Z3" s="44">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="55">
-        <v>171503.91700000002</v>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="81">
+        <v>50643.659000000007</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="64">
         <v>6014.4152150000009</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="64">
         <v>36.238534999999999</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="64">
         <v>6988.106194</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="64">
         <v>817.94111899999996</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="64">
         <v>149.15933000000001</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="64">
         <v>5647.8942470000002</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="64">
         <v>4542.778789</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="64">
         <v>1172.7838609999999</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="64">
         <v>140.14187899999999</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="64">
         <v>234.72714300000001</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="64">
         <v>1491.5824909999999</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="64">
         <v>1633.6141990000001</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="64">
         <v>32.264023000000002</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="64">
         <v>134.53321399999999</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="64">
         <v>5642.8587209999996</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="Q4" s="64">
         <v>1770.697394</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="64">
         <v>838.40557899999999</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="64">
         <v>42.137507999999997</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="64">
         <v>178.92272500000001</v>
       </c>
       <c r="U4" s="44">
@@ -6970,74 +6967,74 @@
       <c r="Z4" s="44">
         <v>0.10213999999999999</v>
       </c>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="55">
-        <v>179223.451</v>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="81">
+        <v>49943.407000000007</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="64">
         <v>6270.1771489999992</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="64">
         <v>28.193052999999999</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="64">
         <v>5739.5746220000001</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="64">
         <v>1090.8698690000001</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="64">
         <v>130.48914300000001</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="64">
         <v>3182.2889129999999</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="64">
         <v>4987.8019489999997</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="64">
         <v>1245.8561259999999</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="64">
         <v>474.66292900000002</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="64">
         <v>229.726314</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="64">
         <v>1468.5692489999999</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="64">
         <v>1912.106225</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="64">
         <v>17.17709</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="64">
         <v>154.05838800000001</v>
       </c>
-      <c r="P5" s="67">
+      <c r="P5" s="64">
         <v>6305.8568340000002</v>
       </c>
-      <c r="Q5" s="67">
+      <c r="Q5" s="64">
         <v>2030.665974</v>
       </c>
-      <c r="R5" s="67">
+      <c r="R5" s="64">
         <v>894.04171399999996</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="64">
         <v>42.357120000000002</v>
       </c>
-      <c r="T5" s="67">
+      <c r="T5" s="64">
         <v>178.815946</v>
       </c>
       <c r="U5" s="44">
@@ -7056,74 +7053,74 @@
         <v>61585103</v>
       </c>
       <c r="Z5" s="44"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="55">
-        <v>180611.80600000001</v>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="81">
+        <v>48207.328999999998</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="64">
         <v>5684.6740969999992</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="64">
         <v>42.046275999999999</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="64">
         <v>4594.756351</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="64">
         <v>958.72226899999998</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="64">
         <v>143.73449500000001</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="64">
         <v>2304.8760779999998</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="64">
         <v>4652.3368540000001</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="64">
         <v>1226.1777950000001</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="64">
         <v>564.89695200000006</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="64">
         <v>241.43656999999999</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="64">
         <v>1110.1148009999999</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="64">
         <v>2311.0051199999998</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="64">
         <v>19.834430999999999</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="64">
         <v>193.13363899999999</v>
       </c>
-      <c r="P6" s="67">
+      <c r="P6" s="64">
         <v>6774.3252739999998</v>
       </c>
-      <c r="Q6" s="67">
+      <c r="Q6" s="64">
         <v>2163.7702920000002</v>
       </c>
-      <c r="R6" s="67">
+      <c r="R6" s="64">
         <v>855.69454699999994</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="64">
         <v>47.004904000000003</v>
       </c>
-      <c r="T6" s="67">
+      <c r="T6" s="64">
         <v>173.65217100000001</v>
       </c>
       <c r="U6" s="44">
@@ -7144,74 +7141,74 @@
       <c r="Z6" s="44">
         <v>0.24836</v>
       </c>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="55">
-        <v>189856.70600000001</v>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="81">
+        <v>44913.88</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="64">
         <v>6101.7808180000002</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="64">
         <v>19.685466000000002</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="64">
         <v>5106.5363270000007</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="64">
         <v>1056.5439260000001</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="64">
         <v>181.363449</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="64">
         <v>1693.173646</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="64">
         <v>5657.5769979999995</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="64">
         <v>1092.173499</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="64">
         <v>585.61596999999995</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="64">
         <v>313.33488599999998</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="64">
         <v>1106.9162590000001</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="64">
         <v>2363.7076809999999</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="64">
         <v>23.493938</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="64">
         <v>156.66572400000001</v>
       </c>
-      <c r="P7" s="67">
+      <c r="P7" s="64">
         <v>7643.8283569999994</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="64">
         <v>2246.9812310000002</v>
       </c>
-      <c r="R7" s="67">
+      <c r="R7" s="64">
         <v>880.76673300000004</v>
       </c>
-      <c r="S7" s="67">
+      <c r="S7" s="64">
         <v>48.677945999999999</v>
       </c>
-      <c r="T7" s="67">
+      <c r="T7" s="64">
         <v>200.359486</v>
       </c>
       <c r="U7" s="44">
@@ -7232,74 +7229,74 @@
       <c r="Z7" s="44">
         <v>0.24471000000000001</v>
       </c>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="55">
-        <v>219141.84700000001</v>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="81">
+        <v>47871.434000000001</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="64">
         <v>6704.374562</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="64">
         <v>27.442478000000001</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="64">
         <v>7786.63699</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="64">
         <v>1087.192094</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="64">
         <v>195.98029199999999</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="64">
         <v>2188.2464249999998</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="64">
         <v>5226.6517320000003</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="64">
         <v>1114.796732</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="64">
         <v>581.19999600000006</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="64">
         <v>397.56017000000003</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="64">
         <v>1171.4860779999999</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="64">
         <v>2237.7930419999998</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="64">
         <v>18.949171</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="64">
         <v>312.79471699999999</v>
       </c>
-      <c r="P8" s="67">
+      <c r="P8" s="64">
         <v>7867.5334849999999</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="64">
         <v>2283.8550730000002</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="64">
         <v>964.67942300000004</v>
       </c>
-      <c r="S8" s="67">
+      <c r="S8" s="64">
         <v>49.748054000000003</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="64">
         <v>220.330814</v>
       </c>
       <c r="U8" s="44">
@@ -7320,74 +7317,74 @@
       <c r="Z8" s="44">
         <v>0.25230999999999998</v>
       </c>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="55">
-        <v>219060.592</v>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="81">
+        <v>52910.182000000001</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="65">
         <v>6495.3498030000001</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="65">
         <v>31.694595</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="65">
         <v>12221.180023999999</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="65">
         <v>1129.3474699999999</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="65">
         <v>176.04478599999999</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="65">
         <v>2224.4460779999999</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="65">
         <v>5545.6078399999997</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="65">
         <v>1423.8312699999999</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="65">
         <v>242.56599700000001</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="65">
         <v>382.51189299999999</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="65">
         <v>1293.409537</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="65">
         <v>2435.280448</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="65">
         <v>16.311499000000001</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="65">
         <v>212.07455200000001</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="65">
         <v>9349.3598559999991</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="65">
         <v>2282.7811280000001</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="65">
         <v>1014.102584</v>
       </c>
-      <c r="S9" s="68">
+      <c r="S9" s="65">
         <v>50.203249</v>
       </c>
-      <c r="T9" s="68">
+      <c r="T9" s="65">
         <v>235.141682</v>
       </c>
       <c r="U9" s="44">
@@ -7408,74 +7405,74 @@
       <c r="Z9" s="44">
         <v>0.23055</v>
       </c>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="56">
-        <v>231122.49200000003</v>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="81">
+        <v>61030.759000000005</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="65">
         <v>7014.641912</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <v>55.201692999999999</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="65">
         <v>14449.786892</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="65">
         <v>1240.583435</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="65">
         <v>176.639261</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="65">
         <v>2001.4497670000001</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="65">
         <v>5403.8761489999997</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="65">
         <v>1325.3334460000001</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="65">
         <v>245.50652199999999</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="65">
         <v>461.78232100000002</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="65">
         <v>1367.61502</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="65">
         <v>2514.535265</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="65">
         <v>19.876991</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="65">
         <v>214.62754200000001</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="65">
         <v>8853.6782640000001</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="65">
         <v>2458.8356739999999</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="65">
         <v>966.89520100000004</v>
       </c>
-      <c r="S10" s="68">
+      <c r="S10" s="65">
         <v>87.546211999999997</v>
       </c>
-      <c r="T10" s="68">
+      <c r="T10" s="65">
         <v>272.98862100000002</v>
       </c>
       <c r="U10" s="44">
@@ -7496,74 +7493,74 @@
       <c r="Z10" s="44">
         <v>0.24534</v>
       </c>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="56">
-        <v>256743.10100000002</v>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="81">
+        <v>63989.59</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="65">
         <v>7333.6659089999994</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <v>85.532655000000005</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="65">
         <v>14609.135541</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="65">
         <v>1420.0946489999999</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="65">
         <v>215.456435</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="65">
         <v>1908.8842549999999</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="65">
         <v>5598.8796129999992</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="65">
         <v>1230.0797379999999</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="65">
         <v>195.79318699999999</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="65">
         <v>477.09094900000002</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="65">
         <v>1490.08006</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="65">
         <v>2554.5029</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="65">
         <v>21.148817000000001</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="65">
         <v>181.071775</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="65">
         <v>9006.2775950000014</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="65">
         <v>2800.4199589999998</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="65">
         <v>1063.3032740000001</v>
       </c>
-      <c r="S11" s="68">
+      <c r="S11" s="65">
         <v>139.17858000000001</v>
       </c>
-      <c r="T11" s="68">
+      <c r="T11" s="65">
         <v>305.31859100000003</v>
       </c>
       <c r="U11" s="44">
@@ -7584,74 +7581,74 @@
       <c r="Z11" s="44">
         <v>0.23827999999999999</v>
       </c>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="56">
-        <v>271765.11700000003</v>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="82">
+        <v>65838.868999999992</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="65">
         <v>7960.8161129999999</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="65">
         <v>105.336168</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="65">
         <v>16051.876292999999</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="65">
         <v>1286.447195</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <v>215.885648</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="65">
         <v>2160.7576300000001</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="65">
         <v>6069.4313860000002</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="65">
         <v>1446.537108</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="65">
         <v>215.61647300000001</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="65">
         <v>451.64035999999999</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="65">
         <v>1771.2210749999999</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="65">
         <v>2675.815548</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="65">
         <v>19.178619000000001</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="65">
         <v>169.49777</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="65">
         <v>10769.570129</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="65">
         <v>3394.2603009999998</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="65">
         <v>1029.2602710000001</v>
       </c>
-      <c r="S12" s="68">
+      <c r="S12" s="65">
         <v>156.863497</v>
       </c>
-      <c r="T12" s="68">
+      <c r="T12" s="65">
         <v>335.27581600000002</v>
       </c>
       <c r="U12" s="44">
@@ -7672,74 +7669,74 @@
       <c r="Z12" s="44">
         <v>0.21889</v>
       </c>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="56">
-        <v>273739.91000000003</v>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="82">
+        <v>73094.024999999994</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="65">
         <v>7815.0604689999991</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="65">
         <v>130.340599</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="65">
         <v>16381.059371000001</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="65">
         <v>1493.574517</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <v>168.72327999999999</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="65">
         <v>2116.1205249999998</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="65">
         <v>6013.7032350000009</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="65">
         <v>1609.395573</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="65">
         <v>199.65825699999999</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="65">
         <v>412.034424</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="65">
         <v>2117.0688559999999</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="65">
         <v>2959.8331360000002</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="65">
         <v>23.525400999999999</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="65">
         <v>315.67356799999999</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="65">
         <v>9332.2261159999998</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="65">
         <v>3556.8884830000002</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="65">
         <v>1185.7122300000001</v>
       </c>
-      <c r="S13" s="68">
+      <c r="S13" s="65">
         <v>153.17819900000001</v>
       </c>
-      <c r="T13" s="68">
+      <c r="T13" s="65">
         <v>357.64218499999998</v>
       </c>
       <c r="U13" s="44">
@@ -7760,76 +7757,76 @@
       <c r="Z13" s="44">
         <v>0.23271</v>
       </c>
-      <c r="AA13" s="57">
+      <c r="AA13" s="54">
         <v>15870</v>
       </c>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="56">
-        <v>298954.25300000003</v>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="82">
+        <v>73109.129000000001</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="65">
         <v>9248.951384</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="65">
         <v>186.747015</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="65">
         <v>13990.253939</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="65">
         <v>1432.539722</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="65">
         <v>169.47104999999999</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="65">
         <v>1728.3727289999999</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="65">
         <v>6150.713948999999</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="65">
         <v>1730.3017910000001</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="65">
         <v>207.11415400000001</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="65">
         <v>390.71606200000002</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="65">
         <v>2352.724561</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="65">
         <v>3005.3877040000002</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="65">
         <v>19.714769</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O14" s="65">
         <v>216.85839300000001</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="65">
         <v>9936.5900339999989</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="65">
         <v>3892.7831059999999</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="65">
         <v>1204.1676520000001</v>
       </c>
-      <c r="S14" s="68">
+      <c r="S14" s="65">
         <v>89.122446999999994</v>
       </c>
-      <c r="T14" s="68">
+      <c r="T14" s="65">
         <v>451.419555</v>
       </c>
       <c r="U14" s="44">
@@ -7850,76 +7847,76 @@
       <c r="Z14" s="44">
         <v>0.20080000000000001</v>
       </c>
-      <c r="AA14" s="57">
+      <c r="AA14" s="54">
         <v>14462</v>
       </c>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="56">
-        <v>339993.39600000001</v>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="82">
+        <v>73165.712999999989</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="65">
         <v>12887.833873</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="65">
         <v>211.38096899999999</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="65">
         <v>15308.007311000001</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="65">
         <v>1383.84726</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="65">
         <v>190.842276</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="65">
         <v>1606.899461</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="65">
         <v>5669.1797379999998</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="65">
         <v>1848.460221</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="65">
         <v>228.573487</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="65">
         <v>397.78660200000002</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="65">
         <v>2428.6192769999998</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="65">
         <v>2894.797986</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="65">
         <v>24.131412999999998</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="65">
         <v>219.42526599999999</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="65">
         <v>9885.1810099999984</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="65">
         <v>4115.504457</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="65">
         <v>1366.1471529999999</v>
       </c>
-      <c r="S15" s="68">
+      <c r="S15" s="65">
         <v>83.412541000000004</v>
       </c>
-      <c r="T15" s="68">
+      <c r="T15" s="65">
         <v>504.980345</v>
       </c>
       <c r="U15" s="44">
@@ -7940,76 +7937,76 @@
       <c r="Z15" s="44">
         <v>0.20330999999999999</v>
       </c>
-      <c r="AA15" s="57">
+      <c r="AA15" s="54">
         <v>15386</v>
       </c>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="56">
-        <v>438555.44500000001</v>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="82">
+        <v>79468.55</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="65">
         <v>13002.126053</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="65">
         <v>326.29012999999998</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="65">
         <v>16958.982390000001</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="65">
         <v>1649.304351</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="65">
         <v>228.69747799999999</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="65">
         <v>2363.0427030000001</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="65">
         <v>6402.6582399999998</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="65">
         <v>1898.122038</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="65">
         <v>246.853712</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="65">
         <v>431.48874999999998</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="65">
         <v>2454.4595410000002</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="65">
         <v>3152.4036689999998</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="65">
         <v>27.894767000000002</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="65">
         <v>135.11809299999999</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="65">
         <v>10303.078414000001</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="65">
         <v>4300.5087700000004</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="65">
         <v>1554.781528</v>
       </c>
-      <c r="S16" s="68">
+      <c r="S16" s="65">
         <v>79.060235000000006</v>
       </c>
-      <c r="T16" s="68">
+      <c r="T16" s="65">
         <v>528.05403000000001</v>
       </c>
       <c r="U16" s="44">
@@ -8030,76 +8027,76 @@
       <c r="Z16" s="44">
         <v>0.23455000000000001</v>
       </c>
-      <c r="AA16" s="57">
+      <c r="AA16" s="54">
         <v>16764</v>
       </c>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="56">
-        <v>379657.777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="82">
+        <v>85731.582999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="65">
         <v>12440.96422</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="65">
         <v>338.87062500000002</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="65">
         <v>18119.109111000002</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="65">
         <v>1836.976422</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="65">
         <v>224.632328</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="65">
         <v>2414.2055110000001</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="65">
         <v>5984.8282249999993</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="65">
         <v>1840.2281310000001</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="65">
         <v>280.386077</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="65">
         <v>511.94456000000002</v>
       </c>
-      <c r="L17" s="68">
+      <c r="L17" s="65">
         <v>2593.2462690000002</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="65">
         <v>2889.9189459999998</v>
       </c>
-      <c r="N17" s="68">
+      <c r="N17" s="65">
         <v>30.551497999999999</v>
       </c>
-      <c r="O17" s="68">
+      <c r="O17" s="65">
         <v>218.65114299999999</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="65">
         <v>11503.079081999998</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="65">
         <v>4411.0508159999999</v>
       </c>
-      <c r="R17" s="68">
+      <c r="R17" s="65">
         <v>1481.1972390000001</v>
       </c>
-      <c r="S17" s="68">
+      <c r="S17" s="65">
         <v>106.208242</v>
       </c>
-      <c r="T17" s="68">
+      <c r="T17" s="65">
         <v>461.65977099999998</v>
       </c>
       <c r="U17" s="44">
@@ -8118,82 +8115,82 @@
         <v>67195032</v>
       </c>
       <c r="Z17" s="44"/>
-      <c r="AA17" s="57">
+      <c r="AA17" s="54">
         <v>14433</v>
       </c>
-      <c r="AB17" s="65">
+      <c r="AB17" s="62">
         <v>2541350</v>
       </c>
-      <c r="AC17" s="81">
+      <c r="AC17" s="78">
         <v>20343</v>
       </c>
-      <c r="AD17" s="78">
+      <c r="AD17" s="75">
         <v>825214</v>
       </c>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="56">
-        <v>427733.43600000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="82">
+        <v>87969.748999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="64">
         <v>14130.475935</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="64">
         <v>260.52309000000002</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="64">
         <v>22255.055638999998</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="64">
         <v>1828.7517909999999</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="64">
         <v>213.479006</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="64">
         <v>2447.707218</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="64">
         <v>6287.1760519999998</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="64">
         <v>1747.320946</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="64">
         <v>319.279991</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="64">
         <v>565.30637899999999</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="64">
         <v>2802.9883369999998</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="64">
         <v>2868.3197749999999</v>
       </c>
-      <c r="N18" s="67">
+      <c r="N18" s="64">
         <v>35.629902999999999</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="64">
         <v>163.88539499999999</v>
       </c>
-      <c r="P18" s="67">
+      <c r="P18" s="64">
         <v>11735.746643</v>
       </c>
-      <c r="Q18" s="67">
+      <c r="Q18" s="64">
         <v>4421.1794190000001</v>
       </c>
-      <c r="R18" s="67">
+      <c r="R18" s="64">
         <v>1569.6933059999999</v>
       </c>
-      <c r="S18" s="67">
+      <c r="S18" s="64">
         <v>126.835776</v>
       </c>
-      <c r="T18" s="67">
+      <c r="T18" s="64">
         <v>462.58383600000002</v>
       </c>
       <c r="U18" s="44">
@@ -8214,84 +8211,84 @@
       <c r="Z18" s="44">
         <v>0.36146</v>
       </c>
-      <c r="AA18" s="58">
+      <c r="AA18" s="55">
         <v>14875.4</v>
       </c>
-      <c r="AB18" s="65">
+      <c r="AB18" s="62">
         <v>2541569</v>
       </c>
-      <c r="AC18" s="81">
+      <c r="AC18" s="78">
         <v>20535</v>
       </c>
-      <c r="AD18" s="78">
+      <c r="AD18" s="75">
         <v>812779</v>
       </c>
-      <c r="AE18" s="62">
+      <c r="AE18" s="59">
         <v>26</v>
       </c>
-      <c r="AF18" s="55">
-        <v>365800.94500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="AF18" s="82">
+        <v>96247.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="64">
         <v>16469.528678999999</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="64">
         <v>252.60647399999999</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="64">
         <v>26925.109248999997</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="64">
         <v>2073.8949499999999</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="64">
         <v>270.62905699999999</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="64">
         <v>3287.7490229999999</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="64">
         <v>7446.6467359999997</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="64">
         <v>1896.38302</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="64">
         <v>357.46761199999997</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="64">
         <v>570.01839099999995</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="64">
         <v>3235.7426679999999</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="64">
         <v>2950.6643880000001</v>
       </c>
-      <c r="N19" s="67">
+      <c r="N19" s="64">
         <v>51.684524000000003</v>
       </c>
-      <c r="O19" s="67">
+      <c r="O19" s="64">
         <v>242.72905499999999</v>
       </c>
-      <c r="P19" s="67">
+      <c r="P19" s="64">
         <v>17495.226049000001</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="64">
         <v>4477.6671329999999</v>
       </c>
-      <c r="R19" s="67">
+      <c r="R19" s="64">
         <v>1738.269405</v>
       </c>
-      <c r="S19" s="67">
+      <c r="S19" s="64">
         <v>152.466466</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="64">
         <v>510.31514499999997</v>
       </c>
       <c r="U19" s="44">
@@ -8310,84 +8307,84 @@
         <v>67835969</v>
       </c>
       <c r="Z19" s="44"/>
-      <c r="AA19" s="58">
+      <c r="AA19" s="55">
         <v>17356.96</v>
       </c>
-      <c r="AB19" s="65">
+      <c r="AB19" s="62">
         <v>2196101</v>
       </c>
-      <c r="AC19" s="81">
+      <c r="AC19" s="78">
         <v>20364</v>
       </c>
-      <c r="AD19" s="78">
+      <c r="AD19" s="75">
         <v>812975</v>
       </c>
-      <c r="AE19" s="62">
+      <c r="AE19" s="59">
         <v>40</v>
       </c>
-      <c r="AF19" s="55">
-        <v>378620.53700000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="AF19" s="82">
+        <v>116911.57400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="64">
         <v>17217.859748999999</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="64">
         <v>232.67008999999999</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="64">
         <v>29236.708713</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="64">
         <v>2195.5455390000002</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="64">
         <v>312.24555700000002</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="64">
         <v>2380.5430769999998</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="64">
         <v>7472.8277740000003</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="64">
         <v>1911.03736</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="64">
         <v>377.23650500000002</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="64">
         <v>552.58881699999995</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="64">
         <v>3634.8479619999998</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="64">
         <v>3119.5282820000002</v>
       </c>
-      <c r="N20" s="67">
+      <c r="N20" s="64">
         <v>54.838940000000001</v>
       </c>
-      <c r="O20" s="67">
+      <c r="O20" s="64">
         <v>240.47305499999999</v>
       </c>
-      <c r="P20" s="67">
+      <c r="P20" s="64">
         <v>18683.099835000001</v>
       </c>
-      <c r="Q20" s="67">
+      <c r="Q20" s="64">
         <v>4645.4518779999999</v>
       </c>
-      <c r="R20" s="67">
+      <c r="R20" s="64">
         <v>1846.760284</v>
       </c>
-      <c r="S20" s="67">
+      <c r="S20" s="64">
         <v>155.193645</v>
       </c>
-      <c r="T20" s="67">
+      <c r="T20" s="64">
         <v>525.06967499999996</v>
       </c>
       <c r="U20" s="44">
@@ -8408,84 +8405,84 @@
       <c r="Z20" s="44">
         <v>0.44163999999999998</v>
       </c>
-      <c r="AA20" s="58">
+      <c r="AA20" s="55">
         <v>15944.8</v>
       </c>
-      <c r="AB20" s="65">
+      <c r="AB20" s="62">
         <v>2189464</v>
       </c>
-      <c r="AC20" s="81">
+      <c r="AC20" s="78">
         <v>20318.469064254801</v>
       </c>
-      <c r="AD20" s="78">
+      <c r="AD20" s="75">
         <v>812719</v>
       </c>
-      <c r="AE20" s="62">
+      <c r="AE20" s="59">
         <v>32</v>
       </c>
-      <c r="AF20" s="55">
-        <v>461789.49600000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="AF20" s="82">
+        <v>122285.53799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="64">
         <v>17305.341702000002</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="64">
         <v>277.73333200000002</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="64">
         <v>32449.357227</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="64">
         <v>2310.8807059999999</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="64">
         <v>349.81324499999999</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="64">
         <v>2129.7829750000001</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="64">
         <v>8105.0012489999999</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="64">
         <v>1957.2446399999999</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="64">
         <v>380.95510999999999</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="64">
         <v>466.27297099999998</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="64">
         <v>4021.7197460000002</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="64">
         <v>2661.313877</v>
       </c>
-      <c r="N21" s="67">
+      <c r="N21" s="64">
         <v>70.840280000000007</v>
       </c>
-      <c r="O21" s="67">
+      <c r="O21" s="64">
         <v>303.416315</v>
       </c>
-      <c r="P21" s="67">
+      <c r="P21" s="64">
         <v>16976.436754999999</v>
       </c>
-      <c r="Q21" s="67">
+      <c r="Q21" s="64">
         <v>4794.3813440000004</v>
       </c>
-      <c r="R21" s="67">
+      <c r="R21" s="64">
         <v>1998.965921</v>
       </c>
-      <c r="S21" s="67">
+      <c r="S21" s="64">
         <v>154.578732</v>
       </c>
-      <c r="T21" s="67">
+      <c r="T21" s="64">
         <v>530.01994500000001</v>
       </c>
       <c r="U21" s="44">
@@ -8506,84 +8503,84 @@
       <c r="Z21" s="44">
         <v>0.47987999999999997</v>
       </c>
-      <c r="AA21" s="58">
+      <c r="AA21" s="55">
         <v>14910.71</v>
       </c>
-      <c r="AB21" s="65">
+      <c r="AB21" s="62">
         <v>2211616</v>
       </c>
-      <c r="AC21" s="81">
+      <c r="AC21" s="78">
         <v>20634</v>
       </c>
-      <c r="AD21" s="78">
+      <c r="AD21" s="75">
         <v>812522</v>
       </c>
-      <c r="AE21" s="62">
+      <c r="AE21" s="59">
         <v>37</v>
       </c>
-      <c r="AF21" s="55">
-        <v>417614.34099999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="AF21" s="82">
+        <v>125135.992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="64">
         <v>15588.94169</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="64">
         <v>605.35670700000003</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="64">
         <v>33482.667132000002</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="64">
         <v>2321.948946</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="64">
         <v>347.644564</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="64">
         <v>2159.959695</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="64">
         <v>8864.264059000001</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="64">
         <v>2142.4587059999999</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="64">
         <v>420.38574599999998</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="64">
         <v>474.879974</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="64">
         <v>4285.0244979999998</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="64">
         <v>2941.445561</v>
       </c>
-      <c r="N22" s="67">
+      <c r="N22" s="64">
         <v>70.789113999999998</v>
       </c>
-      <c r="O22" s="67">
+      <c r="O22" s="64">
         <v>270.58614299999999</v>
       </c>
-      <c r="P22" s="67">
+      <c r="P22" s="64">
         <v>14875.869424999999</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="Q22" s="64">
         <v>4839.0147870000001</v>
       </c>
-      <c r="R22" s="67">
+      <c r="R22" s="64">
         <v>2091.9380350000001</v>
       </c>
-      <c r="S22" s="67">
+      <c r="S22" s="64">
         <v>154.00774100000001</v>
       </c>
-      <c r="T22" s="67">
+      <c r="T22" s="64">
         <v>576.51475600000003</v>
       </c>
       <c r="U22" s="44">
@@ -8604,84 +8601,84 @@
       <c r="Z22" s="44">
         <v>0.61609000000000003</v>
       </c>
-      <c r="AA22" s="58">
+      <c r="AA22" s="55">
         <v>17968.900000000001</v>
       </c>
-      <c r="AB22" s="65">
+      <c r="AB22" s="62">
         <v>2191974</v>
       </c>
-      <c r="AC22" s="81">
+      <c r="AC22" s="78">
         <v>20630</v>
       </c>
-      <c r="AD22" s="78">
+      <c r="AD22" s="75">
         <v>813100</v>
       </c>
-      <c r="AE22" s="62">
+      <c r="AE22" s="59">
         <v>59</v>
       </c>
-      <c r="AF22" s="55">
-        <v>468325.83400000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="AF22" s="82">
+        <v>123891.96199999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
         <v>2016</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="64">
         <v>15961.808110000002</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="64">
         <v>1075.216017</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="64">
         <v>34521.386075000002</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="64">
         <v>2354.1560469999999</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="64">
         <v>324.97511800000001</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="64">
         <v>2148.0528469999999</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="64">
         <v>9864.3798509999997</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="64">
         <v>2253.990953</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="64">
         <v>449.19643100000002</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="64">
         <v>485.75881900000002</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="64">
         <v>4753.0912830000007</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="64">
         <v>2917.3873600000002</v>
       </c>
-      <c r="N23" s="67">
+      <c r="N23" s="64">
         <v>65.852356</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="64">
         <v>335.15758899999997</v>
       </c>
-      <c r="P23" s="67">
+      <c r="P23" s="64">
         <v>15481.432991</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="64">
         <v>4796.3022209999999</v>
       </c>
-      <c r="R23" s="67">
+      <c r="R23" s="64">
         <v>2233.1837529999998</v>
       </c>
-      <c r="S23" s="67">
+      <c r="S23" s="64">
         <v>193.74377899999999</v>
       </c>
-      <c r="T23" s="67">
+      <c r="T23" s="64">
         <v>589.40652299999999</v>
       </c>
       <c r="U23" s="44">
@@ -8702,84 +8699,84 @@
       <c r="Z23" s="44">
         <v>0.77817000000000003</v>
       </c>
-      <c r="AA23" s="58">
+      <c r="AA23" s="55">
         <v>15875.5</v>
       </c>
-      <c r="AB23" s="65">
+      <c r="AB23" s="62">
         <v>2191454</v>
       </c>
-      <c r="AC23" s="81">
+      <c r="AC23" s="78">
         <v>20629</v>
       </c>
-      <c r="AD23" s="78">
+      <c r="AD23" s="75">
         <v>812485</v>
       </c>
-      <c r="AE23" s="62">
+      <c r="AE23" s="59">
         <v>31</v>
       </c>
-      <c r="AF23" s="55">
-        <v>444803.565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
+      <c r="AF23" s="82">
+        <v>129404.072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
         <v>2017</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="64">
         <v>18110.396808999998</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="64">
         <v>1293.9742610000001</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="64">
         <v>38776.266119999993</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="64">
         <v>2482.8914140000002</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="64">
         <v>399.40900199999999</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="64">
         <v>2011.3616709999999</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="64">
         <v>11186.072060999999</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="64">
         <v>2551.9392859999998</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="64">
         <v>495.09547800000001</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="64">
         <v>608.02768900000001</v>
       </c>
-      <c r="L24" s="67">
+      <c r="L24" s="64">
         <v>4791.9661120000001</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="64">
         <v>3403.7357550000002</v>
       </c>
-      <c r="N24" s="67">
+      <c r="N24" s="64">
         <v>58.664696999999997</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="64">
         <v>339.21287999999998</v>
       </c>
-      <c r="P24" s="67">
+      <c r="P24" s="64">
         <v>15970.611371999999</v>
       </c>
-      <c r="Q24" s="67">
+      <c r="Q24" s="64">
         <v>4859.13249</v>
       </c>
-      <c r="R24" s="67">
+      <c r="R24" s="64">
         <v>2353.2852360000002</v>
       </c>
-      <c r="S24" s="67">
+      <c r="S24" s="64">
         <v>232.34284</v>
       </c>
-      <c r="T24" s="67">
+      <c r="T24" s="64">
         <v>625.48046099999999</v>
       </c>
       <c r="U24" s="44">
@@ -8800,84 +8797,84 @@
       <c r="Z24" s="44">
         <v>1.00179</v>
       </c>
-      <c r="AA24" s="58">
+      <c r="AA24" s="55">
         <v>16012.15</v>
       </c>
-      <c r="AB24" s="65">
+      <c r="AB24" s="62">
         <v>2191311</v>
       </c>
-      <c r="AC24" s="81">
+      <c r="AC24" s="78">
         <v>20523</v>
       </c>
-      <c r="AD24" s="78">
+      <c r="AD24" s="75">
         <v>813167</v>
       </c>
-      <c r="AE24" s="62">
+      <c r="AE24" s="59">
         <v>19</v>
       </c>
-      <c r="AF24" s="55">
-        <v>449602.96699999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="AF24" s="82">
+        <v>142017.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="63">
         <v>2018</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="64">
         <v>20601.412908999999</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="64">
         <v>921.72877000000005</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="64">
         <v>34067.300287000005</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="64">
         <v>2187.8439349999999</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="64">
         <v>457.13392800000003</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="64">
         <v>2569.1319560000002</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="64">
         <v>12069.243621</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="64">
         <v>2719.0488879999998</v>
       </c>
-      <c r="J25" s="67">
+      <c r="J25" s="64">
         <v>557.09805700000004</v>
       </c>
-      <c r="K25" s="67">
+      <c r="K25" s="64">
         <v>614.87138100000004</v>
       </c>
-      <c r="L25" s="67">
+      <c r="L25" s="64">
         <v>4933.9823139999999</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="64">
         <v>3817.7946889999998</v>
       </c>
-      <c r="N25" s="67">
+      <c r="N25" s="64">
         <v>82.258585999999994</v>
       </c>
-      <c r="O25" s="67">
+      <c r="O25" s="64">
         <v>422.76399400000003</v>
       </c>
-      <c r="P25" s="67">
+      <c r="P25" s="64">
         <v>16818.212539</v>
       </c>
-      <c r="Q25" s="67">
+      <c r="Q25" s="64">
         <v>4715.4060659999996</v>
       </c>
-      <c r="R25" s="67">
+      <c r="R25" s="64">
         <v>2550.2496489999999</v>
       </c>
-      <c r="S25" s="67">
+      <c r="S25" s="64">
         <v>267.578441</v>
       </c>
-      <c r="T25" s="67">
+      <c r="T25" s="64">
         <v>588.92233599999997</v>
       </c>
       <c r="U25" s="44">
@@ -8896,73 +8893,76 @@
         <v>69428454</v>
       </c>
       <c r="Z25" s="44"/>
-      <c r="AA25" s="58">
+      <c r="AA25" s="55">
         <v>17016.830000000002</v>
       </c>
-      <c r="AB25" s="65">
+      <c r="AB25" s="62">
         <v>2191867</v>
       </c>
-      <c r="AC25" s="81">
+      <c r="AC25" s="78">
         <v>20527</v>
       </c>
-      <c r="AD25" s="78">
+      <c r="AD25" s="75">
         <v>812834</v>
       </c>
-      <c r="AE25" s="62">
+      <c r="AE25" s="59">
         <v>30</v>
       </c>
-      <c r="AF25" s="55">
-        <v>454952.54100000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="76"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="74"/>
-      <c r="AJ29" s="74"/>
-      <c r="AK29" s="74"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="80"/>
-      <c r="AF30" s="80"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="80"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="77"/>
-      <c r="AI32" s="77"/>
+      <c r="AF25" s="82">
+        <v>142741.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="71"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
+      <c r="AX30">
+        <v>142741.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
+      <c r="AI32" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8971,10 +8971,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B32E04E-C22B-ED4B-85C4-796A1BDA05F3}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AX32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17:AC25"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF2:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8991,162 +8991,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="Z1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AA1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="61" t="s">
+      <c r="AC1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="61" t="s">
+      <c r="AD1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="61" t="s">
+      <c r="AE1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AF1" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="64">
         <v>1517.1673639999999</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="64">
         <v>42.410974000000003</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="64">
         <v>2247.7353360000002</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="64">
         <v>251.36057299999999</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="64">
         <v>20.751177999999999</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="64">
         <v>540.08848899999998</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="64">
         <v>1553.3504829999999</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="64">
         <v>662.27885200000003</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="64">
         <v>43.742963000000003</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="64">
         <v>80.752568999999994</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="64">
         <v>939.77599999999995</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="64">
         <v>365.54209700000001</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="64">
         <v>1.6664999999999999E-2</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="64">
         <v>5.4256380000000002</v>
       </c>
-      <c r="P2" s="67">
+      <c r="P2" s="64">
         <v>459.21773200000001</v>
       </c>
-      <c r="Q2" s="67">
+      <c r="Q2" s="64">
         <v>683.20480299999997</v>
       </c>
-      <c r="R2" s="67">
+      <c r="R2" s="64">
         <v>337.997771</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="64">
         <v>13.959275</v>
       </c>
-      <c r="T2" s="67">
+      <c r="T2" s="64">
         <v>50.404097</v>
       </c>
       <c r="U2" s="44">
@@ -9165,74 +9165,74 @@
         <v>59467272</v>
       </c>
       <c r="Z2" s="44"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="48">
-        <v>143862.554</v>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="75">
+        <v>41809.733</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="64">
         <v>2151.7327289999998</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="64">
         <v>39.837997000000001</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="64">
         <v>2525.5262910000001</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="64">
         <v>268.32203299999998</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="64">
         <v>21.818722999999999</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="64">
         <v>412.59641499999998</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="64">
         <v>1778.5790030000001</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="64">
         <v>737.96758</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="64">
         <v>37.939543</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="64">
         <v>90.268174999999999</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="64">
         <v>622.03428099999996</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="64">
         <v>432.64720399999999</v>
       </c>
-      <c r="N3" s="67">
+      <c r="N3" s="64">
         <v>0.76424199999999998</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="64">
         <v>4.470313</v>
       </c>
-      <c r="P3" s="67">
+      <c r="P3" s="64">
         <v>506.82884899999999</v>
       </c>
-      <c r="Q3" s="67">
+      <c r="Q3" s="64">
         <v>736.510538</v>
       </c>
-      <c r="R3" s="67">
+      <c r="R3" s="64">
         <v>561.60140999999999</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="64">
         <v>22.577044999999998</v>
       </c>
-      <c r="T3" s="67">
+      <c r="T3" s="64">
         <v>52.587071999999999</v>
       </c>
       <c r="U3" s="44">
@@ -9253,74 +9253,74 @@
       <c r="Z3" s="44">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="48">
-        <v>171503.91700000002</v>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="75">
+        <v>46750.23</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="64">
         <v>2438.9091920000001</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="64">
         <v>28.967616</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="64">
         <v>2434.7777580000002</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="64">
         <v>282.65665999999999</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="64">
         <v>23.104803</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="64">
         <v>399.62583599999999</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="64">
         <v>1934.5774710000001</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="64">
         <v>790.81920200000002</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="64">
         <v>44.211323999999998</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="64">
         <v>89.376423000000003</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="64">
         <v>573.92851499999995</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="64">
         <v>502.25883900000002</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="64">
         <v>0.66490700000000003</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="64">
         <v>37.927701999999996</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="64">
         <v>547.37277099999994</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="Q4" s="64">
         <v>769.08044099999995</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="64">
         <v>564.66907700000002</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="64">
         <v>22.148885</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="64">
         <v>53.450476000000002</v>
       </c>
       <c r="U4" s="44">
@@ -9341,74 +9341,74 @@
       <c r="Z4" s="44">
         <v>0.10213999999999999</v>
       </c>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="48">
-        <v>179223.451</v>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="75">
+        <v>48889.421999999999</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="64">
         <v>2872.2276790000001</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="64">
         <v>23.722861999999999</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="64">
         <v>2635.2337859999998</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="64">
         <v>362.89272099999999</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="64">
         <v>23.570354999999999</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="64">
         <v>241.360017</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="64">
         <v>1787.959114</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="64">
         <v>724.54561100000001</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="64">
         <v>45.740985000000002</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="64">
         <v>87.423897999999994</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="64">
         <v>542.87358900000004</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="64">
         <v>600.64526000000001</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="64">
         <v>0.50025200000000003</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="64">
         <v>19.804368</v>
       </c>
-      <c r="P5" s="67">
+      <c r="P5" s="64">
         <v>630.95762100000002</v>
       </c>
-      <c r="Q5" s="67">
+      <c r="Q5" s="64">
         <v>896.40938700000004</v>
       </c>
-      <c r="R5" s="67">
+      <c r="R5" s="64">
         <v>594.62234899999999</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="64">
         <v>22.264320000000001</v>
       </c>
-      <c r="T5" s="67">
+      <c r="T5" s="64">
         <v>53.628442</v>
       </c>
       <c r="U5" s="44">
@@ -9427,74 +9427,74 @@
         <v>61585103</v>
       </c>
       <c r="Z5" s="44"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="48">
-        <v>180611.80600000001</v>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="75">
+        <v>51417.032999999996</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="64">
         <v>1738.973389</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="64">
         <v>18.169377000000001</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="64">
         <v>2775.66986</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="64">
         <v>310.67528499999997</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="64">
         <v>26.850345999999998</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="64">
         <v>240.759815</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="64">
         <v>1607.2854609999999</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="64">
         <v>736.278279</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="64">
         <v>63.183245999999997</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="64">
         <v>98.627150999999998</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="64">
         <v>384.46262300000001</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="64">
         <v>725.96368500000005</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="64">
         <v>0.60951299999999997</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="64">
         <v>3.288818</v>
       </c>
-      <c r="P6" s="67">
+      <c r="P6" s="64">
         <v>695.04029500000001</v>
       </c>
-      <c r="Q6" s="67">
+      <c r="Q6" s="64">
         <v>927.37326499999995</v>
       </c>
-      <c r="R6" s="67">
+      <c r="R6" s="64">
         <v>619.26658799999996</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="64">
         <v>24.707350999999999</v>
       </c>
-      <c r="T6" s="67">
+      <c r="T6" s="64">
         <v>57.101004000000003</v>
       </c>
       <c r="U6" s="44">
@@ -9515,74 +9515,74 @@
       <c r="Z6" s="44">
         <v>0.24836</v>
       </c>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="48">
-        <v>189856.70600000001</v>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="75">
+        <v>46599.724000000002</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="64">
         <v>2041.548117</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="64">
         <v>15.352669000000001</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="64">
         <v>3129.051723</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="64">
         <v>332.91534999999999</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="64">
         <v>42.477141000000003</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="64">
         <v>301.09201899999999</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="64">
         <v>1620.9961249999999</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="64">
         <v>712.62413300000003</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="64">
         <v>74.348899000000003</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="64">
         <v>106.625631</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="64">
         <v>395.23318799999998</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="64">
         <v>742.800749</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="64">
         <v>0.60637799999999997</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="64">
         <v>4.1493120000000001</v>
       </c>
-      <c r="P7" s="67">
+      <c r="P7" s="64">
         <v>948.84756400000003</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="64">
         <v>943.03179799999998</v>
       </c>
-      <c r="R7" s="67">
+      <c r="R7" s="64">
         <v>653.29269799999997</v>
       </c>
-      <c r="S7" s="67">
+      <c r="S7" s="64">
         <v>25.586758</v>
       </c>
-      <c r="T7" s="67">
+      <c r="T7" s="64">
         <v>56.653778000000003</v>
       </c>
       <c r="U7" s="44">
@@ -9603,74 +9603,74 @@
       <c r="Z7" s="44">
         <v>0.24471000000000001</v>
       </c>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="48">
-        <v>219141.84700000001</v>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="75">
+        <v>51081.508999999998</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="64">
         <v>1900.398244</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="64">
         <v>16.256768999999998</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="64">
         <v>3458.696101</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="64">
         <v>325.463302</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="64">
         <v>38.342888000000002</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="64">
         <v>234.134117</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="64">
         <v>1515.208091</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="64">
         <v>657.05397200000004</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="64">
         <v>82.619238999999993</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="64">
         <v>145.250597</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="64">
         <v>383.89962400000002</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="64">
         <v>709.50090399999999</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="64">
         <v>0.60765899999999995</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="64">
         <v>4.7204670000000002</v>
       </c>
-      <c r="P8" s="67">
+      <c r="P8" s="64">
         <v>878.03489200000001</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="64">
         <v>948.91436699999997</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="64">
         <v>745.83059600000001</v>
       </c>
-      <c r="S8" s="67">
+      <c r="S8" s="64">
         <v>26.149242000000001</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="64">
         <v>54.888973999999997</v>
       </c>
       <c r="U8" s="44">
@@ -9691,74 +9691,74 @@
       <c r="Z8" s="44">
         <v>0.25230999999999998</v>
       </c>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="48">
-        <v>219060.592</v>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="75">
+        <v>51786.061999999998</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="65">
         <v>1951.4735659999999</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="65">
         <v>14.873887</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="65">
         <v>3567.4072590000001</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="65">
         <v>330.52504599999997</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="65">
         <v>26.335972000000002</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="65">
         <v>375.039221</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="65">
         <v>1543.583746</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="65">
         <v>660.09715600000004</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="65">
         <v>71.461164999999994</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="65">
         <v>165.947248</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="65">
         <v>473.92343899999997</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="65">
         <v>772.88371800000004</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="65">
         <v>1.1702600000000001</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="65">
         <v>16.565521</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="65">
         <v>948.82965899999999</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="65">
         <v>987.87709600000005</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="65">
         <v>752.23300099999994</v>
       </c>
-      <c r="S9" s="68">
+      <c r="S9" s="65">
         <v>26.388508000000002</v>
       </c>
-      <c r="T9" s="68">
+      <c r="T9" s="65">
         <v>72.981699000000006</v>
       </c>
       <c r="U9" s="44">
@@ -9779,74 +9779,74 @@
       <c r="Z9" s="44">
         <v>0.23055</v>
       </c>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="49">
-        <v>231122.49200000003</v>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="44">
+        <v>55363.335000000006</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="65">
         <v>2330.5766400000002</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <v>14.910602000000001</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="65">
         <v>4839.2156080000004</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="65">
         <v>370.27648900000003</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="65">
         <v>30.488796000000001</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="65">
         <v>309.378895</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="65">
         <v>1630.0828509999999</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="65">
         <v>569.15611100000001</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="65">
         <v>92.557047999999995</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="65">
         <v>187.39382599999999</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="65">
         <v>490.97785399999998</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="65">
         <v>808.48991599999999</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="65">
         <v>1.565585</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="65">
         <v>18.173078</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="65">
         <v>984.15137300000004</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="65">
         <v>1040.789117</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="65">
         <v>626.55416700000001</v>
       </c>
-      <c r="S10" s="68">
+      <c r="S10" s="65">
         <v>42.985919000000003</v>
       </c>
-      <c r="T10" s="68">
+      <c r="T10" s="65">
         <v>80.332272000000003</v>
       </c>
       <c r="U10" s="44">
@@ -9867,74 +9867,74 @@
       <c r="Z10" s="44">
         <v>0.24534</v>
       </c>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="50">
-        <v>256743.10100000002</v>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="44">
+        <v>63806.767000000007</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="65">
         <v>2726.8671509999999</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <v>15.203193000000001</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="65">
         <v>5165.4480129999993</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="65">
         <v>424.47723500000001</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="65">
         <v>33.970981000000002</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="65">
         <v>400.19775600000003</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="65">
         <v>1763.609616</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="65">
         <v>607.83936200000005</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="65">
         <v>118.79088299999999</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="65">
         <v>189.10605200000001</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="65">
         <v>554.22479299999998</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="65">
         <v>813.69758200000001</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="65">
         <v>1.3158939999999999</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="65">
         <v>22.523520999999999</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="65">
         <v>1060.1517759999999</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="65">
         <v>1174.1039539999999</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="65">
         <v>677.19379800000002</v>
       </c>
-      <c r="S11" s="68">
+      <c r="S11" s="65">
         <v>78.540615000000003</v>
       </c>
-      <c r="T11" s="68">
+      <c r="T11" s="65">
         <v>65.172888999999998</v>
       </c>
       <c r="U11" s="44">
@@ -9955,74 +9955,74 @@
       <c r="Z11" s="44">
         <v>0.23827999999999999</v>
       </c>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="50">
-        <v>271765.11700000003</v>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="44">
+        <v>71269.599000000002</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="65">
         <v>2950.9067839999998</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="65">
         <v>12.557382</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="65">
         <v>5243.3079740000003</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="65">
         <v>510.371306</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <v>53.111646</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="65">
         <v>424.87431099999998</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="65">
         <v>1922.678934</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="65">
         <v>618.82910400000003</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="65">
         <v>109.01724900000001</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="65">
         <v>186.14523299999999</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="65">
         <v>713.48042199999998</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="65">
         <v>829.24437399999999</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="65">
         <v>0.97226699999999999</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="65">
         <v>23.076566</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="65">
         <v>1221.0411810000001</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="65">
         <v>1356.7399620000001</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="65">
         <v>727.259995</v>
       </c>
-      <c r="S12" s="68">
+      <c r="S12" s="65">
         <v>101.717376</v>
       </c>
-      <c r="T12" s="68">
+      <c r="T12" s="65">
         <v>103.703924</v>
       </c>
       <c r="U12" s="44">
@@ -10043,74 +10043,74 @@
       <c r="Z12" s="44">
         <v>0.21889</v>
       </c>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="50">
-        <v>273739.91000000003</v>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="44">
+        <v>78052.441999999995</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="65">
         <v>3119.9154859999999</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="65">
         <v>60.508246</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="65">
         <v>5882.1478870000001</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="65">
         <v>552.83233499999994</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <v>53.828200000000002</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="65">
         <v>550.64190699999995</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="65">
         <v>2024.0927489999999</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="65">
         <v>656.589967</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="65">
         <v>95.453866000000005</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="65">
         <v>182.891437</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="65">
         <v>924.072138</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="65">
         <v>883.39262299999996</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="65">
         <v>0.85654699999999995</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="65">
         <v>27.909994000000001</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="65">
         <v>1259.986568</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="65">
         <v>1454.1966460000001</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="65">
         <v>709.93198500000005</v>
       </c>
-      <c r="S13" s="68">
+      <c r="S13" s="65">
         <v>90.137845999999996</v>
       </c>
-      <c r="T13" s="68">
+      <c r="T13" s="65">
         <v>108.28717899999999</v>
       </c>
       <c r="U13" s="44">
@@ -10134,73 +10134,73 @@
       <c r="AA13" s="45">
         <v>16209</v>
       </c>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="50">
-        <v>298954.25300000003</v>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="44">
+        <v>86535.3</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="65">
         <v>3684.521788</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="65">
         <v>59.214776000000001</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="65">
         <v>6332.3594649999995</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="65">
         <v>546.26774699999999</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="65">
         <v>36.663021999999998</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="65">
         <v>690.54012</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="65">
         <v>2290.930492</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="65">
         <v>670.68351500000006</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="65">
         <v>96.333707000000004</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="65">
         <v>166.212996</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="65">
         <v>927.90794700000004</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="65">
         <v>974.31660999999997</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="65">
         <v>0.86802400000000002</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O14" s="65">
         <v>32.106999000000002</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="65">
         <v>1065.940004</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="65">
         <v>1602.2972890000001</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="65">
         <v>738.99451799999997</v>
       </c>
-      <c r="S14" s="68">
+      <c r="S14" s="65">
         <v>46.845740999999997</v>
       </c>
-      <c r="T14" s="68">
+      <c r="T14" s="65">
         <v>113.45966199999999</v>
       </c>
       <c r="U14" s="44">
@@ -10224,73 +10224,73 @@
       <c r="AA14" s="45">
         <v>14988</v>
       </c>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="50">
-        <v>339993.39600000001</v>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="44">
+        <v>94913.26</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="65">
         <v>5248.6923790000001</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="65">
         <v>57.911354000000003</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="65">
         <v>7225.1302369999994</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="65">
         <v>540.34763099999998</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="65">
         <v>39.591146999999999</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="65">
         <v>585.78157899999997</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="65">
         <v>2520.3690270000002</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="65">
         <v>690.23718499999995</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="65">
         <v>103.75981899999999</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="65">
         <v>172.64999800000001</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="65">
         <v>851.115769</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="65">
         <v>817.94337199999995</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="65">
         <v>1.1866460000000001</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="65">
         <v>39.980524000000003</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="65">
         <v>905.18195000000003</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="65">
         <v>1676.344554</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="65">
         <v>801.08351500000003</v>
       </c>
-      <c r="S15" s="68">
+      <c r="S15" s="65">
         <v>43.844423999999997</v>
       </c>
-      <c r="T15" s="68">
+      <c r="T15" s="65">
         <v>135.29069200000001</v>
       </c>
       <c r="U15" s="44">
@@ -10314,73 +10314,73 @@
       <c r="AA15" s="45">
         <v>13792</v>
       </c>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="50">
-        <v>438555.44500000001</v>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="44">
+        <v>108148.371</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="65">
         <v>4423.0372029999999</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="65">
         <v>54.023598</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="65">
         <v>8422.3229389999997</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="65">
         <v>668.30098099999998</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="65">
         <v>46.478808999999998</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="65">
         <v>648.09115999999995</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="65">
         <v>2695.278182</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="65">
         <v>716.813804</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="65">
         <v>109.22230500000001</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="65">
         <v>171.15072799999999</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="65">
         <v>849.32515100000001</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="65">
         <v>840.13249800000006</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="65">
         <v>1.5403530000000001</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="65">
         <v>54.571458</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="65">
         <v>947.71603800000003</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="65">
         <v>1759.303228</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="65">
         <v>808.75316199999997</v>
       </c>
-      <c r="S16" s="68">
+      <c r="S16" s="65">
         <v>41.556705999999998</v>
       </c>
-      <c r="T16" s="68">
+      <c r="T16" s="65">
         <v>152.986143</v>
       </c>
       <c r="U16" s="44">
@@ -10404,73 +10404,73 @@
       <c r="AA16" s="45">
         <v>17787</v>
       </c>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="50">
-        <v>379657.777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="44">
+        <v>114904.315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="65">
         <v>3240.6692849999999</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="65">
         <v>55.520870000000002</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="65">
         <v>9837.9356079999998</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="65">
         <v>705.67134499999997</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="65">
         <v>45.349361999999999</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="65">
         <v>555.43018800000004</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="65">
         <v>2495.0958989999999</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="65">
         <v>632.52622399999996</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="65">
         <v>115.228942</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="65">
         <v>182.46911399999999</v>
       </c>
-      <c r="L17" s="68">
+      <c r="L17" s="65">
         <v>847.77004399999998</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="65">
         <v>778.186868</v>
       </c>
-      <c r="N17" s="68">
+      <c r="N17" s="65">
         <v>3.4486119999999998</v>
       </c>
-      <c r="O17" s="68">
+      <c r="O17" s="65">
         <v>53.166648000000002</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="65">
         <v>997.59863900000005</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="65">
         <v>1842.9994019999999</v>
       </c>
-      <c r="R17" s="68">
+      <c r="R17" s="65">
         <v>775.93738099999996</v>
       </c>
-      <c r="S17" s="68">
+      <c r="S17" s="65">
         <v>55.826607000000003</v>
       </c>
-      <c r="T17" s="68">
+      <c r="T17" s="65">
         <v>133.997028</v>
       </c>
       <c r="U17" s="44">
@@ -10495,76 +10495,76 @@
       <c r="AB17" s="47">
         <v>449686</v>
       </c>
-      <c r="AC17" s="83">
+      <c r="AC17" s="80">
         <v>2268</v>
       </c>
-      <c r="AD17" s="78">
+      <c r="AD17" s="75">
         <v>313067</v>
       </c>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="50">
-        <v>427733.43600000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="44">
+        <v>116858.27800000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="64">
         <v>3576.782068</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="64">
         <v>62.032474999999998</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="64">
         <v>9922.8362519999991</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="64">
         <v>678.20064600000001</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="64">
         <v>46.650812999999999</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="64">
         <v>722.41804300000001</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="64">
         <v>2545.1322660000001</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="64">
         <v>615.34095600000001</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="64">
         <v>103.50732000000001</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="64">
         <v>202.099502</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="64">
         <v>901.61320999999998</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="64">
         <v>748.38890700000002</v>
       </c>
-      <c r="N18" s="67">
+      <c r="N18" s="64">
         <v>2.1181559999999999</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="64">
         <v>43.523842000000002</v>
       </c>
-      <c r="P18" s="67">
+      <c r="P18" s="64">
         <v>1135.2868699999999</v>
       </c>
-      <c r="Q18" s="67">
+      <c r="Q18" s="64">
         <v>2860.1228689999998</v>
       </c>
-      <c r="R18" s="67">
+      <c r="R18" s="64">
         <v>805.21874300000002</v>
       </c>
-      <c r="S18" s="67">
+      <c r="S18" s="64">
         <v>66.669128999999998</v>
       </c>
-      <c r="T18" s="67">
+      <c r="T18" s="64">
         <v>177.54431600000001</v>
       </c>
       <c r="U18" s="44">
@@ -10591,78 +10591,78 @@
       <c r="AB18" s="47">
         <v>449681</v>
       </c>
-      <c r="AC18" s="83">
+      <c r="AC18" s="80">
         <v>2284</v>
       </c>
-      <c r="AD18" s="78">
+      <c r="AD18" s="75">
         <v>344589</v>
       </c>
-      <c r="AE18" s="52">
+      <c r="AE18" s="49">
         <v>9</v>
       </c>
-      <c r="AF18" s="48">
-        <v>365800.94500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="AF18" s="44">
+        <v>126695.70599999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="64">
         <v>6015.3732430000009</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="64">
         <v>57.633502</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="64">
         <v>7715.2128599999996</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="64">
         <v>763.31936199999996</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="64">
         <v>49.240749999999998</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="64">
         <v>1474.33484</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="64">
         <v>3189.9114209999998</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="64">
         <v>576.95891099999994</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="64">
         <v>91.249972999999997</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="64">
         <v>190.75493</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="64">
         <v>1033.736416</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="64">
         <v>852.94688099999996</v>
       </c>
-      <c r="N19" s="67">
+      <c r="N19" s="64">
         <v>2.022383</v>
       </c>
-      <c r="O19" s="67">
+      <c r="O19" s="64">
         <v>33.090502999999998</v>
       </c>
-      <c r="P19" s="67">
+      <c r="P19" s="64">
         <v>1387.671515</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="64">
         <v>4044.3491469999999</v>
       </c>
-      <c r="R19" s="67">
+      <c r="R19" s="64">
         <v>879.86534500000005</v>
       </c>
-      <c r="S19" s="67">
+      <c r="S19" s="64">
         <v>80.141478000000006</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="64">
         <v>272.12013100000001</v>
       </c>
       <c r="U19" s="44">
@@ -10687,78 +10687,78 @@
       <c r="AB19" s="47">
         <v>492314</v>
       </c>
-      <c r="AC19" s="83">
+      <c r="AC19" s="80">
         <v>2261</v>
       </c>
-      <c r="AD19" s="78">
+      <c r="AD19" s="75">
         <v>345037</v>
       </c>
-      <c r="AE19" s="52">
+      <c r="AE19" s="49">
         <v>6</v>
       </c>
-      <c r="AF19" s="48">
-        <v>378620.53700000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="AF19" s="44">
+        <v>144860.65599999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="64">
         <v>5646.1184910000002</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="64">
         <v>55.812863</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="64">
         <v>7758.9439460000003</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="64">
         <v>831.63612999999998</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="64">
         <v>56.596603999999999</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="64">
         <v>825.75317900000005</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="64">
         <v>2924.518427</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="64">
         <v>581.72520099999997</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="64">
         <v>96.097821999999994</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="64">
         <v>203.978049</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="64">
         <v>1154.9829549999999</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="64">
         <v>1026.9585729999999</v>
       </c>
-      <c r="N20" s="67">
+      <c r="N20" s="64">
         <v>1.9912879999999999</v>
       </c>
-      <c r="O20" s="67">
+      <c r="O20" s="64">
         <v>29.241012000000001</v>
       </c>
-      <c r="P20" s="67">
+      <c r="P20" s="64">
         <v>1097.0559599999999</v>
       </c>
-      <c r="Q20" s="67">
+      <c r="Q20" s="64">
         <v>4156.1298660000002</v>
       </c>
-      <c r="R20" s="67">
+      <c r="R20" s="64">
         <v>945.07603300000005</v>
       </c>
-      <c r="S20" s="67">
+      <c r="S20" s="64">
         <v>81.574973999999997</v>
       </c>
-      <c r="T20" s="67">
+      <c r="T20" s="64">
         <v>274.31893300000002</v>
       </c>
       <c r="U20" s="44">
@@ -10785,78 +10785,78 @@
       <c r="AB20" s="47">
         <v>491212</v>
       </c>
-      <c r="AC20" s="83">
+      <c r="AC20" s="80">
         <v>2261.3418506463099</v>
       </c>
-      <c r="AD20" s="78">
+      <c r="AD20" s="75">
         <v>345116</v>
       </c>
-      <c r="AE20" s="52">
+      <c r="AE20" s="49">
         <v>8</v>
       </c>
-      <c r="AF20" s="48">
-        <v>461789.49600000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="AF20" s="44">
+        <v>140600.58799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="64">
         <v>4101.6656670000002</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="64">
         <v>52.207929999999998</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="64">
         <v>7679.6094870000006</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="64">
         <v>831.68772899999999</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="64">
         <v>65.900210999999999</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="64">
         <v>749.91904299999999</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="64">
         <v>2741.9193009999999</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="64">
         <v>600.70335899999998</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="64">
         <v>97.966733000000005</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="64">
         <v>191.99365800000001</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="64">
         <v>1246.3423009999999</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="64">
         <v>706.86712599999998</v>
       </c>
-      <c r="N21" s="67">
+      <c r="N21" s="64">
         <v>1.7343679999999999</v>
       </c>
-      <c r="O21" s="67">
+      <c r="O21" s="64">
         <v>26.725743000000001</v>
       </c>
-      <c r="P21" s="67">
+      <c r="P21" s="64">
         <v>833.84823500000005</v>
       </c>
-      <c r="Q21" s="67">
+      <c r="Q21" s="64">
         <v>4351.2944049999996</v>
       </c>
-      <c r="R21" s="67">
+      <c r="R21" s="64">
         <v>1012.753674</v>
       </c>
-      <c r="S21" s="67">
+      <c r="S21" s="64">
         <v>81.251755000000003</v>
       </c>
-      <c r="T21" s="67">
+      <c r="T21" s="64">
         <v>268.55886099999998</v>
       </c>
       <c r="U21" s="44">
@@ -10883,78 +10883,78 @@
       <c r="AB21" s="47">
         <v>491553</v>
       </c>
-      <c r="AC21" s="83">
+      <c r="AC21" s="80">
         <v>2241</v>
       </c>
-      <c r="AD21" s="78">
+      <c r="AD21" s="75">
         <v>345313</v>
       </c>
-      <c r="AE21" s="52">
+      <c r="AE21" s="49">
         <v>4</v>
       </c>
-      <c r="AF21" s="48">
-        <v>417614.34099999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="AF21" s="44">
+        <v>130481.87000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="20" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="64">
         <v>2643.7459709999998</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="64">
         <v>64.552128999999994</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="64">
         <v>7502.1853889999993</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="64">
         <v>773.44355900000005</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="64">
         <v>128.11793700000001</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="64">
         <v>751.28846799999997</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="64">
         <v>2689.8009489999999</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="64">
         <v>619.72768599999995</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="64">
         <v>108.005154</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="64">
         <v>198.76593099999999</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="64">
         <v>1340.4462020000001</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="64">
         <v>809.97268199999996</v>
       </c>
-      <c r="N22" s="67">
+      <c r="N22" s="64">
         <v>2.204971</v>
       </c>
-      <c r="O22" s="67">
+      <c r="O22" s="64">
         <v>34.625695999999998</v>
       </c>
-      <c r="P22" s="67">
+      <c r="P22" s="64">
         <v>889.84305700000004</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="Q22" s="64">
         <v>3970.3217749999999</v>
       </c>
-      <c r="R22" s="67">
+      <c r="R22" s="64">
         <v>1057.109451</v>
       </c>
-      <c r="S22" s="67">
+      <c r="S22" s="64">
         <v>80.951623999999995</v>
       </c>
-      <c r="T22" s="67">
+      <c r="T22" s="64">
         <v>695.19094199999995</v>
       </c>
       <c r="U22" s="44">
@@ -10981,78 +10981,78 @@
       <c r="AB22" s="47">
         <v>491350</v>
       </c>
-      <c r="AC22" s="83">
+      <c r="AC22" s="80">
         <v>2353</v>
       </c>
-      <c r="AD22" s="78">
+      <c r="AD22" s="75">
         <v>345205</v>
       </c>
-      <c r="AE22" s="52">
+      <c r="AE22" s="49">
         <v>6</v>
       </c>
-      <c r="AF22" s="48">
-        <v>468325.83400000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="AF22" s="44">
+        <v>124484.76700000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
         <v>2016</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="64">
         <v>2456.2343449999998</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="64">
         <v>49.939608999999997</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="64">
         <v>7879.7490990000006</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="64">
         <v>759.05327599999998</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="64">
         <v>107.980249</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="64">
         <v>783.99641599999995</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="64">
         <v>2937.1454739999999</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="64">
         <v>678.31694100000004</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="64">
         <v>116.11282</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="64">
         <v>184.197732</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="64">
         <v>1504.921736</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="64">
         <v>842.64566400000001</v>
       </c>
-      <c r="N23" s="67">
+      <c r="N23" s="64">
         <v>3.3622390000000002</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="64">
         <v>38.996673999999999</v>
       </c>
-      <c r="P23" s="67">
+      <c r="P23" s="64">
         <v>893.49458100000004</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="64">
         <v>3829.300827</v>
       </c>
-      <c r="R23" s="67">
+      <c r="R23" s="64">
         <v>1122.470503</v>
       </c>
-      <c r="S23" s="67">
+      <c r="S23" s="64">
         <v>102.847759</v>
       </c>
-      <c r="T23" s="67">
+      <c r="T23" s="64">
         <v>913.11873000000003</v>
       </c>
       <c r="U23" s="44">
@@ -11079,78 +11079,78 @@
       <c r="AB23" s="47">
         <v>491322</v>
       </c>
-      <c r="AC23" s="83">
+      <c r="AC23" s="80">
         <v>2348</v>
       </c>
-      <c r="AD23" s="78">
+      <c r="AD23" s="75">
         <v>345244</v>
       </c>
-      <c r="AE23" s="52">
+      <c r="AE23" s="49">
         <v>11</v>
       </c>
-      <c r="AF23" s="48">
-        <v>444803.565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
+      <c r="AF23" s="44">
+        <v>130145.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
         <v>2017</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="64">
         <v>3401.5183919999999</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="64">
         <v>44.789842999999998</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="64">
         <v>7512.115366</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="64">
         <v>763.74001299999998</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="64">
         <v>138.114047</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="64">
         <v>786.33034499999997</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="64">
         <v>3333.8359850000002</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="64">
         <v>754.49839999999995</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="64">
         <v>124.95141099999999</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="64">
         <v>211.792147</v>
       </c>
-      <c r="L24" s="67">
+      <c r="L24" s="64">
         <v>1523.9466789999999</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="64">
         <v>909.48021400000005</v>
       </c>
-      <c r="N24" s="67">
+      <c r="N24" s="64">
         <v>5.1916909999999996</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="64">
         <v>45.237101000000003</v>
       </c>
-      <c r="P24" s="67">
+      <c r="P24" s="64">
         <v>922.677054</v>
       </c>
-      <c r="Q24" s="67">
+      <c r="Q24" s="64">
         <v>3885.283003</v>
       </c>
-      <c r="R24" s="67">
+      <c r="R24" s="64">
         <v>1184.502833</v>
       </c>
-      <c r="S24" s="67">
+      <c r="S24" s="64">
         <v>120.9744</v>
       </c>
-      <c r="T24" s="67">
+      <c r="T24" s="64">
         <v>948.29857000000004</v>
       </c>
       <c r="U24" s="44">
@@ -11177,78 +11177,78 @@
       <c r="AB24" s="47">
         <v>491855</v>
       </c>
-      <c r="AC24" s="83">
+      <c r="AC24" s="80">
         <v>2346</v>
       </c>
-      <c r="AD24" s="78">
+      <c r="AD24" s="75">
         <v>345124</v>
       </c>
-      <c r="AE24" s="52">
+      <c r="AE24" s="49">
         <v>6</v>
       </c>
-      <c r="AF24" s="48">
-        <v>449602.96699999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="AF24" s="44">
+        <v>138558.04399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="63">
         <v>2018</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="64">
         <v>4314.3237319999998</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="64">
         <v>46.443027000000001</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="64">
         <v>7184.4808499999999</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="64">
         <v>625.10137199999997</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="64">
         <v>200.17054400000001</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="64">
         <v>816.34720500000003</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="64">
         <v>3726.8711079999998</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="64">
         <v>773.16384500000004</v>
       </c>
-      <c r="J25" s="67">
+      <c r="J25" s="64">
         <v>137.40613300000001</v>
       </c>
-      <c r="K25" s="67">
+      <c r="K25" s="64">
         <v>221.698824</v>
       </c>
-      <c r="L25" s="67">
+      <c r="L25" s="64">
         <v>1552.445774</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="64">
         <v>1103.455522</v>
       </c>
-      <c r="N25" s="67">
+      <c r="N25" s="64">
         <v>4.0811830000000002</v>
       </c>
-      <c r="O25" s="67">
+      <c r="O25" s="64">
         <v>40.576529999999998</v>
       </c>
-      <c r="P25" s="67">
+      <c r="P25" s="64">
         <v>956.24064699999997</v>
       </c>
-      <c r="Q25" s="67">
+      <c r="Q25" s="64">
         <v>3710.8028530000001</v>
       </c>
-      <c r="R25" s="67">
+      <c r="R25" s="64">
         <v>1303.039743</v>
       </c>
-      <c r="S25" s="67">
+      <c r="S25" s="64">
         <v>140.434381</v>
       </c>
-      <c r="T25" s="67">
+      <c r="T25" s="64">
         <v>925.66668700000002</v>
       </c>
       <c r="U25" s="44">
@@ -11273,233 +11273,269 @@
       <c r="AB25" s="47">
         <v>492113</v>
       </c>
-      <c r="AC25" s="83">
+      <c r="AC25" s="80">
         <v>2344</v>
       </c>
-      <c r="AD25" s="78">
+      <c r="AD25" s="75">
         <v>345409</v>
       </c>
-      <c r="AE25" s="52">
+      <c r="AE25" s="49">
         <v>5</v>
       </c>
-      <c r="AF25" s="48">
-        <v>454952.54100000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="77"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="74"/>
+      <c r="AF25" s="44">
+        <v>145898.647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AM30">
+        <v>94913.26</v>
+      </c>
+      <c r="AN30">
+        <v>108148.371</v>
+      </c>
+      <c r="AO30">
+        <v>114904.315</v>
+      </c>
+      <c r="AP30">
+        <v>116858.27800000001</v>
+      </c>
+      <c r="AQ30">
+        <v>126695.70599999999</v>
+      </c>
+      <c r="AR30">
+        <v>144860.65599999999</v>
+      </c>
+      <c r="AS30">
+        <v>140600.58799999999</v>
+      </c>
+      <c r="AT30">
+        <v>130481.87000000001</v>
+      </c>
+      <c r="AU30">
+        <v>124484.76700000001</v>
+      </c>
+      <c r="AV30">
+        <v>130145.02</v>
+      </c>
+      <c r="AW30">
+        <v>138558.04399999999</v>
+      </c>
+      <c r="AX30">
+        <v>145898.647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
